--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -131,9 +131,6 @@
     <t>Création de l'arborescence</t>
   </si>
   <si>
-    <t>Modélisation du diagramme de classes</t>
-  </si>
-  <si>
     <t>Modélisation de la BDD</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>LIGNANI</t>
+  </si>
+  <si>
+    <t>Modélisation du diagramme UML</t>
   </si>
 </sst>
 </file>
@@ -1138,6 +1138,17 @@
     <xf numFmtId="165" fontId="12" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1156,17 +1167,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20 % - Accent1" xfId="27" builtinId="30" customBuiltin="1"/>
@@ -1222,19 +1222,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.499984740745262"/>
@@ -1268,6 +1255,19 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -1897,17 +1897,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="61"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -1920,12 +1920,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="39">
         <v>0</v>
       </c>
@@ -1940,10 +1940,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="40">
         <v>1</v>
       </c>
@@ -2578,8 +2578,8 @@
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>27</v>
+      <c r="B8" s="56" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="24"/>
@@ -2817,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="24">
         <v>0.5</v>
@@ -2846,55 +2846,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L9" s="59" t="str">
+      <c r="L9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M9" s="59" t="str">
+      <c r="M9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N9" s="59" t="str">
+      <c r="N9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O9" s="59" t="str">
+      <c r="O9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P9" s="59" t="str">
+      <c r="P9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q9" s="59" t="str">
+      <c r="Q9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R9" s="59" t="str">
+      <c r="R9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S9" s="59" t="str">
+      <c r="S9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T9" s="59" t="str">
+      <c r="T9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U9" s="59" t="str">
+      <c r="U9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V9" s="59" t="str">
+      <c r="V9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W9" s="59" t="str">
+      <c r="W9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X9" s="59" t="str">
+      <c r="X9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -3062,16 +3062,18 @@
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="24">
-        <v>0</v>
-      </c>
-      <c r="E10" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>44081</v>
+      </c>
       <c r="F10" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="29">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I10" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
@@ -3085,55 +3087,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L10" s="59" t="str">
+      <c r="L10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="59" t="str">
+      <c r="M10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N10" s="59" t="str">
+      <c r="N10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O10" s="59" t="str">
+      <c r="O10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P10" s="59" t="str">
+      <c r="P10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="59" t="str">
+      <c r="Q10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R10" s="59" t="str">
+      <c r="R10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S10" s="59" t="str">
+      <c r="S10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T10" s="59" t="str">
+      <c r="T10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U10" s="59" t="str">
+      <c r="U10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V10" s="59" t="str">
+      <c r="V10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W10" s="59" t="str">
+      <c r="W10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X10" s="59" t="str">
+      <c r="X10" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -3301,78 +3303,80 @@
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="24">
-        <v>0</v>
-      </c>
-      <c r="E11" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>44081</v>
+      </c>
       <c r="F11" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="29" t="str">
+      <c r="H11" s="29">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="I11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J11" s="59" t="str">
+      <c r="J11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K11" s="59" t="str">
+      <c r="K11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L11" s="59" t="str">
+      <c r="L11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M11" s="59" t="str">
+      <c r="M11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N11" s="59" t="str">
+      <c r="N11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O11" s="59" t="str">
+      <c r="O11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P11" s="59" t="str">
+      <c r="P11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q11" s="59" t="str">
+      <c r="Q11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R11" s="59" t="str">
+      <c r="R11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S11" s="59" t="str">
+      <c r="S11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T11" s="59" t="str">
+      <c r="T11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U11" s="59" t="str">
+      <c r="U11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V11" s="59" t="str">
+      <c r="V11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W11" s="59" t="str">
+      <c r="W11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X11" s="59" t="str">
+      <c r="X11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -3536,7 +3540,7 @@
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="31" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="24">
@@ -3563,55 +3567,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L12" s="59" t="str">
+      <c r="L12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M12" s="59" t="str">
+      <c r="M12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N12" s="59" t="str">
+      <c r="N12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O12" s="59" t="str">
+      <c r="O12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P12" s="59" t="str">
+      <c r="P12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q12" s="59" t="str">
+      <c r="Q12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R12" s="59" t="str">
+      <c r="R12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S12" s="59" t="str">
+      <c r="S12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T12" s="59" t="str">
+      <c r="T12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U12" s="59" t="str">
+      <c r="U12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V12" s="59" t="str">
+      <c r="V12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W12" s="59" t="str">
+      <c r="W12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X12" s="59" t="str">
+      <c r="X12" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -3775,20 +3779,22 @@
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="24">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="25">
+        <v>44081</v>
+      </c>
       <c r="F13" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="29" t="str">
+      <c r="H13" s="29">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I13" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
@@ -3802,55 +3808,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="59" t="str">
+      <c r="L13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="59" t="str">
+      <c r="M13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N13" s="59" t="str">
+      <c r="N13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O13" s="59" t="str">
+      <c r="O13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P13" s="59" t="str">
+      <c r="P13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="59" t="str">
+      <c r="Q13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R13" s="59" t="str">
+      <c r="R13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S13" s="59" t="str">
+      <c r="S13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T13" s="59" t="str">
+      <c r="T13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U13" s="59" t="str">
+      <c r="U13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V13" s="59" t="str">
+      <c r="V13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W13" s="59" t="str">
+      <c r="W13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X13" s="59" t="str">
+      <c r="X13" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4013,8 +4019,8 @@
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="63" t="s">
-        <v>41</v>
+      <c r="B14" s="57" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="24"/>
@@ -4037,55 +4043,55 @@
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L14" s="59" t="str">
+      <c r="L14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M14" s="59" t="str">
+      <c r="M14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N14" s="59" t="str">
+      <c r="N14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O14" s="59" t="str">
+      <c r="O14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P14" s="59" t="str">
+      <c r="P14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q14" s="59" t="str">
+      <c r="Q14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R14" s="59" t="str">
+      <c r="R14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S14" s="59" t="str">
+      <c r="S14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T14" s="59" t="str">
+      <c r="T14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U14" s="59" t="str">
+      <c r="U14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V14" s="59" t="str">
+      <c r="V14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W14" s="59" t="str">
+      <c r="W14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X14" s="59" t="str">
+      <c r="X14" s="53" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4249,7 +4255,7 @@
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="24">
@@ -4276,55 +4282,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L15" s="59" t="str">
+      <c r="L15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="59" t="str">
+      <c r="M15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N15" s="59" t="str">
+      <c r="N15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O15" s="59" t="str">
+      <c r="O15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P15" s="59" t="str">
+      <c r="P15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="59" t="str">
+      <c r="Q15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R15" s="59" t="str">
+      <c r="R15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S15" s="59" t="str">
+      <c r="S15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T15" s="59" t="str">
+      <c r="T15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U15" s="59" t="str">
+      <c r="U15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V15" s="59" t="str">
+      <c r="V15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W15" s="59" t="str">
+      <c r="W15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X15" s="59" t="str">
+      <c r="X15" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4487,8 +4493,8 @@
     </row>
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
-      <c r="B16" s="60" t="s">
-        <v>29</v>
+      <c r="B16" s="54" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="24">
@@ -4515,55 +4521,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L16" s="59" t="str">
+      <c r="L16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="59" t="str">
+      <c r="M16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N16" s="59" t="str">
+      <c r="N16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O16" s="59" t="str">
+      <c r="O16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P16" s="59" t="str">
+      <c r="P16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q16" s="59" t="str">
+      <c r="Q16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R16" s="59" t="str">
+      <c r="R16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S16" s="59" t="str">
+      <c r="S16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T16" s="59" t="str">
+      <c r="T16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U16" s="59" t="str">
+      <c r="U16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V16" s="59" t="str">
+      <c r="V16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W16" s="59" t="str">
+      <c r="W16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X16" s="59" t="str">
+      <c r="X16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4726,8 +4732,8 @@
     </row>
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="60" t="s">
-        <v>30</v>
+      <c r="B17" s="54" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="24">
@@ -4965,8 +4971,8 @@
     </row>
     <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="60" t="s">
-        <v>31</v>
+      <c r="B18" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="24">
@@ -5204,8 +5210,8 @@
     </row>
     <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
-      <c r="B19" s="60" t="s">
-        <v>32</v>
+      <c r="B19" s="54" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="24">
@@ -5275,8 +5281,8 @@
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
-      <c r="B20" s="61" t="s">
-        <v>34</v>
+      <c r="B20" s="55" t="s">
+        <v>33</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="24">
@@ -5346,8 +5352,8 @@
     </row>
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="61" t="s">
-        <v>35</v>
+      <c r="B21" s="55" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="24">
@@ -5417,8 +5423,8 @@
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="61" t="s">
-        <v>36</v>
+      <c r="B22" s="55" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="24">
@@ -5488,8 +5494,8 @@
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="60" t="s">
-        <v>37</v>
+      <c r="B23" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="24">
@@ -5559,8 +5565,8 @@
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
-      <c r="B24" s="60" t="s">
-        <v>33</v>
+      <c r="B24" s="54" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="24">
@@ -5895,17 +5901,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:BK24">
-    <cfRule type="expression" dxfId="2" priority="78">
+    <cfRule type="expression" dxfId="1" priority="78">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK24">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="13370" tabRatio="415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="4190" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -179,10 +179,61 @@
     <t>Développement du site internet</t>
   </si>
   <si>
-    <t>LIGNANI</t>
+    <t>Modélisation du diagramme UML</t>
   </si>
   <si>
-    <t>Modélisation du diagramme UML</t>
+    <t xml:space="preserve">Site internet accessible sur téléphone </t>
+  </si>
+  <si>
+    <t>Portage du site internet afin de le rendre utilisable sur un téléphone portable</t>
+  </si>
+  <si>
+    <t>Test d’utilisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction de la documentation </t>
+  </si>
+  <si>
+    <t>Création du panel administrateur</t>
+  </si>
+  <si>
+    <t>Prototypage de la vue administrateur</t>
+  </si>
+  <si>
+    <t>Accès aux données voulues</t>
+  </si>
+  <si>
+    <t>Envoie de message aux membres inscrits</t>
+  </si>
+  <si>
+    <t>Envoie de mail aux membres inscrits</t>
+  </si>
+  <si>
+    <t>Visibilité des données souhaitées</t>
+  </si>
+  <si>
+    <t>Exportation des données sous format Excel</t>
+  </si>
+  <si>
+    <t>Installation d’un serveur Web</t>
+  </si>
+  <si>
+    <t>Permettre aux utilisateurs d’ajouter mes messages en favoris</t>
+  </si>
+  <si>
+    <t>Ajouter la possibilité de créer des groupes privés</t>
+  </si>
+  <si>
+    <t>Ajouter une barre de notification (message privé, message de la direction…)</t>
+  </si>
+  <si>
+    <t>LOIC</t>
+  </si>
+  <si>
+    <t>QUENTIN</t>
+  </si>
+  <si>
+    <t>AMINE</t>
   </si>
 </sst>
 </file>
@@ -195,7 +246,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -421,6 +472,47 @@
       <b/>
       <sz val="12"/>
       <color theme="8" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1002,7 +1094,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1167,6 +1259,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20 % - Accent1" xfId="27" builtinId="30" customBuiltin="1"/>
@@ -1222,6 +1329,19 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="-0.499984740745262"/>
@@ -1255,19 +1375,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1570,8 +1677,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F24" totalsRowShown="0">
-  <autoFilter ref="B6:F24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F40" totalsRowShown="0">
+  <autoFilter ref="B6:F40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1860,10 +1967,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2817,10 +2924,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D9" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="25">
         <f ca="1">TODAY()</f>
@@ -3060,7 +3167,9 @@
       <c r="B10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D10" s="24">
         <v>1</v>
       </c>
@@ -3301,7 +3410,9 @@
       <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="D11" s="24">
         <v>1</v>
       </c>
@@ -3540,20 +3651,24 @@
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="25"/>
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>44081</v>
+      </c>
       <c r="F12" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="29" t="str">
+      <c r="H12" s="29">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I12" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
@@ -3781,7 +3896,9 @@
       <c r="B13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="24">
         <v>0.5</v>
       </c>
@@ -5573,311 +5690,1410 @@
         <v>0</v>
       </c>
       <c r="E24" s="25"/>
-      <c r="F24" s="48">
+      <c r="F24" s="48"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="29"/>
+      <c r="BE24" s="29"/>
+      <c r="BF24" s="29"/>
+      <c r="BG24" s="29"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+    </row>
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="65"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="29"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
+      <c r="BB25" s="29"/>
+      <c r="BC25" s="29"/>
+      <c r="BD25" s="29"/>
+      <c r="BE25" s="29"/>
+      <c r="BF25" s="29"/>
+      <c r="BG25" s="29"/>
+      <c r="BH25" s="29"/>
+      <c r="BI25" s="29"/>
+      <c r="BJ25" s="29"/>
+      <c r="BK25" s="29"/>
+    </row>
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="24">
         <v>0</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK24" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E24,$F24=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="29"/>
+      <c r="AS26" s="29"/>
+      <c r="AT26" s="29"/>
+      <c r="AU26" s="29"/>
+      <c r="AV26" s="29"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
+      <c r="BB26" s="29"/>
+      <c r="BC26" s="29"/>
+      <c r="BD26" s="29"/>
+      <c r="BE26" s="29"/>
+      <c r="BF26" s="29"/>
+      <c r="BG26" s="29"/>
+      <c r="BH26" s="29"/>
+      <c r="BI26" s="29"/>
+      <c r="BJ26" s="29"/>
+      <c r="BK26" s="29"/>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="24">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="29"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="29"/>
+      <c r="AV27" s="29"/>
+      <c r="AW27" s="29"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="29"/>
+      <c r="BB27" s="29"/>
+      <c r="BC27" s="29"/>
+      <c r="BD27" s="29"/>
+      <c r="BE27" s="29"/>
+      <c r="BF27" s="29"/>
+      <c r="BG27" s="29"/>
+      <c r="BH27" s="29"/>
+      <c r="BI27" s="29"/>
+      <c r="BJ27" s="29"/>
+      <c r="BK27" s="29"/>
+    </row>
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="24">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
+      <c r="AS28" s="29"/>
+      <c r="AT28" s="29"/>
+      <c r="AU28" s="29"/>
+      <c r="AV28" s="29"/>
+      <c r="AW28" s="29"/>
+      <c r="AX28" s="29"/>
+      <c r="AY28" s="29"/>
+      <c r="AZ28" s="29"/>
+      <c r="BA28" s="29"/>
+      <c r="BB28" s="29"/>
+      <c r="BC28" s="29"/>
+      <c r="BD28" s="29"/>
+      <c r="BE28" s="29"/>
+      <c r="BF28" s="29"/>
+      <c r="BG28" s="29"/>
+      <c r="BH28" s="29"/>
+      <c r="BI28" s="29"/>
+      <c r="BJ28" s="29"/>
+      <c r="BK28" s="29"/>
+    </row>
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
+      <c r="B29" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="29"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="29"/>
+      <c r="BB29" s="29"/>
+      <c r="BC29" s="29"/>
+      <c r="BD29" s="29"/>
+      <c r="BE29" s="29"/>
+      <c r="BF29" s="29"/>
+      <c r="BG29" s="29"/>
+      <c r="BH29" s="29"/>
+      <c r="BI29" s="29"/>
+      <c r="BJ29" s="29"/>
+      <c r="BK29" s="29"/>
+    </row>
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="24">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="29"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="29"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
+      <c r="BB30" s="29"/>
+      <c r="BC30" s="29"/>
+      <c r="BD30" s="29"/>
+      <c r="BE30" s="29"/>
+      <c r="BF30" s="29"/>
+      <c r="BG30" s="29"/>
+      <c r="BH30" s="29"/>
+      <c r="BI30" s="29"/>
+      <c r="BJ30" s="29"/>
+      <c r="BK30" s="29"/>
+    </row>
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="24">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="29"/>
+      <c r="AS31" s="29"/>
+      <c r="AT31" s="29"/>
+      <c r="AU31" s="29"/>
+      <c r="AV31" s="29"/>
+      <c r="AW31" s="29"/>
+      <c r="AX31" s="29"/>
+      <c r="AY31" s="29"/>
+      <c r="AZ31" s="29"/>
+      <c r="BA31" s="29"/>
+      <c r="BB31" s="29"/>
+      <c r="BC31" s="29"/>
+      <c r="BD31" s="29"/>
+      <c r="BE31" s="29"/>
+      <c r="BF31" s="29"/>
+      <c r="BG31" s="29"/>
+      <c r="BH31" s="29"/>
+      <c r="BI31" s="29"/>
+      <c r="BJ31" s="29"/>
+      <c r="BK31" s="29"/>
+    </row>
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="24">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
+      <c r="AS32" s="29"/>
+      <c r="AT32" s="29"/>
+      <c r="AU32" s="29"/>
+      <c r="AV32" s="29"/>
+      <c r="AW32" s="29"/>
+      <c r="AX32" s="29"/>
+      <c r="AY32" s="29"/>
+      <c r="AZ32" s="29"/>
+      <c r="BA32" s="29"/>
+      <c r="BB32" s="29"/>
+      <c r="BC32" s="29"/>
+      <c r="BD32" s="29"/>
+      <c r="BE32" s="29"/>
+      <c r="BF32" s="29"/>
+      <c r="BG32" s="29"/>
+      <c r="BH32" s="29"/>
+      <c r="BI32" s="29"/>
+      <c r="BJ32" s="29"/>
+      <c r="BK32" s="29"/>
+    </row>
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="29"/>
+      <c r="AR33" s="29"/>
+      <c r="AS33" s="29"/>
+      <c r="AT33" s="29"/>
+      <c r="AU33" s="29"/>
+      <c r="AV33" s="29"/>
+      <c r="AW33" s="29"/>
+      <c r="AX33" s="29"/>
+      <c r="AY33" s="29"/>
+      <c r="AZ33" s="29"/>
+      <c r="BA33" s="29"/>
+      <c r="BB33" s="29"/>
+      <c r="BC33" s="29"/>
+      <c r="BD33" s="29"/>
+      <c r="BE33" s="29"/>
+      <c r="BF33" s="29"/>
+      <c r="BG33" s="29"/>
+      <c r="BH33" s="29"/>
+      <c r="BI33" s="29"/>
+      <c r="BJ33" s="29"/>
+      <c r="BK33" s="29"/>
+    </row>
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="29"/>
+      <c r="AT34" s="29"/>
+      <c r="AU34" s="29"/>
+      <c r="AV34" s="29"/>
+      <c r="AW34" s="29"/>
+      <c r="AX34" s="29"/>
+      <c r="AY34" s="29"/>
+      <c r="AZ34" s="29"/>
+      <c r="BA34" s="29"/>
+      <c r="BB34" s="29"/>
+      <c r="BC34" s="29"/>
+      <c r="BD34" s="29"/>
+      <c r="BE34" s="29"/>
+      <c r="BF34" s="29"/>
+      <c r="BG34" s="29"/>
+      <c r="BH34" s="29"/>
+      <c r="BI34" s="29"/>
+      <c r="BJ34" s="29"/>
+      <c r="BK34" s="29"/>
+    </row>
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="29"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="29"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
+      <c r="BB35" s="29"/>
+      <c r="BC35" s="29"/>
+      <c r="BD35" s="29"/>
+      <c r="BE35" s="29"/>
+      <c r="BF35" s="29"/>
+      <c r="BG35" s="29"/>
+      <c r="BH35" s="29"/>
+      <c r="BI35" s="29"/>
+      <c r="BJ35" s="29"/>
+      <c r="BK35" s="29"/>
+    </row>
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="29"/>
+      <c r="AT36" s="29"/>
+      <c r="AU36" s="29"/>
+      <c r="AV36" s="29"/>
+      <c r="AW36" s="29"/>
+      <c r="AX36" s="29"/>
+      <c r="AY36" s="29"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="29"/>
+      <c r="BB36" s="29"/>
+      <c r="BC36" s="29"/>
+      <c r="BD36" s="29"/>
+      <c r="BE36" s="29"/>
+      <c r="BF36" s="29"/>
+      <c r="BG36" s="29"/>
+      <c r="BH36" s="29"/>
+      <c r="BI36" s="29"/>
+      <c r="BJ36" s="29"/>
+      <c r="BK36" s="29"/>
+    </row>
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
+      <c r="B37" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="29"/>
+      <c r="AS37" s="29"/>
+      <c r="AT37" s="29"/>
+      <c r="AU37" s="29"/>
+      <c r="AV37" s="29"/>
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
+      <c r="BB37" s="29"/>
+      <c r="BC37" s="29"/>
+      <c r="BD37" s="29"/>
+      <c r="BE37" s="29"/>
+      <c r="BF37" s="29"/>
+      <c r="BG37" s="29"/>
+      <c r="BH37" s="29"/>
+      <c r="BI37" s="29"/>
+      <c r="BJ37" s="29"/>
+      <c r="BK37" s="29"/>
+    </row>
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="24">
+        <v>0</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="29"/>
+      <c r="AT38" s="29"/>
+      <c r="AU38" s="29"/>
+      <c r="AV38" s="29"/>
+      <c r="AW38" s="29"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="29"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="29"/>
+      <c r="BB38" s="29"/>
+      <c r="BC38" s="29"/>
+      <c r="BD38" s="29"/>
+      <c r="BE38" s="29"/>
+      <c r="BF38" s="29"/>
+      <c r="BG38" s="29"/>
+      <c r="BH38" s="29"/>
+      <c r="BI38" s="29"/>
+      <c r="BJ38" s="29"/>
+      <c r="BK38" s="29"/>
+    </row>
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="24">
+        <v>0</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="29"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="29"/>
+      <c r="AT39" s="29"/>
+      <c r="AU39" s="29"/>
+      <c r="AV39" s="29"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="29"/>
+      <c r="AZ39" s="29"/>
+      <c r="BA39" s="29"/>
+      <c r="BB39" s="29"/>
+      <c r="BC39" s="29"/>
+      <c r="BD39" s="29"/>
+      <c r="BE39" s="29"/>
+      <c r="BF39" s="29"/>
+      <c r="BG39" s="29"/>
+      <c r="BH39" s="29"/>
+      <c r="BI39" s="29"/>
+      <c r="BJ39" s="29"/>
+      <c r="BK39" s="29"/>
+    </row>
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="24">
+        <v>0</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK40" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="12"/>
+      <c r="B41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="28"/>
+      <c r="AS41" s="28"/>
+      <c r="AT41" s="28"/>
+      <c r="AU41" s="28"/>
+      <c r="AV41" s="28"/>
+      <c r="AW41" s="28"/>
+      <c r="AX41" s="28"/>
+      <c r="AY41" s="28"/>
+      <c r="AZ41" s="28"/>
+      <c r="BA41" s="28"/>
+      <c r="BB41" s="28"/>
+      <c r="BC41" s="28"/>
+      <c r="BD41" s="28"/>
+      <c r="BE41" s="28"/>
+      <c r="BF41" s="28"/>
+      <c r="BG41" s="28"/>
+      <c r="BH41" s="28"/>
+      <c r="BI41" s="28"/>
+      <c r="BJ41" s="28"/>
+      <c r="BK41" s="28"/>
+    </row>
+    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="5"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
-      <c r="AW25" s="28"/>
-      <c r="AX25" s="28"/>
-      <c r="AY25" s="28"/>
-      <c r="AZ25" s="28"/>
-      <c r="BA25" s="28"/>
-      <c r="BB25" s="28"/>
-      <c r="BC25" s="28"/>
-      <c r="BD25" s="28"/>
-      <c r="BE25" s="28"/>
-      <c r="BF25" s="28"/>
-      <c r="BG25" s="28"/>
-      <c r="BH25" s="28"/>
-      <c r="BI25" s="28"/>
-      <c r="BJ25" s="28"/>
-      <c r="BK25" s="28"/>
-    </row>
-    <row r="26" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="5"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="6"/>
+      <c r="C43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5886,7 +7102,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D24">
+  <conditionalFormatting sqref="D6:D40">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5900,18 +7116,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK24">
-    <cfRule type="expression" dxfId="1" priority="78">
+  <conditionalFormatting sqref="H8:BK40">
+    <cfRule type="expression" dxfId="2" priority="78">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK24">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="H7:BK40">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5975,7 +7191,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D24</xm:sqref>
+          <xm:sqref>D6:D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
@@ -6013,7 +7229,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H7:BK24</xm:sqref>
+          <xm:sqref>H7:BK40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8060B429-A72C-4564-B75B-B83392B4550D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8980" windowHeight="4190" tabRatio="415"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,10 +18,18 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -239,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -517,7 +526,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +733,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1109,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1241,6 +1256,21 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1259,20 +1289,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1303,7 +1321,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1325,7 +1343,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1521,12 +1539,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -1677,8 +1695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F40" totalsRowShown="0">
-  <autoFilter ref="B6:F40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F40" totalsRowShown="0">
+  <autoFilter ref="B6:F40" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1686,11 +1704,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1963,14 +1981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2006,15 +2024,15 @@
       <c r="B2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="68"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -2029,10 +2047,10 @@
       <c r="B3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="39">
         <v>0</v>
       </c>
@@ -2047,10 +2065,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="40">
         <v>1</v>
       </c>
@@ -2931,15 +2949,15 @@
       </c>
       <c r="E9" s="25">
         <f ca="1">TODAY()</f>
-        <v>44081</v>
+        <v>44088</v>
       </c>
       <c r="F9" s="48">
         <v>1</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="29">
+      <c r="H9" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I9" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
@@ -2965,9 +2983,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O9" s="53" t="str">
+      <c r="O9" s="53">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
@@ -3657,18 +3675,18 @@
         <v>58</v>
       </c>
       <c r="D12" s="24">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E12" s="25">
         <v>44081</v>
       </c>
       <c r="F12" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="29">
+      <c r="H12" s="71" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I12" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
@@ -5751,10 +5769,10 @@
     </row>
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
       <c r="F25" s="48"/>
@@ -5818,7 +5836,7 @@
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="27"/>
@@ -5887,7 +5905,7 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="27"/>
@@ -6025,7 +6043,7 @@
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="27"/>
@@ -6575,7 +6593,7 @@
     </row>
     <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="62" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="54"/>
@@ -6644,7 +6662,7 @@
     </row>
     <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="54"/>
@@ -6713,10 +6731,10 @@
     </row>
     <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="68"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="24">
         <v>0</v>
       </c>
@@ -6782,7 +6800,7 @@
     </row>
     <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="27"/>
@@ -7132,7 +7150,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7238,7 +7256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8060B429-A72C-4564-B75B-B83392B4550D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3D1B3-347F-49AF-9888-4D7C8DC86CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -1109,7 +1109,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1290,6 +1290,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,8 +1993,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2938,7 +2944,7 @@
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="72" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -2948,11 +2954,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="25">
-        <f ca="1">TODAY()</f>
-        <v>44088</v>
+        <v>44081</v>
       </c>
       <c r="F9" s="48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="29" t="str">
@@ -2983,9 +2988,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P9" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
@@ -3425,7 +3430,7 @@
     </row>
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -3675,13 +3680,13 @@
         <v>58</v>
       </c>
       <c r="D12" s="24">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E12" s="25">
         <v>44081</v>
       </c>
       <c r="F12" s="48">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="71" t="str">
@@ -3911,25 +3916,25 @@
     </row>
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="72" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="24">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E13" s="25">
         <v>44081</v>
       </c>
       <c r="F13" s="48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="29">
+      <c r="H13" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I13" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
@@ -4389,16 +4394,20 @@
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D15" s="24">
-        <v>0</v>
-      </c>
-      <c r="E15" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="25">
+        <v>44081</v>
+      </c>
       <c r="F15" s="48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="29" t="str">
@@ -4631,13 +4640,17 @@
       <c r="B16" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" s="24">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25"/>
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="25">
+        <v>44088</v>
+      </c>
       <c r="F16" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="29" t="str">
@@ -4668,9 +4681,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O16" s="53" t="str">
+      <c r="O16" s="53">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
@@ -5416,16 +5429,20 @@
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="25"/>
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="25">
+        <v>44088</v>
+      </c>
       <c r="F20" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="29"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3D1B3-347F-49AF-9888-4D7C8DC86CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F4327-0D6F-4D27-B924-F19302EB8179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1993,8 +1993,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3199,232 +3199,230 @@
       <c r="E10" s="25">
         <v>44081</v>
       </c>
-      <c r="F10" s="48">
-        <v>1</v>
-      </c>
+      <c r="F10" s="48"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="29">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+      <c r="H10" s="29" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
       </c>
       <c r="I10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X10" s="53" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -3923,7 +3921,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="24">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E13" s="25">
         <v>44081</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F4327-0D6F-4D27-B924-F19302EB8179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65AF5B-EDAB-4039-8860-C4A871D76BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -1993,8 +1993,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="135" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4881,7 +4881,9 @@
       <c r="B17" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="24">
         <v>0</v>
       </c>
@@ -5120,7 +5122,9 @@
       <c r="B18" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" s="24">
         <v>0</v>
       </c>
@@ -5359,7 +5363,9 @@
       <c r="B19" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="D19" s="24">
         <v>0</v>
       </c>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E65AF5B-EDAB-4039-8860-C4A871D76BE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FAF5D5-8C45-4677-B72E-3A7DF5B9B3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1109,7 +1109,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1297,6 +1297,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1993,8 +1996,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="135" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3199,230 +3202,232 @@
       <c r="E10" s="25">
         <v>44081</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="48">
+        <v>1</v>
+      </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+      <c r="H10" s="29">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
       </c>
       <c r="I10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X10" s="53" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK10" s="29" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -5650,7 +5655,7 @@
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="74" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="27"/>
@@ -5721,7 +5726,7 @@
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="74" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="27"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FAF5D5-8C45-4677-B72E-3A7DF5B9B3FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74806F36-37FC-4CF5-8952-96842C5040C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -170,9 +170,6 @@
     <t xml:space="preserve">IHM à réaliser </t>
   </si>
   <si>
-    <t xml:space="preserve">Connexion sécuriser </t>
-  </si>
-  <si>
     <t>Rédaction de la documentation</t>
   </si>
   <si>
@@ -243,6 +240,12 @@
   </si>
   <si>
     <t>AMINE</t>
+  </si>
+  <si>
+    <t>Connexion sécurisée</t>
+  </si>
+  <si>
+    <t>AMINE &amp; QUENTIN</t>
   </si>
 </sst>
 </file>
@@ -1271,6 +1274,18 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1288,18 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1996,8 +1999,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2018,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -2031,17 +2034,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67">
+      <c r="D2" s="70"/>
+      <c r="E2" s="71">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="72"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -2054,12 +2057,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="39">
         <v>0</v>
       </c>
@@ -2074,10 +2077,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="40">
         <v>1</v>
       </c>
@@ -2947,11 +2950,11 @@
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="66" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -3194,7 +3197,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="24">
         <v>1</v>
@@ -3433,11 +3436,11 @@
     </row>
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="66" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -3677,10 +3680,10 @@
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
@@ -3692,7 +3695,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="71" t="str">
+      <c r="H12" s="65" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -3919,11 +3922,11 @@
     </row>
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="66" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="24">
         <v>1</v>
@@ -4163,7 +4166,7 @@
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="24"/>
@@ -4397,11 +4400,11 @@
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="66" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="24">
         <v>1</v>
@@ -4644,7 +4647,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="24">
         <v>0.9</v>
@@ -4887,7 +4890,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="24">
         <v>0</v>
@@ -5128,14 +5131,16 @@
         <v>30</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="25"/>
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="25">
+        <v>44095</v>
+      </c>
       <c r="F18" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="29" t="str">
@@ -5194,9 +5199,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V18" s="29" t="str">
+      <c r="V18" s="29">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W18" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
@@ -5369,12 +5374,14 @@
         <v>31</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="24">
-        <v>0</v>
-      </c>
-      <c r="E19" s="25"/>
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="25">
+        <v>44095</v>
+      </c>
       <c r="F19" s="48">
         <v>0</v>
       </c>
@@ -5438,20 +5445,20 @@
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="67" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="24">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="25">
         <v>44088</v>
       </c>
       <c r="F20" s="48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="29"/>
@@ -5516,13 +5523,17 @@
       <c r="B21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D21" s="24">
-        <v>0</v>
-      </c>
-      <c r="E21" s="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="25">
+        <v>44095</v>
+      </c>
       <c r="F21" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="29"/>
@@ -5585,15 +5596,19 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="25"/>
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="25">
+        <v>44095</v>
+      </c>
       <c r="F22" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="29"/>
@@ -5655,10 +5670,12 @@
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="27"/>
+      <c r="B23" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>60</v>
+      </c>
       <c r="D23" s="24">
         <v>0</v>
       </c>
@@ -5726,15 +5743,19 @@
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" s="24">
         <v>0</v>
       </c>
       <c r="E24" s="25"/>
-      <c r="F24" s="48"/>
+      <c r="F24" s="48">
+        <v>0</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
@@ -5796,7 +5817,7 @@
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="24"/>
@@ -5863,7 +5884,7 @@
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="24">
@@ -5932,7 +5953,7 @@
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="24">
@@ -6001,7 +6022,7 @@
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="24">
@@ -6070,7 +6091,7 @@
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="24"/>
@@ -6137,7 +6158,7 @@
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="24">
@@ -6206,7 +6227,7 @@
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="24">
@@ -6275,7 +6296,7 @@
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="24">
@@ -6344,7 +6365,7 @@
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="24">
@@ -6413,7 +6434,7 @@
     <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="24">
@@ -6482,7 +6503,7 @@
     <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="24">
@@ -6551,7 +6572,7 @@
     <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="24">
@@ -6620,7 +6641,7 @@
     <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="54"/>
       <c r="D37" s="24">
@@ -6689,7 +6710,7 @@
     <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="24">
@@ -6758,7 +6779,7 @@
     <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="62"/>
       <c r="D39" s="24">
@@ -6827,7 +6848,7 @@
     <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="24">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74806F36-37FC-4CF5-8952-96842C5040C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6F1DE-2CAD-489D-AAD7-D99417475CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2000,7 +2000,7 @@
   <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4893,11 +4893,13 @@
         <v>56</v>
       </c>
       <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="25"/>
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="25">
+        <v>44095</v>
+      </c>
       <c r="F17" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="29" t="str">
@@ -4956,9 +4958,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V17" s="29" t="str">
+      <c r="V17" s="29">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W17" s="29" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
@@ -5377,13 +5379,13 @@
         <v>57</v>
       </c>
       <c r="D19" s="24">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E19" s="25">
-        <v>44095</v>
+        <v>44088</v>
       </c>
       <c r="F19" s="48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="29"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC6F1DE-2CAD-489D-AAD7-D99417475CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA1FD4F-67AA-4DE3-8E34-5E4EBF4A7EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1999,8 +1999,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4650,13 +4650,13 @@
         <v>58</v>
       </c>
       <c r="D16" s="24">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E16" s="25">
         <v>44088</v>
       </c>
       <c r="F16" s="48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="29" t="str">
@@ -4687,9 +4687,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O16" s="53">
+      <c r="O16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P16" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
@@ -5454,7 +5454,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E20" s="25">
         <v>44088</v>
@@ -5604,7 +5604,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="24">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E22" s="25">
         <v>44095</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA1FD4F-67AA-4DE3-8E34-5E4EBF4A7EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2570E8-3E10-44F9-B223-F052636D912F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>AMINE &amp; QUENTIN</t>
+  </si>
+  <si>
+    <t>TOUT LE MONDE</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1303,6 +1306,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1999,8 +2005,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5888,12 +5894,18 @@
       <c r="B26" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="D26" s="24">
-        <v>0</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="25">
+        <v>44095</v>
+      </c>
+      <c r="F26" s="48">
+        <v>1</v>
+      </c>
       <c r="G26" s="20"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -5954,7 +5966,7 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="75" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="27"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2570E8-3E10-44F9-B223-F052636D912F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -254,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1289,6 +1288,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1306,9 +1308,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1339,7 +1338,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1361,7 +1360,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1557,12 +1556,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="firstRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -1713,8 +1712,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F40" totalsRowShown="0">
-  <autoFilter ref="B6:F40" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F40" totalsRowShown="0">
+  <autoFilter ref="B6:F40">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1722,11 +1721,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1999,14 +1998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2042,15 +2041,15 @@
       <c r="B2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71">
+      <c r="D2" s="71"/>
+      <c r="E2" s="72">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="73"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -2065,10 +2064,10 @@
       <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="39">
         <v>0</v>
       </c>
@@ -2083,10 +2082,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="40">
         <v>1</v>
       </c>
@@ -5966,7 +5965,7 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="27"/>
@@ -7211,7 +7210,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7317,7 +7316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2004,8 +2004,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5459,7 +5459,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="24">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E20" s="25">
         <v>44088</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -247,7 +247,7 @@
     <t>AMINE &amp; QUENTIN</t>
   </si>
   <si>
-    <t>TOUT LE MONDE</t>
+    <t xml:space="preserve"> AMINE</t>
   </si>
 </sst>
 </file>
@@ -2004,8 +2004,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2004,8 +2004,8 @@
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5557,7 +5557,10 @@
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
       <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
+      <c r="V21" s="29">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
+      </c>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
       <c r="Y21" s="29"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1C49D6B-5255-454C-ACE9-E1996586CBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -84,9 +86,6 @@
   </si>
   <si>
     <t>Description du jalon</t>
-  </si>
-  <si>
-    <t>Pour ajouter des données, insérez des lignes AU-DESSUS de celle-ci.</t>
   </si>
   <si>
     <t>Date de début du projet :</t>
@@ -249,11 +248,14 @@
   <si>
     <t xml:space="preserve"> AMINE</t>
   </si>
+  <si>
+    <t>BONUS : Envoi de mail automatique pour confirmation de compte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -531,18 +533,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -748,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -807,15 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </left>
@@ -827,19 +814,6 @@
       </top>
       <bottom style="thin">
         <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,7 +1036,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1072,49 +1046,49 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1152,13 +1126,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="7"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,20 +1152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1210,47 +1174,47 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="8" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="8" applyFill="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="15" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="13" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1276,7 +1240,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,10 +1261,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="5" borderId="3" xfId="9" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="3" xfId="9" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="5" borderId="4" xfId="9" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="4" xfId="9" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyAlignment="1">
@@ -1308,6 +1272,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1338,7 +1305,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1360,9 +1327,45 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="8" tint="-0.499984740745262"/>
@@ -1556,21 +1559,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1712,8 +1715,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F40" totalsRowShown="0">
-  <autoFilter ref="B6:F40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F41" totalsRowShown="0">
+  <autoFilter ref="B6:F41" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1721,11 +1724,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1998,14 +2001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2026,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -2039,57 +2042,57 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72">
+        <v>36</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="F2" s="69"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="39">
+        <v>37</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="35">
         <v>0</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="46"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="40">
+      <c r="C4" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="71"/>
+      <c r="E4" s="36">
         <v>1</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="33">
         <f>Marqueur_Jalon</f>
         <v>1</v>
       </c>
@@ -2178,229 +2181,229 @@
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="49">
+      <c r="B5" s="34"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="45">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="46">
         <f ca="1">H5+1</f>
         <v>44082</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="47">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
         <v>44083</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="47">
         <f ca="1">J5+1</f>
         <v>44084</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44085</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44086</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44087</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="47">
         <f ca="1">N5+1</f>
         <v>44088</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="47">
         <f ca="1">O5+1</f>
         <v>44089</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44090</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44091</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44092</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44093</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44094</v>
       </c>
-      <c r="V5" s="51">
+      <c r="V5" s="47">
         <f ca="1">U5+1</f>
         <v>44095</v>
       </c>
-      <c r="W5" s="51">
+      <c r="W5" s="47">
         <f ca="1">V5+1</f>
         <v>44096</v>
       </c>
-      <c r="X5" s="51">
+      <c r="X5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44097</v>
       </c>
-      <c r="Y5" s="51">
+      <c r="Y5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44098</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="Z5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44099</v>
       </c>
-      <c r="AA5" s="51">
+      <c r="AA5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44100</v>
       </c>
-      <c r="AB5" s="51">
+      <c r="AB5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44101</v>
       </c>
-      <c r="AC5" s="51">
+      <c r="AC5" s="47">
         <f ca="1">AB5+1</f>
         <v>44102</v>
       </c>
-      <c r="AD5" s="51">
+      <c r="AD5" s="47">
         <f ca="1">AC5+1</f>
         <v>44103</v>
       </c>
-      <c r="AE5" s="51">
+      <c r="AE5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44104</v>
       </c>
-      <c r="AF5" s="51">
+      <c r="AF5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44105</v>
       </c>
-      <c r="AG5" s="51">
+      <c r="AG5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44106</v>
       </c>
-      <c r="AH5" s="51">
+      <c r="AH5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44107</v>
       </c>
-      <c r="AI5" s="51">
+      <c r="AI5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44108</v>
       </c>
-      <c r="AJ5" s="51">
+      <c r="AJ5" s="47">
         <f ca="1">AI5+1</f>
         <v>44109</v>
       </c>
-      <c r="AK5" s="51">
+      <c r="AK5" s="47">
         <f ca="1">AJ5+1</f>
         <v>44110</v>
       </c>
-      <c r="AL5" s="51">
+      <c r="AL5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44111</v>
       </c>
-      <c r="AM5" s="51">
+      <c r="AM5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44112</v>
       </c>
-      <c r="AN5" s="51">
+      <c r="AN5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44113</v>
       </c>
-      <c r="AO5" s="51">
+      <c r="AO5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44114</v>
       </c>
-      <c r="AP5" s="51">
+      <c r="AP5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44115</v>
       </c>
-      <c r="AQ5" s="51">
+      <c r="AQ5" s="47">
         <f ca="1">AP5+1</f>
         <v>44116</v>
       </c>
-      <c r="AR5" s="51">
+      <c r="AR5" s="47">
         <f ca="1">AQ5+1</f>
         <v>44117</v>
       </c>
-      <c r="AS5" s="51">
+      <c r="AS5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44118</v>
       </c>
-      <c r="AT5" s="51">
+      <c r="AT5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44119</v>
       </c>
-      <c r="AU5" s="51">
+      <c r="AU5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44120</v>
       </c>
-      <c r="AV5" s="51">
+      <c r="AV5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44121</v>
       </c>
-      <c r="AW5" s="51">
+      <c r="AW5" s="47">
         <f t="shared" ca="1" si="0"/>
         <v>44122</v>
       </c>
-      <c r="AX5" s="51">
+      <c r="AX5" s="47">
         <f ca="1">AW5+1</f>
         <v>44123</v>
       </c>
-      <c r="AY5" s="51">
+      <c r="AY5" s="47">
         <f ca="1">AX5+1</f>
         <v>44124</v>
       </c>
-      <c r="AZ5" s="51">
+      <c r="AZ5" s="47">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
         <v>44125</v>
       </c>
-      <c r="BA5" s="51">
+      <c r="BA5" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>44126</v>
       </c>
-      <c r="BB5" s="51">
+      <c r="BB5" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>44127</v>
       </c>
-      <c r="BC5" s="51">
+      <c r="BC5" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>44128</v>
       </c>
-      <c r="BD5" s="51">
+      <c r="BD5" s="47">
         <f t="shared" ca="1" si="1"/>
         <v>44129</v>
       </c>
-      <c r="BE5" s="51">
+      <c r="BE5" s="47">
         <f ca="1">BD5+1</f>
         <v>44130</v>
       </c>
-      <c r="BF5" s="51">
+      <c r="BF5" s="47">
         <f ca="1">BE5+1</f>
         <v>44131</v>
       </c>
-      <c r="BG5" s="51">
+      <c r="BG5" s="47">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
         <v>44132</v>
       </c>
-      <c r="BH5" s="51">
+      <c r="BH5" s="47">
         <f t="shared" ca="1" si="2"/>
         <v>44133</v>
       </c>
-      <c r="BI5" s="51">
+      <c r="BI5" s="47">
         <f t="shared" ca="1" si="2"/>
         <v>44134</v>
       </c>
-      <c r="BJ5" s="51">
+      <c r="BJ5" s="47">
         <f t="shared" ca="1" si="2"/>
         <v>44135</v>
       </c>
-      <c r="BK5" s="52">
+      <c r="BK5" s="48">
         <f t="shared" ca="1" si="2"/>
         <v>44136</v>
       </c>
@@ -2409,243 +2412,243 @@
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="42" t="str">
+      <c r="G6" s="20"/>
+      <c r="H6" s="38" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
         <v>l</v>
       </c>
-      <c r="I6" s="43" t="str">
+      <c r="I6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="J6" s="45" t="str">
+      <c r="J6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="K6" s="44" t="str">
+      <c r="K6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="L6" s="44" t="str">
+      <c r="L6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="M6" s="44" t="str">
+      <c r="M6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="N6" s="44" t="str">
+      <c r="N6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="O6" s="44" t="str">
+      <c r="O6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="P6" s="44" t="str">
+      <c r="P6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="Q6" s="44" t="str">
+      <c r="Q6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="R6" s="44" t="str">
+      <c r="R6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="S6" s="44" t="str">
+      <c r="S6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="T6" s="44" t="str">
+      <c r="T6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="U6" s="44" t="str">
+      <c r="U6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="V6" s="44" t="str">
+      <c r="V6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="W6" s="44" t="str">
+      <c r="W6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="X6" s="44" t="str">
+      <c r="X6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="Y6" s="44" t="str">
+      <c r="Y6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="Z6" s="44" t="str">
+      <c r="Z6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="AA6" s="44" t="str">
+      <c r="AA6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="AB6" s="44" t="str">
+      <c r="AB6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="AC6" s="44" t="str">
+      <c r="AC6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="AD6" s="44" t="str">
+      <c r="AD6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AE6" s="44" t="str">
+      <c r="AE6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AF6" s="44" t="str">
+      <c r="AF6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="AG6" s="44" t="str">
+      <c r="AG6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="AH6" s="44" t="str">
+      <c r="AH6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="AI6" s="44" t="str">
+      <c r="AI6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="AJ6" s="44" t="str">
+      <c r="AJ6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="AK6" s="44" t="str">
+      <c r="AK6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AL6" s="44" t="str">
+      <c r="AL6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AM6" s="44" t="str">
+      <c r="AM6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="AN6" s="44" t="str">
+      <c r="AN6" s="40" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
         <v>v</v>
       </c>
-      <c r="AO6" s="44" t="str">
+      <c r="AO6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AP6" s="44" t="str">
+      <c r="AP6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AQ6" s="44" t="str">
+      <c r="AQ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AR6" s="44" t="str">
+      <c r="AR6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AS6" s="44" t="str">
+      <c r="AS6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AT6" s="44" t="str">
+      <c r="AT6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AU6" s="44" t="str">
+      <c r="AU6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AV6" s="44" t="str">
+      <c r="AV6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AW6" s="44" t="str">
+      <c r="AW6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AX6" s="44" t="str">
+      <c r="AX6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AY6" s="44" t="str">
+      <c r="AY6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AZ6" s="44" t="str">
+      <c r="AZ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BA6" s="44" t="str">
+      <c r="BA6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="BB6" s="44" t="str">
+      <c r="BB6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="BC6" s="44" t="str">
+      <c r="BC6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="BD6" s="44" t="str">
+      <c r="BD6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="BE6" s="44" t="str">
+      <c r="BE6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="BF6" s="44" t="str">
+      <c r="BF6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BG6" s="44" t="str">
+      <c r="BG6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BH6" s="44" t="str">
+      <c r="BH6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="BI6" s="44" t="str">
+      <c r="BI6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="BJ6" s="44" t="str">
+      <c r="BJ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="BK6" s="44" t="str">
+      <c r="BK6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
@@ -2654,4516 +2657,4692 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
-      <c r="BK7" s="41"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="37"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="37"/>
+      <c r="BI7" s="37"/>
+      <c r="BJ7" s="37"/>
+      <c r="BK7" s="37"/>
     </row>
     <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="29" t="str">
+      <c r="B8" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I8" s="29" t="str">
+      <c r="I8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J8" s="29" t="str">
+      <c r="J8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K8" s="29" t="str">
+      <c r="K8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L8" s="29" t="str">
+      <c r="L8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M8" s="29" t="str">
+      <c r="M8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N8" s="29" t="str">
+      <c r="N8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O8" s="29" t="str">
+      <c r="O8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P8" s="29" t="str">
+      <c r="P8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q8" s="29" t="str">
+      <c r="Q8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R8" s="29" t="str">
+      <c r="R8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S8" s="29" t="str">
+      <c r="S8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T8" s="29" t="str">
+      <c r="T8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U8" s="29" t="str">
+      <c r="U8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V8" s="29" t="str">
+      <c r="V8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W8" s="29" t="str">
+      <c r="W8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X8" s="29" t="str">
+      <c r="X8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y8" s="29" t="str">
+      <c r="Y8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z8" s="29" t="str">
+      <c r="Z8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA8" s="29" t="str">
+      <c r="AA8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="29" t="str">
+      <c r="AB8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC8" s="29" t="str">
+      <c r="AC8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD8" s="29" t="str">
+      <c r="AD8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE8" s="29" t="str">
+      <c r="AE8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF8" s="29" t="str">
+      <c r="AF8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG8" s="29" t="str">
+      <c r="AG8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH8" s="29" t="str">
+      <c r="AH8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI8" s="29" t="str">
+      <c r="AI8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ8" s="29" t="str">
+      <c r="AJ8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK8" s="29" t="str">
+      <c r="AK8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL8" s="29" t="str">
+      <c r="AL8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM8" s="29" t="str">
+      <c r="AM8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN8" s="29" t="str">
+      <c r="AN8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO8" s="29" t="str">
+      <c r="AO8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP8" s="29" t="str">
+      <c r="AP8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ8" s="29" t="str">
+      <c r="AQ8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR8" s="29" t="str">
+      <c r="AR8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS8" s="29" t="str">
+      <c r="AS8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT8" s="29" t="str">
+      <c r="AT8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU8" s="29" t="str">
+      <c r="AU8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV8" s="29" t="str">
+      <c r="AV8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW8" s="29" t="str">
+      <c r="AW8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX8" s="29" t="str">
+      <c r="AX8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY8" s="29" t="str">
+      <c r="AY8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ8" s="29" t="str">
+      <c r="AZ8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA8" s="29" t="str">
+      <c r="BA8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB8" s="29" t="str">
+      <c r="BB8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC8" s="29" t="str">
+      <c r="BC8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD8" s="29" t="str">
+      <c r="BD8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE8" s="29" t="str">
+      <c r="BE8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF8" s="29" t="str">
+      <c r="BF8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG8" s="29" t="str">
+      <c r="BG8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH8" s="29" t="str">
+      <c r="BH8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI8" s="29" t="str">
+      <c r="BI8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ8" s="29" t="str">
+      <c r="BJ8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK8" s="29" t="str">
+      <c r="BK8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="24">
+      <c r="B9" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>44081</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="44">
         <v>9</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="29" t="str">
+      <c r="G9" s="19"/>
+      <c r="H9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I9" s="29" t="str">
+      <c r="I9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J9" s="29" t="str">
+      <c r="J9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K9" s="29" t="str">
+      <c r="K9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L9" s="53" t="str">
+      <c r="L9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M9" s="53" t="str">
+      <c r="M9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N9" s="53" t="str">
+      <c r="N9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O9" s="53" t="str">
+      <c r="O9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P9" s="53" t="str">
+      <c r="P9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q9" s="53" t="str">
+      <c r="Q9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R9" s="53" t="str">
+      <c r="R9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S9" s="53" t="str">
+      <c r="S9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T9" s="53" t="str">
+      <c r="T9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U9" s="53" t="str">
+      <c r="U9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V9" s="53" t="str">
+      <c r="V9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W9" s="53" t="str">
+      <c r="W9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X9" s="53" t="str">
+      <c r="X9" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y9" s="29" t="str">
+      <c r="Y9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z9" s="29" t="str">
+      <c r="Z9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA9" s="29" t="str">
+      <c r="AA9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB9" s="29" t="str">
+      <c r="AB9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC9" s="29" t="str">
+      <c r="AC9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD9" s="29" t="str">
+      <c r="AD9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE9" s="29" t="str">
+      <c r="AE9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF9" s="29" t="str">
+      <c r="AF9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG9" s="29" t="str">
+      <c r="AG9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH9" s="29" t="str">
+      <c r="AH9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI9" s="29" t="str">
+      <c r="AI9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ9" s="29" t="str">
+      <c r="AJ9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK9" s="29" t="str">
+      <c r="AK9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL9" s="29" t="str">
+      <c r="AL9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM9" s="29" t="str">
+      <c r="AM9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN9" s="29" t="str">
+      <c r="AN9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO9" s="29" t="str">
+      <c r="AO9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP9" s="29" t="str">
+      <c r="AP9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ9" s="29" t="str">
+      <c r="AQ9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR9" s="29" t="str">
+      <c r="AR9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS9" s="29" t="str">
+      <c r="AS9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT9" s="29" t="str">
+      <c r="AT9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU9" s="29" t="str">
+      <c r="AU9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV9" s="29" t="str">
+      <c r="AV9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW9" s="29" t="str">
+      <c r="AW9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX9" s="29" t="str">
+      <c r="AX9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY9" s="29" t="str">
+      <c r="AY9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ9" s="29" t="str">
+      <c r="AZ9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA9" s="29" t="str">
+      <c r="BA9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB9" s="29" t="str">
+      <c r="BB9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC9" s="29" t="str">
+      <c r="BC9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD9" s="29" t="str">
+      <c r="BD9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE9" s="29" t="str">
+      <c r="BE9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF9" s="29" t="str">
+      <c r="BF9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG9" s="29" t="str">
+      <c r="BG9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH9" s="29" t="str">
+      <c r="BH9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI9" s="29" t="str">
+      <c r="BI9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ9" s="29" t="str">
+      <c r="BJ9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK9" s="29" t="str">
+      <c r="BK9" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
-      <c r="B10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="24">
+      <c r="B10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>44081</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="44">
         <v>1</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="29">
+      <c r="G10" s="19"/>
+      <c r="H10" s="27">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v>1</v>
       </c>
-      <c r="I10" s="29" t="str">
+      <c r="I10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J10" s="29" t="str">
+      <c r="J10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K10" s="29" t="str">
+      <c r="K10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L10" s="53" t="str">
+      <c r="L10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="53" t="str">
+      <c r="M10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N10" s="53" t="str">
+      <c r="N10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O10" s="53" t="str">
+      <c r="O10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P10" s="53" t="str">
+      <c r="P10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="53" t="str">
+      <c r="Q10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R10" s="53" t="str">
+      <c r="R10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S10" s="53" t="str">
+      <c r="S10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T10" s="53" t="str">
+      <c r="T10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U10" s="53" t="str">
+      <c r="U10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V10" s="53" t="str">
+      <c r="V10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W10" s="53" t="str">
+      <c r="W10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X10" s="53" t="str">
+      <c r="X10" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y10" s="29" t="str">
+      <c r="Y10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z10" s="29" t="str">
+      <c r="Z10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA10" s="29" t="str">
+      <c r="AA10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB10" s="29" t="str">
+      <c r="AB10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC10" s="29" t="str">
+      <c r="AC10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD10" s="29" t="str">
+      <c r="AD10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE10" s="29" t="str">
+      <c r="AE10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF10" s="29" t="str">
+      <c r="AF10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG10" s="29" t="str">
+      <c r="AG10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH10" s="29" t="str">
+      <c r="AH10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI10" s="29" t="str">
+      <c r="AI10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ10" s="29" t="str">
+      <c r="AJ10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK10" s="29" t="str">
+      <c r="AK10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL10" s="29" t="str">
+      <c r="AL10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM10" s="29" t="str">
+      <c r="AM10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN10" s="29" t="str">
+      <c r="AN10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO10" s="29" t="str">
+      <c r="AO10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP10" s="29" t="str">
+      <c r="AP10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ10" s="29" t="str">
+      <c r="AQ10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR10" s="29" t="str">
+      <c r="AR10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS10" s="29" t="str">
+      <c r="AS10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT10" s="29" t="str">
+      <c r="AT10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU10" s="29" t="str">
+      <c r="AU10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV10" s="29" t="str">
+      <c r="AV10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW10" s="29" t="str">
+      <c r="AW10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX10" s="29" t="str">
+      <c r="AX10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY10" s="29" t="str">
+      <c r="AY10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ10" s="29" t="str">
+      <c r="AZ10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA10" s="29" t="str">
+      <c r="BA10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB10" s="29" t="str">
+      <c r="BB10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC10" s="29" t="str">
+      <c r="BC10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD10" s="29" t="str">
+      <c r="BD10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE10" s="29" t="str">
+      <c r="BE10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF10" s="29" t="str">
+      <c r="BF10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG10" s="29" t="str">
+      <c r="BG10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH10" s="29" t="str">
+      <c r="BH10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI10" s="29" t="str">
+      <c r="BI10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ10" s="29" t="str">
+      <c r="BJ10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK10" s="29" t="str">
+      <c r="BK10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
-      <c r="B11" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="B11" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>44081</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="44">
         <v>1</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="29">
+      <c r="G11" s="19"/>
+      <c r="H11" s="27">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v>1</v>
       </c>
-      <c r="I11" s="53" t="str">
+      <c r="I11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J11" s="53" t="str">
+      <c r="J11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K11" s="53" t="str">
+      <c r="K11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L11" s="53" t="str">
+      <c r="L11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M11" s="53" t="str">
+      <c r="M11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N11" s="53" t="str">
+      <c r="N11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O11" s="53" t="str">
+      <c r="O11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P11" s="53" t="str">
+      <c r="P11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q11" s="53" t="str">
+      <c r="Q11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R11" s="53" t="str">
+      <c r="R11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S11" s="53" t="str">
+      <c r="S11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T11" s="53" t="str">
+      <c r="T11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U11" s="53" t="str">
+      <c r="U11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V11" s="53" t="str">
+      <c r="V11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W11" s="53" t="str">
+      <c r="W11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X11" s="53" t="str">
+      <c r="X11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y11" s="29" t="str">
+      <c r="Y11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z11" s="29" t="str">
+      <c r="Z11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA11" s="29" t="str">
+      <c r="AA11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB11" s="29" t="str">
+      <c r="AB11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC11" s="29" t="str">
+      <c r="AC11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD11" s="29" t="str">
+      <c r="AD11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE11" s="29" t="str">
+      <c r="AE11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF11" s="29" t="str">
+      <c r="AF11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG11" s="29" t="str">
+      <c r="AG11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH11" s="29" t="str">
+      <c r="AH11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI11" s="29" t="str">
+      <c r="AI11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ11" s="29" t="str">
+      <c r="AJ11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK11" s="29" t="str">
+      <c r="AK11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL11" s="29" t="str">
+      <c r="AL11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM11" s="29" t="str">
+      <c r="AM11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN11" s="29" t="str">
+      <c r="AN11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO11" s="29" t="str">
+      <c r="AO11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP11" s="29" t="str">
+      <c r="AP11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ11" s="29" t="str">
+      <c r="AQ11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR11" s="29" t="str">
+      <c r="AR11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS11" s="29" t="str">
+      <c r="AS11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT11" s="29" t="str">
+      <c r="AT11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU11" s="29" t="str">
+      <c r="AU11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV11" s="29" t="str">
+      <c r="AV11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW11" s="29" t="str">
+      <c r="AW11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX11" s="29" t="str">
+      <c r="AX11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY11" s="29" t="str">
+      <c r="AY11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ11" s="29" t="str">
+      <c r="AZ11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA11" s="29" t="str">
+      <c r="BA11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB11" s="29" t="str">
+      <c r="BB11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC11" s="29" t="str">
+      <c r="BC11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD11" s="29" t="str">
+      <c r="BD11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE11" s="29" t="str">
+      <c r="BE11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF11" s="29" t="str">
+      <c r="BF11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG11" s="29" t="str">
+      <c r="BG11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH11" s="29" t="str">
+      <c r="BH11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI11" s="29" t="str">
+      <c r="BI11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ11" s="29" t="str">
+      <c r="BJ11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK11" s="29" t="str">
+      <c r="BK11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
-      <c r="B12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="24">
+      <c r="B12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>44081</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="44">
         <v>9</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="65" t="str">
+      <c r="G12" s="19"/>
+      <c r="H12" s="61" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I12" s="29" t="str">
+      <c r="I12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J12" s="29" t="str">
+      <c r="J12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K12" s="29" t="str">
+      <c r="K12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L12" s="53" t="str">
+      <c r="L12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M12" s="53" t="str">
+      <c r="M12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N12" s="53" t="str">
+      <c r="N12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O12" s="53" t="str">
+      <c r="O12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P12" s="53" t="str">
+      <c r="P12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q12" s="53" t="str">
+      <c r="Q12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R12" s="53" t="str">
+      <c r="R12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S12" s="53" t="str">
+      <c r="S12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T12" s="53" t="str">
+      <c r="T12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U12" s="53" t="str">
+      <c r="U12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V12" s="53" t="str">
+      <c r="V12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W12" s="53" t="str">
+      <c r="W12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X12" s="53" t="str">
+      <c r="X12" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y12" s="29" t="str">
+      <c r="Y12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z12" s="29" t="str">
+      <c r="Z12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA12" s="29" t="str">
+      <c r="AA12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB12" s="29" t="str">
+      <c r="AB12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC12" s="29" t="str">
+      <c r="AC12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD12" s="29" t="str">
+      <c r="AD12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE12" s="29" t="str">
+      <c r="AE12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF12" s="29" t="str">
+      <c r="AF12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG12" s="29" t="str">
+      <c r="AG12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH12" s="29" t="str">
+      <c r="AH12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI12" s="29" t="str">
+      <c r="AI12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ12" s="29" t="str">
+      <c r="AJ12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK12" s="29" t="str">
+      <c r="AK12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL12" s="29" t="str">
+      <c r="AL12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM12" s="29" t="str">
+      <c r="AM12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN12" s="29" t="str">
+      <c r="AN12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO12" s="29" t="str">
+      <c r="AO12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP12" s="29" t="str">
+      <c r="AP12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ12" s="29" t="str">
+      <c r="AQ12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR12" s="29" t="str">
+      <c r="AR12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS12" s="29" t="str">
+      <c r="AS12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT12" s="29" t="str">
+      <c r="AT12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU12" s="29" t="str">
+      <c r="AU12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV12" s="29" t="str">
+      <c r="AV12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW12" s="29" t="str">
+      <c r="AW12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX12" s="29" t="str">
+      <c r="AX12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY12" s="29" t="str">
+      <c r="AY12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ12" s="29" t="str">
+      <c r="AZ12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA12" s="29" t="str">
+      <c r="BA12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB12" s="29" t="str">
+      <c r="BB12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC12" s="29" t="str">
+      <c r="BC12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD12" s="29" t="str">
+      <c r="BD12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE12" s="29" t="str">
+      <c r="BE12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF12" s="29" t="str">
+      <c r="BF12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG12" s="29" t="str">
+      <c r="BG12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH12" s="29" t="str">
+      <c r="BH12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI12" s="29" t="str">
+      <c r="BI12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ12" s="29" t="str">
+      <c r="BJ12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK12" s="29" t="str">
+      <c r="BK12" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
-      <c r="B13" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="24">
+      <c r="B13" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>44081</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="44">
         <v>9</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="29" t="str">
+      <c r="G13" s="19"/>
+      <c r="H13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I13" s="29" t="str">
+      <c r="I13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J13" s="29" t="str">
+      <c r="J13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K13" s="29" t="str">
+      <c r="K13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="53" t="str">
+      <c r="L13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="53" t="str">
+      <c r="M13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N13" s="53" t="str">
+      <c r="N13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O13" s="53" t="str">
+      <c r="O13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P13" s="53" t="str">
+      <c r="P13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="53" t="str">
+      <c r="Q13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R13" s="53" t="str">
+      <c r="R13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S13" s="53" t="str">
+      <c r="S13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T13" s="53" t="str">
+      <c r="T13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U13" s="53" t="str">
+      <c r="U13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V13" s="53" t="str">
+      <c r="V13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W13" s="53" t="str">
+      <c r="W13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X13" s="53" t="str">
+      <c r="X13" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y13" s="29" t="str">
+      <c r="Y13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z13" s="29" t="str">
+      <c r="Z13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA13" s="29" t="str">
+      <c r="AA13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB13" s="29" t="str">
+      <c r="AB13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC13" s="29" t="str">
+      <c r="AC13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD13" s="29" t="str">
+      <c r="AD13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE13" s="29" t="str">
+      <c r="AE13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF13" s="29" t="str">
+      <c r="AF13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG13" s="29" t="str">
+      <c r="AG13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI13" s="29" t="str">
+      <c r="AI13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ13" s="29" t="str">
+      <c r="AJ13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK13" s="29" t="str">
+      <c r="AK13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL13" s="29" t="str">
+      <c r="AL13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM13" s="29" t="str">
+      <c r="AM13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN13" s="29" t="str">
+      <c r="AN13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO13" s="29" t="str">
+      <c r="AO13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP13" s="29" t="str">
+      <c r="AP13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ13" s="29" t="str">
+      <c r="AQ13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR13" s="29" t="str">
+      <c r="AR13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS13" s="29" t="str">
+      <c r="AS13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT13" s="29" t="str">
+      <c r="AT13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU13" s="29" t="str">
+      <c r="AU13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV13" s="29" t="str">
+      <c r="AV13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW13" s="29" t="str">
+      <c r="AW13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX13" s="29" t="str">
+      <c r="AX13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY13" s="29" t="str">
+      <c r="AY13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ13" s="29" t="str">
+      <c r="AZ13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA13" s="29" t="str">
+      <c r="BA13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB13" s="29" t="str">
+      <c r="BB13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC13" s="29" t="str">
+      <c r="BC13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD13" s="29" t="str">
+      <c r="BD13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE13" s="29" t="str">
+      <c r="BE13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF13" s="29" t="str">
+      <c r="BF13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG13" s="29" t="str">
+      <c r="BG13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH13" s="29" t="str">
+      <c r="BH13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI13" s="29" t="str">
+      <c r="BI13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ13" s="29" t="str">
+      <c r="BJ13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK13" s="29" t="str">
+      <c r="BK13" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="29" t="str">
+      <c r="B14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I14" s="29" t="str">
+      <c r="I14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J14" s="29" t="str">
+      <c r="J14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K14" s="29" t="str">
+      <c r="K14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L14" s="53" t="str">
+      <c r="L14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M14" s="53" t="str">
+      <c r="M14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N14" s="53" t="str">
+      <c r="N14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O14" s="53" t="str">
+      <c r="O14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P14" s="53" t="str">
+      <c r="P14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q14" s="53" t="str">
+      <c r="Q14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R14" s="53" t="str">
+      <c r="R14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S14" s="53" t="str">
+      <c r="S14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T14" s="53" t="str">
+      <c r="T14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U14" s="53" t="str">
+      <c r="U14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V14" s="53" t="str">
+      <c r="V14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W14" s="53" t="str">
+      <c r="W14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X14" s="53" t="str">
+      <c r="X14" s="49" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="29" t="str">
+      <c r="Y14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="29" t="str">
+      <c r="Z14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA14" s="29" t="str">
+      <c r="AA14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB14" s="29" t="str">
+      <c r="AB14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC14" s="29" t="str">
+      <c r="AC14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD14" s="29" t="str">
+      <c r="AD14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE14" s="29" t="str">
+      <c r="AE14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF14" s="29" t="str">
+      <c r="AF14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG14" s="29" t="str">
+      <c r="AG14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH14" s="29" t="str">
+      <c r="AH14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI14" s="29" t="str">
+      <c r="AI14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ14" s="29" t="str">
+      <c r="AJ14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK14" s="29" t="str">
+      <c r="AK14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL14" s="29" t="str">
+      <c r="AL14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM14" s="29" t="str">
+      <c r="AM14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN14" s="29" t="str">
+      <c r="AN14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO14" s="29" t="str">
+      <c r="AO14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP14" s="29" t="str">
+      <c r="AP14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ14" s="29" t="str">
+      <c r="AQ14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR14" s="29" t="str">
+      <c r="AR14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS14" s="29" t="str">
+      <c r="AS14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT14" s="29" t="str">
+      <c r="AT14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU14" s="29" t="str">
+      <c r="AU14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV14" s="29" t="str">
+      <c r="AV14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW14" s="29" t="str">
+      <c r="AW14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX14" s="29" t="str">
+      <c r="AX14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY14" s="29" t="str">
+      <c r="AY14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ14" s="29" t="str">
+      <c r="AZ14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA14" s="29" t="str">
+      <c r="BA14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB14" s="29" t="str">
+      <c r="BB14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC14" s="29" t="str">
+      <c r="BC14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD14" s="29" t="str">
+      <c r="BD14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE14" s="29" t="str">
+      <c r="BE14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF14" s="29" t="str">
+      <c r="BF14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG14" s="29" t="str">
+      <c r="BG14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH14" s="29" t="str">
+      <c r="BH14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI14" s="29" t="str">
+      <c r="BI14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ14" s="29" t="str">
+      <c r="BJ14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK14" s="29" t="str">
+      <c r="BK14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="B15" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>44081</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="44">
         <v>9</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="29" t="str">
+      <c r="G15" s="19"/>
+      <c r="H15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I15" s="29" t="str">
+      <c r="I15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J15" s="29" t="str">
+      <c r="J15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K15" s="29" t="str">
+      <c r="K15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L15" s="53" t="str">
+      <c r="L15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="53" t="str">
+      <c r="M15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N15" s="53" t="str">
+      <c r="N15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O15" s="53" t="str">
+      <c r="O15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P15" s="53" t="str">
+      <c r="P15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="53" t="str">
+      <c r="Q15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R15" s="53" t="str">
+      <c r="R15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S15" s="53" t="str">
+      <c r="S15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T15" s="53" t="str">
+      <c r="T15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U15" s="53" t="str">
+      <c r="U15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V15" s="53" t="str">
+      <c r="V15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W15" s="53" t="str">
+      <c r="W15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X15" s="53" t="str">
+      <c r="X15" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y15" s="29" t="str">
+      <c r="Y15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z15" s="29" t="str">
+      <c r="Z15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA15" s="29" t="str">
+      <c r="AA15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB15" s="29" t="str">
+      <c r="AB15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC15" s="29" t="str">
+      <c r="AC15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD15" s="29" t="str">
+      <c r="AD15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE15" s="29" t="str">
+      <c r="AE15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF15" s="29" t="str">
+      <c r="AF15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG15" s="29" t="str">
+      <c r="AG15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH15" s="29" t="str">
+      <c r="AH15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI15" s="29" t="str">
+      <c r="AI15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ15" s="29" t="str">
+      <c r="AJ15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK15" s="29" t="str">
+      <c r="AK15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL15" s="29" t="str">
+      <c r="AL15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM15" s="29" t="str">
+      <c r="AM15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN15" s="29" t="str">
+      <c r="AN15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO15" s="29" t="str">
+      <c r="AO15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP15" s="29" t="str">
+      <c r="AP15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ15" s="29" t="str">
+      <c r="AQ15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR15" s="29" t="str">
+      <c r="AR15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS15" s="29" t="str">
+      <c r="AS15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT15" s="29" t="str">
+      <c r="AT15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU15" s="29" t="str">
+      <c r="AU15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV15" s="29" t="str">
+      <c r="AV15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW15" s="29" t="str">
+      <c r="AW15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX15" s="29" t="str">
+      <c r="AX15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY15" s="29" t="str">
+      <c r="AY15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ15" s="29" t="str">
+      <c r="AZ15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA15" s="29" t="str">
+      <c r="BA15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB15" s="29" t="str">
+      <c r="BB15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC15" s="29" t="str">
+      <c r="BC15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD15" s="29" t="str">
+      <c r="BD15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE15" s="29" t="str">
+      <c r="BE15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF15" s="29" t="str">
+      <c r="BF15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG15" s="29" t="str">
+      <c r="BG15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH15" s="29" t="str">
+      <c r="BH15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI15" s="29" t="str">
+      <c r="BI15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ15" s="29" t="str">
+      <c r="BJ15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK15" s="29" t="str">
+      <c r="BK15" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
-      <c r="B16" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="B16" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>44088</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="44">
         <v>9</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="29" t="str">
+      <c r="G16" s="19"/>
+      <c r="H16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I16" s="29" t="str">
+      <c r="I16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J16" s="29" t="str">
+      <c r="J16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K16" s="29" t="str">
+      <c r="K16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L16" s="53" t="str">
+      <c r="L16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="53" t="str">
+      <c r="M16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N16" s="53" t="str">
+      <c r="N16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O16" s="53" t="str">
+      <c r="O16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P16" s="53" t="str">
+      <c r="P16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q16" s="53" t="str">
+      <c r="Q16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R16" s="53" t="str">
+      <c r="R16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S16" s="53" t="str">
+      <c r="S16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T16" s="53" t="str">
+      <c r="T16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U16" s="53" t="str">
+      <c r="U16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V16" s="53" t="str">
+      <c r="V16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W16" s="53" t="str">
+      <c r="W16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X16" s="53" t="str">
+      <c r="X16" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y16" s="29" t="str">
+      <c r="Y16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z16" s="29" t="str">
+      <c r="Z16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA16" s="29" t="str">
+      <c r="AA16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB16" s="29" t="str">
+      <c r="AB16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC16" s="29" t="str">
+      <c r="AC16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD16" s="29" t="str">
+      <c r="AD16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE16" s="29" t="str">
+      <c r="AE16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF16" s="29" t="str">
+      <c r="AF16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG16" s="29" t="str">
+      <c r="AG16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH16" s="29" t="str">
+      <c r="AH16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI16" s="29" t="str">
+      <c r="AI16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ16" s="29" t="str">
+      <c r="AJ16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK16" s="29" t="str">
+      <c r="AK16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL16" s="29" t="str">
+      <c r="AL16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM16" s="29" t="str">
+      <c r="AM16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN16" s="29" t="str">
+      <c r="AN16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO16" s="29" t="str">
+      <c r="AO16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP16" s="29" t="str">
+      <c r="AP16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ16" s="29" t="str">
+      <c r="AQ16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR16" s="29" t="str">
+      <c r="AR16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS16" s="29" t="str">
+      <c r="AS16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT16" s="29" t="str">
+      <c r="AT16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU16" s="29" t="str">
+      <c r="AU16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV16" s="29" t="str">
+      <c r="AV16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW16" s="29" t="str">
+      <c r="AW16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX16" s="29" t="str">
+      <c r="AX16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY16" s="29" t="str">
+      <c r="AY16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ16" s="29" t="str">
+      <c r="AZ16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA16" s="29" t="str">
+      <c r="BA16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB16" s="29" t="str">
+      <c r="BB16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC16" s="29" t="str">
+      <c r="BC16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD16" s="29" t="str">
+      <c r="BD16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE16" s="29" t="str">
+      <c r="BE16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF16" s="29" t="str">
+      <c r="BF16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG16" s="29" t="str">
+      <c r="BG16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH16" s="29" t="str">
+      <c r="BH16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI16" s="29" t="str">
+      <c r="BI16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ16" s="29" t="str">
+      <c r="BJ16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK16" s="29" t="str">
+      <c r="BK16" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="B17" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
         <v>44095</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="44">
         <v>1</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="29" t="str">
+      <c r="G17" s="19"/>
+      <c r="H17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I17" s="29" t="str">
+      <c r="I17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J17" s="29" t="str">
+      <c r="J17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K17" s="29" t="str">
+      <c r="K17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L17" s="29" t="str">
+      <c r="L17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M17" s="29" t="str">
+      <c r="M17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N17" s="29" t="str">
+      <c r="N17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O17" s="29" t="str">
+      <c r="O17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P17" s="29" t="str">
+      <c r="P17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="29" t="str">
+      <c r="Q17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R17" s="29" t="str">
+      <c r="R17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S17" s="29" t="str">
+      <c r="S17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T17" s="29" t="str">
+      <c r="T17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U17" s="29" t="str">
+      <c r="U17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="27">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v>1</v>
       </c>
-      <c r="W17" s="29" t="str">
+      <c r="W17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X17" s="29" t="str">
+      <c r="X17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y17" s="29" t="str">
+      <c r="Y17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z17" s="29" t="str">
+      <c r="Z17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA17" s="29" t="str">
+      <c r="AA17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB17" s="29" t="str">
+      <c r="AB17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC17" s="29" t="str">
+      <c r="AC17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD17" s="29" t="str">
+      <c r="AD17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE17" s="29" t="str">
+      <c r="AE17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF17" s="29" t="str">
+      <c r="AF17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG17" s="29" t="str">
+      <c r="AG17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH17" s="29" t="str">
+      <c r="AH17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI17" s="29" t="str">
+      <c r="AI17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ17" s="29" t="str">
+      <c r="AJ17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK17" s="29" t="str">
+      <c r="AK17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL17" s="29" t="str">
+      <c r="AL17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM17" s="29" t="str">
+      <c r="AM17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN17" s="29" t="str">
+      <c r="AN17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO17" s="29" t="str">
+      <c r="AO17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP17" s="29" t="str">
+      <c r="AP17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ17" s="29" t="str">
+      <c r="AQ17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR17" s="29" t="str">
+      <c r="AR17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS17" s="29" t="str">
+      <c r="AS17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT17" s="29" t="str">
+      <c r="AT17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU17" s="29" t="str">
+      <c r="AU17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV17" s="29" t="str">
+      <c r="AV17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW17" s="29" t="str">
+      <c r="AW17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX17" s="29" t="str">
+      <c r="AX17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY17" s="29" t="str">
+      <c r="AY17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ17" s="29" t="str">
+      <c r="AZ17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA17" s="29" t="str">
+      <c r="BA17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB17" s="29" t="str">
+      <c r="BB17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC17" s="29" t="str">
+      <c r="BC17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD17" s="29" t="str">
+      <c r="BD17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE17" s="29" t="str">
+      <c r="BE17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF17" s="29" t="str">
+      <c r="BF17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG17" s="29" t="str">
+      <c r="BG17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH17" s="29" t="str">
+      <c r="BH17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI17" s="29" t="str">
+      <c r="BI17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ17" s="29" t="str">
+      <c r="BJ17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK17" s="29" t="str">
+      <c r="BK17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="24">
+      <c r="B18" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="23">
         <v>0.2</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>44095</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="44">
         <v>1</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="29" t="str">
+      <c r="G18" s="19"/>
+      <c r="H18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I18" s="29" t="str">
+      <c r="I18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J18" s="29" t="str">
+      <c r="J18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K18" s="29" t="str">
+      <c r="K18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L18" s="29" t="str">
+      <c r="L18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M18" s="29" t="str">
+      <c r="M18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N18" s="29" t="str">
+      <c r="N18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O18" s="29" t="str">
+      <c r="O18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P18" s="29" t="str">
+      <c r="P18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q18" s="29" t="str">
+      <c r="Q18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R18" s="29" t="str">
+      <c r="R18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S18" s="29" t="str">
+      <c r="S18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T18" s="29" t="str">
+      <c r="T18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U18" s="29" t="str">
+      <c r="U18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="27">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v>1</v>
       </c>
-      <c r="W18" s="29" t="str">
+      <c r="W18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X18" s="29" t="str">
+      <c r="X18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y18" s="29" t="str">
+      <c r="Y18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z18" s="29" t="str">
+      <c r="Z18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA18" s="29" t="str">
+      <c r="AA18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB18" s="29" t="str">
+      <c r="AB18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC18" s="29" t="str">
+      <c r="AC18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD18" s="29" t="str">
+      <c r="AD18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE18" s="29" t="str">
+      <c r="AE18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF18" s="29" t="str">
+      <c r="AF18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG18" s="29" t="str">
+      <c r="AG18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH18" s="29" t="str">
+      <c r="AH18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI18" s="29" t="str">
+      <c r="AI18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ18" s="29" t="str">
+      <c r="AJ18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK18" s="29" t="str">
+      <c r="AK18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL18" s="29" t="str">
+      <c r="AL18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM18" s="29" t="str">
+      <c r="AM18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN18" s="29" t="str">
+      <c r="AN18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO18" s="29" t="str">
+      <c r="AO18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP18" s="29" t="str">
+      <c r="AP18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ18" s="29" t="str">
+      <c r="AQ18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR18" s="29" t="str">
+      <c r="AR18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS18" s="29" t="str">
+      <c r="AS18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT18" s="29" t="str">
+      <c r="AT18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU18" s="29" t="str">
+      <c r="AU18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV18" s="29" t="str">
+      <c r="AV18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW18" s="29" t="str">
+      <c r="AW18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX18" s="29" t="str">
+      <c r="AX18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY18" s="29" t="str">
+      <c r="AY18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ18" s="29" t="str">
+      <c r="AZ18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA18" s="29" t="str">
+      <c r="BA18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB18" s="29" t="str">
+      <c r="BB18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC18" s="29" t="str">
+      <c r="BC18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD18" s="29" t="str">
+      <c r="BD18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE18" s="29" t="str">
+      <c r="BE18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF18" s="29" t="str">
+      <c r="BF18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG18" s="29" t="str">
+      <c r="BG18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH18" s="29" t="str">
+      <c r="BH18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI18" s="29" t="str">
+      <c r="BI18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ18" s="29" t="str">
+      <c r="BJ18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK18" s="29" t="str">
+      <c r="BK18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
-      <c r="B19" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="24">
+      <c r="B19" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="23">
         <v>1</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>44088</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="44">
         <v>9</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="29"/>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="29"/>
-      <c r="BA19" s="29"/>
-      <c r="BB19" s="29"/>
-      <c r="BC19" s="29"/>
-      <c r="BD19" s="29"/>
-      <c r="BE19" s="29"/>
-      <c r="BF19" s="29"/>
-      <c r="BG19" s="29"/>
-      <c r="BH19" s="29"/>
-      <c r="BI19" s="29"/>
-      <c r="BJ19" s="29"/>
-      <c r="BK19" s="29"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="27"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="27"/>
+      <c r="BD19" s="27"/>
+      <c r="BE19" s="27"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="27"/>
+      <c r="BJ19" s="27"/>
+      <c r="BK19" s="27"/>
     </row>
     <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
-      <c r="B20" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="B20" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="E20" s="24">
         <v>44088</v>
       </c>
-      <c r="F20" s="48">
-        <v>9</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
-      <c r="BB20" s="29"/>
-      <c r="BC20" s="29"/>
-      <c r="BD20" s="29"/>
-      <c r="BE20" s="29"/>
-      <c r="BF20" s="29"/>
-      <c r="BG20" s="29"/>
-      <c r="BH20" s="29"/>
-      <c r="BI20" s="29"/>
-      <c r="BJ20" s="29"/>
-      <c r="BK20" s="29"/>
+      <c r="F20" s="44">
+        <v>23</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="27"/>
+      <c r="BE20" s="27"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="27"/>
+      <c r="BJ20" s="27"/>
+      <c r="BK20" s="27"/>
     </row>
     <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="B21" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24">
         <v>44095</v>
       </c>
-      <c r="F21" s="48">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29">
+      <c r="F21" s="44">
+        <v>16</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E21,$F21=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
-      </c>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="29"/>
-      <c r="AW21" s="29"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="29"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="29"/>
-      <c r="BE21" s="29"/>
-      <c r="BF21" s="29"/>
-      <c r="BG21" s="29"/>
-      <c r="BH21" s="29"/>
-      <c r="BI21" s="29"/>
-      <c r="BJ21" s="29"/>
-      <c r="BK21" s="29"/>
+        <v/>
+      </c>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="27"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="27"/>
+      <c r="BJ21" s="27"/>
+      <c r="BK21" s="27"/>
     </row>
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="24">
-        <v>0.9</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="C22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
+      <c r="E22" s="24">
         <v>44095</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="44">
         <v>1</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
-      <c r="BD22" s="29"/>
-      <c r="BE22" s="29"/>
-      <c r="BF22" s="29"/>
-      <c r="BG22" s="29"/>
-      <c r="BH22" s="29"/>
-      <c r="BI22" s="29"/>
-      <c r="BJ22" s="29"/>
-      <c r="BK22" s="29"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="27"/>
+      <c r="BD22" s="27"/>
+      <c r="BE22" s="27"/>
+      <c r="BF22" s="27"/>
+      <c r="BG22" s="27"/>
+      <c r="BH22" s="27"/>
+      <c r="BI22" s="27"/>
+      <c r="BJ22" s="27"/>
+      <c r="BK22" s="27"/>
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="24">
+      <c r="B23" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="23">
         <v>0</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="48">
+      <c r="E23" s="24"/>
+      <c r="F23" s="44">
         <v>0</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="29"/>
-      <c r="AT23" s="29"/>
-      <c r="AU23" s="29"/>
-      <c r="AV23" s="29"/>
-      <c r="AW23" s="29"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
-      <c r="AZ23" s="29"/>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="29"/>
-      <c r="BC23" s="29"/>
-      <c r="BD23" s="29"/>
-      <c r="BE23" s="29"/>
-      <c r="BF23" s="29"/>
-      <c r="BG23" s="29"/>
-      <c r="BH23" s="29"/>
-      <c r="BI23" s="29"/>
-      <c r="BJ23" s="29"/>
-      <c r="BK23" s="29"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
+      <c r="BD23" s="27"/>
+      <c r="BE23" s="27"/>
+      <c r="BF23" s="27"/>
+      <c r="BG23" s="27"/>
+      <c r="BH23" s="27"/>
+      <c r="BI23" s="27"/>
+      <c r="BJ23" s="27"/>
+      <c r="BK23" s="27"/>
     </row>
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
-      <c r="B24" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="24">
+      <c r="B24" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="23">
         <v>0</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="48">
+      <c r="E24" s="24"/>
+      <c r="F24" s="44">
         <v>0</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="29"/>
-      <c r="BB24" s="29"/>
-      <c r="BC24" s="29"/>
-      <c r="BD24" s="29"/>
-      <c r="BE24" s="29"/>
-      <c r="BF24" s="29"/>
-      <c r="BG24" s="29"/>
-      <c r="BH24" s="29"/>
-      <c r="BI24" s="29"/>
-      <c r="BJ24" s="29"/>
-      <c r="BK24" s="29"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="27"/>
+      <c r="AW24" s="27"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="27"/>
+      <c r="BD24" s="27"/>
+      <c r="BE24" s="27"/>
+      <c r="BF24" s="27"/>
+      <c r="BG24" s="27"/>
+      <c r="BH24" s="27"/>
+      <c r="BI24" s="27"/>
+      <c r="BJ24" s="27"/>
+      <c r="BK24" s="27"/>
     </row>
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
-      <c r="B25" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="29"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="29"/>
-      <c r="AR25" s="29"/>
-      <c r="AS25" s="29"/>
-      <c r="AT25" s="29"/>
-      <c r="AU25" s="29"/>
-      <c r="AV25" s="29"/>
-      <c r="AW25" s="29"/>
-      <c r="AX25" s="29"/>
-      <c r="AY25" s="29"/>
-      <c r="AZ25" s="29"/>
-      <c r="BA25" s="29"/>
-      <c r="BB25" s="29"/>
-      <c r="BC25" s="29"/>
-      <c r="BD25" s="29"/>
-      <c r="BE25" s="29"/>
-      <c r="BF25" s="29"/>
-      <c r="BG25" s="29"/>
-      <c r="BH25" s="29"/>
-      <c r="BI25" s="29"/>
-      <c r="BJ25" s="29"/>
-      <c r="BK25" s="29"/>
+      <c r="B25" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="27"/>
+      <c r="AW25" s="27"/>
+      <c r="AX25" s="27"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="27"/>
+      <c r="BC25" s="27"/>
+      <c r="BD25" s="27"/>
+      <c r="BE25" s="27"/>
+      <c r="BF25" s="27"/>
+      <c r="BG25" s="27"/>
+      <c r="BH25" s="27"/>
+      <c r="BI25" s="27"/>
+      <c r="BJ25" s="27"/>
+      <c r="BK25" s="27"/>
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
-      <c r="B26" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="24">
+      <c r="B26" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="23">
         <v>1</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="24">
         <v>44095</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="44">
         <v>1</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="29"/>
-      <c r="AS26" s="29"/>
-      <c r="AT26" s="29"/>
-      <c r="AU26" s="29"/>
-      <c r="AV26" s="29"/>
-      <c r="AW26" s="29"/>
-      <c r="AX26" s="29"/>
-      <c r="AY26" s="29"/>
-      <c r="AZ26" s="29"/>
-      <c r="BA26" s="29"/>
-      <c r="BB26" s="29"/>
-      <c r="BC26" s="29"/>
-      <c r="BD26" s="29"/>
-      <c r="BE26" s="29"/>
-      <c r="BF26" s="29"/>
-      <c r="BG26" s="29"/>
-      <c r="BH26" s="29"/>
-      <c r="BI26" s="29"/>
-      <c r="BJ26" s="29"/>
-      <c r="BK26" s="29"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="27"/>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="27"/>
+      <c r="AV26" s="27"/>
+      <c r="AW26" s="27"/>
+      <c r="AX26" s="27"/>
+      <c r="AY26" s="27"/>
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="27"/>
+      <c r="BB26" s="27"/>
+      <c r="BC26" s="27"/>
+      <c r="BD26" s="27"/>
+      <c r="BE26" s="27"/>
+      <c r="BF26" s="27"/>
+      <c r="BG26" s="27"/>
+      <c r="BH26" s="27"/>
+      <c r="BI26" s="27"/>
+      <c r="BJ26" s="27"/>
+      <c r="BK26" s="27"/>
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="24">
+      <c r="B27" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="23">
         <v>0</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="29"/>
-      <c r="AT27" s="29"/>
-      <c r="AU27" s="29"/>
-      <c r="AV27" s="29"/>
-      <c r="AW27" s="29"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="29"/>
-      <c r="AZ27" s="29"/>
-      <c r="BA27" s="29"/>
-      <c r="BB27" s="29"/>
-      <c r="BC27" s="29"/>
-      <c r="BD27" s="29"/>
-      <c r="BE27" s="29"/>
-      <c r="BF27" s="29"/>
-      <c r="BG27" s="29"/>
-      <c r="BH27" s="29"/>
-      <c r="BI27" s="29"/>
-      <c r="BJ27" s="29"/>
-      <c r="BK27" s="29"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AS27" s="27"/>
+      <c r="AT27" s="27"/>
+      <c r="AU27" s="27"/>
+      <c r="AV27" s="27"/>
+      <c r="AW27" s="27"/>
+      <c r="AX27" s="27"/>
+      <c r="AY27" s="27"/>
+      <c r="AZ27" s="27"/>
+      <c r="BA27" s="27"/>
+      <c r="BB27" s="27"/>
+      <c r="BC27" s="27"/>
+      <c r="BD27" s="27"/>
+      <c r="BE27" s="27"/>
+      <c r="BF27" s="27"/>
+      <c r="BG27" s="27"/>
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="27"/>
+      <c r="BJ27" s="27"/>
+      <c r="BK27" s="27"/>
     </row>
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="24">
+      <c r="B28" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="29"/>
-      <c r="AT28" s="29"/>
-      <c r="AU28" s="29"/>
-      <c r="AV28" s="29"/>
-      <c r="AW28" s="29"/>
-      <c r="AX28" s="29"/>
-      <c r="AY28" s="29"/>
-      <c r="AZ28" s="29"/>
-      <c r="BA28" s="29"/>
-      <c r="BB28" s="29"/>
-      <c r="BC28" s="29"/>
-      <c r="BD28" s="29"/>
-      <c r="BE28" s="29"/>
-      <c r="BF28" s="29"/>
-      <c r="BG28" s="29"/>
-      <c r="BH28" s="29"/>
-      <c r="BI28" s="29"/>
-      <c r="BJ28" s="29"/>
-      <c r="BK28" s="29"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="27"/>
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="27"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="27"/>
+      <c r="BC28" s="27"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
+      <c r="BF28" s="27"/>
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="27"/>
+      <c r="BJ28" s="27"/>
+      <c r="BK28" s="27"/>
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="29"/>
-      <c r="AV29" s="29"/>
-      <c r="AW29" s="29"/>
-      <c r="AX29" s="29"/>
-      <c r="AY29" s="29"/>
-      <c r="AZ29" s="29"/>
-      <c r="BA29" s="29"/>
-      <c r="BB29" s="29"/>
-      <c r="BC29" s="29"/>
-      <c r="BD29" s="29"/>
-      <c r="BE29" s="29"/>
-      <c r="BF29" s="29"/>
-      <c r="BG29" s="29"/>
-      <c r="BH29" s="29"/>
-      <c r="BI29" s="29"/>
-      <c r="BJ29" s="29"/>
-      <c r="BK29" s="29"/>
+      <c r="B29" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="27"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="27"/>
+      <c r="BC29" s="27"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="27"/>
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="27"/>
+      <c r="BJ29" s="27"/>
+      <c r="BK29" s="27"/>
     </row>
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
-      <c r="B30" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="24">
+      <c r="B30" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="23">
         <v>0</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="29"/>
-      <c r="AL30" s="29"/>
-      <c r="AM30" s="29"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="29"/>
-      <c r="AP30" s="29"/>
-      <c r="AQ30" s="29"/>
-      <c r="AR30" s="29"/>
-      <c r="AS30" s="29"/>
-      <c r="AT30" s="29"/>
-      <c r="AU30" s="29"/>
-      <c r="AV30" s="29"/>
-      <c r="AW30" s="29"/>
-      <c r="AX30" s="29"/>
-      <c r="AY30" s="29"/>
-      <c r="AZ30" s="29"/>
-      <c r="BA30" s="29"/>
-      <c r="BB30" s="29"/>
-      <c r="BC30" s="29"/>
-      <c r="BD30" s="29"/>
-      <c r="BE30" s="29"/>
-      <c r="BF30" s="29"/>
-      <c r="BG30" s="29"/>
-      <c r="BH30" s="29"/>
-      <c r="BI30" s="29"/>
-      <c r="BJ30" s="29"/>
-      <c r="BK30" s="29"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="27"/>
+      <c r="AY30" s="27"/>
+      <c r="AZ30" s="27"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="27"/>
+      <c r="BC30" s="27"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="27"/>
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="27"/>
+      <c r="BJ30" s="27"/>
+      <c r="BK30" s="27"/>
     </row>
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
-      <c r="B31" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="24">
+      <c r="B31" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="23">
         <v>0</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="29"/>
-      <c r="AL31" s="29"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="29"/>
-      <c r="AQ31" s="29"/>
-      <c r="AR31" s="29"/>
-      <c r="AS31" s="29"/>
-      <c r="AT31" s="29"/>
-      <c r="AU31" s="29"/>
-      <c r="AV31" s="29"/>
-      <c r="AW31" s="29"/>
-      <c r="AX31" s="29"/>
-      <c r="AY31" s="29"/>
-      <c r="AZ31" s="29"/>
-      <c r="BA31" s="29"/>
-      <c r="BB31" s="29"/>
-      <c r="BC31" s="29"/>
-      <c r="BD31" s="29"/>
-      <c r="BE31" s="29"/>
-      <c r="BF31" s="29"/>
-      <c r="BG31" s="29"/>
-      <c r="BH31" s="29"/>
-      <c r="BI31" s="29"/>
-      <c r="BJ31" s="29"/>
-      <c r="BK31" s="29"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="27"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="27"/>
+      <c r="BC31" s="27"/>
+      <c r="BD31" s="27"/>
+      <c r="BE31" s="27"/>
+      <c r="BF31" s="27"/>
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="27"/>
+      <c r="BJ31" s="27"/>
+      <c r="BK31" s="27"/>
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
-      <c r="B32" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="24">
+      <c r="B32" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="23">
         <v>0</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="29"/>
-      <c r="AI32" s="29"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="29"/>
-      <c r="AL32" s="29"/>
-      <c r="AM32" s="29"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="29"/>
-      <c r="AP32" s="29"/>
-      <c r="AQ32" s="29"/>
-      <c r="AR32" s="29"/>
-      <c r="AS32" s="29"/>
-      <c r="AT32" s="29"/>
-      <c r="AU32" s="29"/>
-      <c r="AV32" s="29"/>
-      <c r="AW32" s="29"/>
-      <c r="AX32" s="29"/>
-      <c r="AY32" s="29"/>
-      <c r="AZ32" s="29"/>
-      <c r="BA32" s="29"/>
-      <c r="BB32" s="29"/>
-      <c r="BC32" s="29"/>
-      <c r="BD32" s="29"/>
-      <c r="BE32" s="29"/>
-      <c r="BF32" s="29"/>
-      <c r="BG32" s="29"/>
-      <c r="BH32" s="29"/>
-      <c r="BI32" s="29"/>
-      <c r="BJ32" s="29"/>
-      <c r="BK32" s="29"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="27"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="27"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="27"/>
+      <c r="AW32" s="27"/>
+      <c r="AX32" s="27"/>
+      <c r="AY32" s="27"/>
+      <c r="AZ32" s="27"/>
+      <c r="BA32" s="27"/>
+      <c r="BB32" s="27"/>
+      <c r="BC32" s="27"/>
+      <c r="BD32" s="27"/>
+      <c r="BE32" s="27"/>
+      <c r="BF32" s="27"/>
+      <c r="BG32" s="27"/>
+      <c r="BH32" s="27"/>
+      <c r="BI32" s="27"/>
+      <c r="BJ32" s="27"/>
+      <c r="BK32" s="27"/>
     </row>
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
-      <c r="B33" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="24">
+      <c r="B33" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="23">
         <v>0</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="29"/>
-      <c r="AL33" s="29"/>
-      <c r="AM33" s="29"/>
-      <c r="AN33" s="29"/>
-      <c r="AO33" s="29"/>
-      <c r="AP33" s="29"/>
-      <c r="AQ33" s="29"/>
-      <c r="AR33" s="29"/>
-      <c r="AS33" s="29"/>
-      <c r="AT33" s="29"/>
-      <c r="AU33" s="29"/>
-      <c r="AV33" s="29"/>
-      <c r="AW33" s="29"/>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="29"/>
-      <c r="AZ33" s="29"/>
-      <c r="BA33" s="29"/>
-      <c r="BB33" s="29"/>
-      <c r="BC33" s="29"/>
-      <c r="BD33" s="29"/>
-      <c r="BE33" s="29"/>
-      <c r="BF33" s="29"/>
-      <c r="BG33" s="29"/>
-      <c r="BH33" s="29"/>
-      <c r="BI33" s="29"/>
-      <c r="BJ33" s="29"/>
-      <c r="BK33" s="29"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="27"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="27"/>
+      <c r="AR33" s="27"/>
+      <c r="AS33" s="27"/>
+      <c r="AT33" s="27"/>
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="27"/>
+      <c r="AW33" s="27"/>
+      <c r="AX33" s="27"/>
+      <c r="AY33" s="27"/>
+      <c r="AZ33" s="27"/>
+      <c r="BA33" s="27"/>
+      <c r="BB33" s="27"/>
+      <c r="BC33" s="27"/>
+      <c r="BD33" s="27"/>
+      <c r="BE33" s="27"/>
+      <c r="BF33" s="27"/>
+      <c r="BG33" s="27"/>
+      <c r="BH33" s="27"/>
+      <c r="BI33" s="27"/>
+      <c r="BJ33" s="27"/>
+      <c r="BK33" s="27"/>
     </row>
     <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
-      <c r="B34" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="24">
+      <c r="B34" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="23">
         <v>0</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="29"/>
-      <c r="AL34" s="29"/>
-      <c r="AM34" s="29"/>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="29"/>
-      <c r="AP34" s="29"/>
-      <c r="AQ34" s="29"/>
-      <c r="AR34" s="29"/>
-      <c r="AS34" s="29"/>
-      <c r="AT34" s="29"/>
-      <c r="AU34" s="29"/>
-      <c r="AV34" s="29"/>
-      <c r="AW34" s="29"/>
-      <c r="AX34" s="29"/>
-      <c r="AY34" s="29"/>
-      <c r="AZ34" s="29"/>
-      <c r="BA34" s="29"/>
-      <c r="BB34" s="29"/>
-      <c r="BC34" s="29"/>
-      <c r="BD34" s="29"/>
-      <c r="BE34" s="29"/>
-      <c r="BF34" s="29"/>
-      <c r="BG34" s="29"/>
-      <c r="BH34" s="29"/>
-      <c r="BI34" s="29"/>
-      <c r="BJ34" s="29"/>
-      <c r="BK34" s="29"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27"/>
+      <c r="AH34" s="27"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27"/>
+      <c r="AK34" s="27"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="27"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27"/>
+      <c r="AQ34" s="27"/>
+      <c r="AR34" s="27"/>
+      <c r="AS34" s="27"/>
+      <c r="AT34" s="27"/>
+      <c r="AU34" s="27"/>
+      <c r="AV34" s="27"/>
+      <c r="AW34" s="27"/>
+      <c r="AX34" s="27"/>
+      <c r="AY34" s="27"/>
+      <c r="AZ34" s="27"/>
+      <c r="BA34" s="27"/>
+      <c r="BB34" s="27"/>
+      <c r="BC34" s="27"/>
+      <c r="BD34" s="27"/>
+      <c r="BE34" s="27"/>
+      <c r="BF34" s="27"/>
+      <c r="BG34" s="27"/>
+      <c r="BH34" s="27"/>
+      <c r="BI34" s="27"/>
+      <c r="BJ34" s="27"/>
+      <c r="BK34" s="27"/>
     </row>
     <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
-      <c r="B35" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="24">
+      <c r="B35" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="23">
         <v>0</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
-      <c r="AG35" s="29"/>
-      <c r="AH35" s="29"/>
-      <c r="AI35" s="29"/>
-      <c r="AJ35" s="29"/>
-      <c r="AK35" s="29"/>
-      <c r="AL35" s="29"/>
-      <c r="AM35" s="29"/>
-      <c r="AN35" s="29"/>
-      <c r="AO35" s="29"/>
-      <c r="AP35" s="29"/>
-      <c r="AQ35" s="29"/>
-      <c r="AR35" s="29"/>
-      <c r="AS35" s="29"/>
-      <c r="AT35" s="29"/>
-      <c r="AU35" s="29"/>
-      <c r="AV35" s="29"/>
-      <c r="AW35" s="29"/>
-      <c r="AX35" s="29"/>
-      <c r="AY35" s="29"/>
-      <c r="AZ35" s="29"/>
-      <c r="BA35" s="29"/>
-      <c r="BB35" s="29"/>
-      <c r="BC35" s="29"/>
-      <c r="BD35" s="29"/>
-      <c r="BE35" s="29"/>
-      <c r="BF35" s="29"/>
-      <c r="BG35" s="29"/>
-      <c r="BH35" s="29"/>
-      <c r="BI35" s="29"/>
-      <c r="BJ35" s="29"/>
-      <c r="BK35" s="29"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27"/>
+      <c r="AK35" s="27"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="27"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27"/>
+      <c r="AQ35" s="27"/>
+      <c r="AR35" s="27"/>
+      <c r="AS35" s="27"/>
+      <c r="AT35" s="27"/>
+      <c r="AU35" s="27"/>
+      <c r="AV35" s="27"/>
+      <c r="AW35" s="27"/>
+      <c r="AX35" s="27"/>
+      <c r="AY35" s="27"/>
+      <c r="AZ35" s="27"/>
+      <c r="BA35" s="27"/>
+      <c r="BB35" s="27"/>
+      <c r="BC35" s="27"/>
+      <c r="BD35" s="27"/>
+      <c r="BE35" s="27"/>
+      <c r="BF35" s="27"/>
+      <c r="BG35" s="27"/>
+      <c r="BH35" s="27"/>
+      <c r="BI35" s="27"/>
+      <c r="BJ35" s="27"/>
+      <c r="BK35" s="27"/>
     </row>
     <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
-      <c r="B36" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="24">
+      <c r="B36" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="23">
         <v>0</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
-      <c r="AG36" s="29"/>
-      <c r="AH36" s="29"/>
-      <c r="AI36" s="29"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29"/>
-      <c r="AM36" s="29"/>
-      <c r="AN36" s="29"/>
-      <c r="AO36" s="29"/>
-      <c r="AP36" s="29"/>
-      <c r="AQ36" s="29"/>
-      <c r="AR36" s="29"/>
-      <c r="AS36" s="29"/>
-      <c r="AT36" s="29"/>
-      <c r="AU36" s="29"/>
-      <c r="AV36" s="29"/>
-      <c r="AW36" s="29"/>
-      <c r="AX36" s="29"/>
-      <c r="AY36" s="29"/>
-      <c r="AZ36" s="29"/>
-      <c r="BA36" s="29"/>
-      <c r="BB36" s="29"/>
-      <c r="BC36" s="29"/>
-      <c r="BD36" s="29"/>
-      <c r="BE36" s="29"/>
-      <c r="BF36" s="29"/>
-      <c r="BG36" s="29"/>
-      <c r="BH36" s="29"/>
-      <c r="BI36" s="29"/>
-      <c r="BJ36" s="29"/>
-      <c r="BK36" s="29"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="27"/>
+      <c r="AP36" s="27"/>
+      <c r="AQ36" s="27"/>
+      <c r="AR36" s="27"/>
+      <c r="AS36" s="27"/>
+      <c r="AT36" s="27"/>
+      <c r="AU36" s="27"/>
+      <c r="AV36" s="27"/>
+      <c r="AW36" s="27"/>
+      <c r="AX36" s="27"/>
+      <c r="AY36" s="27"/>
+      <c r="AZ36" s="27"/>
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="27"/>
+      <c r="BC36" s="27"/>
+      <c r="BD36" s="27"/>
+      <c r="BE36" s="27"/>
+      <c r="BF36" s="27"/>
+      <c r="BG36" s="27"/>
+      <c r="BH36" s="27"/>
+      <c r="BI36" s="27"/>
+      <c r="BJ36" s="27"/>
+      <c r="BK36" s="27"/>
     </row>
     <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
-      <c r="B37" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="24">
+      <c r="B37" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="23">
         <v>0</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
-      <c r="AG37" s="29"/>
-      <c r="AH37" s="29"/>
-      <c r="AI37" s="29"/>
-      <c r="AJ37" s="29"/>
-      <c r="AK37" s="29"/>
-      <c r="AL37" s="29"/>
-      <c r="AM37" s="29"/>
-      <c r="AN37" s="29"/>
-      <c r="AO37" s="29"/>
-      <c r="AP37" s="29"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="29"/>
-      <c r="AS37" s="29"/>
-      <c r="AT37" s="29"/>
-      <c r="AU37" s="29"/>
-      <c r="AV37" s="29"/>
-      <c r="AW37" s="29"/>
-      <c r="AX37" s="29"/>
-      <c r="AY37" s="29"/>
-      <c r="AZ37" s="29"/>
-      <c r="BA37" s="29"/>
-      <c r="BB37" s="29"/>
-      <c r="BC37" s="29"/>
-      <c r="BD37" s="29"/>
-      <c r="BE37" s="29"/>
-      <c r="BF37" s="29"/>
-      <c r="BG37" s="29"/>
-      <c r="BH37" s="29"/>
-      <c r="BI37" s="29"/>
-      <c r="BJ37" s="29"/>
-      <c r="BK37" s="29"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+      <c r="AK37" s="27"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27"/>
+      <c r="AN37" s="27"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="27"/>
+      <c r="AQ37" s="27"/>
+      <c r="AR37" s="27"/>
+      <c r="AS37" s="27"/>
+      <c r="AT37" s="27"/>
+      <c r="AU37" s="27"/>
+      <c r="AV37" s="27"/>
+      <c r="AW37" s="27"/>
+      <c r="AX37" s="27"/>
+      <c r="AY37" s="27"/>
+      <c r="AZ37" s="27"/>
+      <c r="BA37" s="27"/>
+      <c r="BB37" s="27"/>
+      <c r="BC37" s="27"/>
+      <c r="BD37" s="27"/>
+      <c r="BE37" s="27"/>
+      <c r="BF37" s="27"/>
+      <c r="BG37" s="27"/>
+      <c r="BH37" s="27"/>
+      <c r="BI37" s="27"/>
+      <c r="BJ37" s="27"/>
+      <c r="BK37" s="27"/>
     </row>
     <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
-      <c r="B38" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="24">
+      <c r="B38" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="23">
         <v>0</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="29"/>
-      <c r="AV38" s="29"/>
-      <c r="AW38" s="29"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="29"/>
-      <c r="BE38" s="29"/>
-      <c r="BF38" s="29"/>
-      <c r="BG38" s="29"/>
-      <c r="BH38" s="29"/>
-      <c r="BI38" s="29"/>
-      <c r="BJ38" s="29"/>
-      <c r="BK38" s="29"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="27"/>
+      <c r="AK38" s="27"/>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="27"/>
+      <c r="AN38" s="27"/>
+      <c r="AO38" s="27"/>
+      <c r="AP38" s="27"/>
+      <c r="AQ38" s="27"/>
+      <c r="AR38" s="27"/>
+      <c r="AS38" s="27"/>
+      <c r="AT38" s="27"/>
+      <c r="AU38" s="27"/>
+      <c r="AV38" s="27"/>
+      <c r="AW38" s="27"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="27"/>
+      <c r="AZ38" s="27"/>
+      <c r="BA38" s="27"/>
+      <c r="BB38" s="27"/>
+      <c r="BC38" s="27"/>
+      <c r="BD38" s="27"/>
+      <c r="BE38" s="27"/>
+      <c r="BF38" s="27"/>
+      <c r="BG38" s="27"/>
+      <c r="BH38" s="27"/>
+      <c r="BI38" s="27"/>
+      <c r="BJ38" s="27"/>
+      <c r="BK38" s="27"/>
     </row>
     <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
-      <c r="B39" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="24">
+      <c r="B39" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="23">
         <v>0</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="29"/>
-      <c r="AL39" s="29"/>
-      <c r="AM39" s="29"/>
-      <c r="AN39" s="29"/>
-      <c r="AO39" s="29"/>
-      <c r="AP39" s="29"/>
-      <c r="AQ39" s="29"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="29"/>
-      <c r="AT39" s="29"/>
-      <c r="AU39" s="29"/>
-      <c r="AV39" s="29"/>
-      <c r="AW39" s="29"/>
-      <c r="AX39" s="29"/>
-      <c r="AY39" s="29"/>
-      <c r="AZ39" s="29"/>
-      <c r="BA39" s="29"/>
-      <c r="BB39" s="29"/>
-      <c r="BC39" s="29"/>
-      <c r="BD39" s="29"/>
-      <c r="BE39" s="29"/>
-      <c r="BF39" s="29"/>
-      <c r="BG39" s="29"/>
-      <c r="BH39" s="29"/>
-      <c r="BI39" s="29"/>
-      <c r="BJ39" s="29"/>
-      <c r="BK39" s="29"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="27"/>
+      <c r="AH39" s="27"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="27"/>
+      <c r="AK39" s="27"/>
+      <c r="AL39" s="27"/>
+      <c r="AM39" s="27"/>
+      <c r="AN39" s="27"/>
+      <c r="AO39" s="27"/>
+      <c r="AP39" s="27"/>
+      <c r="AQ39" s="27"/>
+      <c r="AR39" s="27"/>
+      <c r="AS39" s="27"/>
+      <c r="AT39" s="27"/>
+      <c r="AU39" s="27"/>
+      <c r="AV39" s="27"/>
+      <c r="AW39" s="27"/>
+      <c r="AX39" s="27"/>
+      <c r="AY39" s="27"/>
+      <c r="AZ39" s="27"/>
+      <c r="BA39" s="27"/>
+      <c r="BB39" s="27"/>
+      <c r="BC39" s="27"/>
+      <c r="BD39" s="27"/>
+      <c r="BE39" s="27"/>
+      <c r="BF39" s="27"/>
+      <c r="BG39" s="27"/>
+      <c r="BH39" s="27"/>
+      <c r="BI39" s="27"/>
+      <c r="BJ39" s="27"/>
+      <c r="BK39" s="27"/>
     </row>
     <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
-      <c r="B40" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="24">
+      <c r="B40" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="23">
         <v>0</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="29" t="str">
+      <c r="E40" s="24"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I40" s="29" t="str">
+      <c r="I40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J40" s="29" t="str">
+      <c r="J40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K40" s="29" t="str">
+      <c r="K40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L40" s="29" t="str">
+      <c r="L40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M40" s="29" t="str">
+      <c r="M40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N40" s="29" t="str">
+      <c r="N40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O40" s="29" t="str">
+      <c r="O40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P40" s="29" t="str">
+      <c r="P40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q40" s="29" t="str">
+      <c r="Q40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R40" s="29" t="str">
+      <c r="R40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S40" s="29" t="str">
+      <c r="S40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T40" s="29" t="str">
+      <c r="T40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U40" s="29" t="str">
+      <c r="U40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V40" s="29" t="str">
+      <c r="V40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W40" s="29" t="str">
+      <c r="W40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X40" s="29" t="str">
+      <c r="X40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Y40" s="29" t="str">
+      <c r="Y40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Z40" s="29" t="str">
+      <c r="Z40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AA40" s="29" t="str">
+      <c r="AA40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AB40" s="29" t="str">
+      <c r="AB40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AC40" s="29" t="str">
+      <c r="AC40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AD40" s="29" t="str">
+      <c r="AD40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AE40" s="29" t="str">
+      <c r="AE40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AF40" s="29" t="str">
+      <c r="AF40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AG40" s="29" t="str">
+      <c r="AG40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AH40" s="29" t="str">
+      <c r="AH40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AI40" s="29" t="str">
+      <c r="AI40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ40" s="29" t="str">
+      <c r="AJ40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AK40" s="29" t="str">
+      <c r="AK40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AL40" s="29" t="str">
+      <c r="AL40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AM40" s="29" t="str">
+      <c r="AM40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AN40" s="29" t="str">
+      <c r="AN40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AO40" s="29" t="str">
+      <c r="AO40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AP40" s="29" t="str">
+      <c r="AP40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ40" s="29" t="str">
+      <c r="AQ40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AR40" s="29" t="str">
+      <c r="AR40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AS40" s="29" t="str">
+      <c r="AS40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AT40" s="29" t="str">
+      <c r="AT40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AU40" s="29" t="str">
+      <c r="AU40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AV40" s="29" t="str">
+      <c r="AV40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AW40" s="29" t="str">
+      <c r="AW40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AX40" s="29" t="str">
+      <c r="AX40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AY40" s="29" t="str">
+      <c r="AY40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ40" s="29" t="str">
+      <c r="AZ40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BA40" s="29" t="str">
+      <c r="BA40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BB40" s="29" t="str">
+      <c r="BB40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BC40" s="29" t="str">
+      <c r="BC40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BD40" s="29" t="str">
+      <c r="BD40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BE40" s="29" t="str">
+      <c r="BE40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BF40" s="29" t="str">
+      <c r="BF40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BG40" s="29" t="str">
+      <c r="BG40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BH40" s="29" t="str">
+      <c r="BH40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BI40" s="29" t="str">
+      <c r="BI40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ40" s="29" t="str">
+      <c r="BJ40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="BK40" s="29" t="str">
+      <c r="BK40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
-      <c r="B41" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
-      <c r="AK41" s="28"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="28"/>
-      <c r="AN41" s="28"/>
-      <c r="AO41" s="28"/>
-      <c r="AP41" s="28"/>
-      <c r="AQ41" s="28"/>
-      <c r="AR41" s="28"/>
-      <c r="AS41" s="28"/>
-      <c r="AT41" s="28"/>
-      <c r="AU41" s="28"/>
-      <c r="AV41" s="28"/>
-      <c r="AW41" s="28"/>
-      <c r="AX41" s="28"/>
-      <c r="AY41" s="28"/>
-      <c r="AZ41" s="28"/>
-      <c r="BA41" s="28"/>
-      <c r="BB41" s="28"/>
-      <c r="BC41" s="28"/>
-      <c r="BD41" s="28"/>
-      <c r="BE41" s="28"/>
-      <c r="BF41" s="28"/>
-      <c r="BG41" s="28"/>
-      <c r="BH41" s="28"/>
-      <c r="BI41" s="28"/>
-      <c r="BJ41" s="28"/>
-      <c r="BK41" s="28"/>
+      <c r="B41" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="E41" s="24">
+        <v>44109</v>
+      </c>
+      <c r="F41" s="44">
+        <v>1</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ41" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
+      </c>
+      <c r="AK41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK41" s="27" t="str">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="5"/>
@@ -7184,7 +7363,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D40">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7198,22 +7377,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:BK40">
-    <cfRule type="expression" dxfId="2" priority="78">
+    <cfRule type="expression" dxfId="4" priority="82">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK40">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A936BDD1-8F2E-4F78-9781-748D3B6620A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:BK41">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>H$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:BK41">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E41+1,H$5&lt;=$E41+$F41-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7275,7 +7478,7 @@
           <xm:sqref>D6:D40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
+          <x14:cfRule type="iconSet" priority="6" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
             <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7294,7 +7497,7 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="87" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="91" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7312,6 +7515,40 @@
           </x14:cfRule>
           <xm:sqref>H7:BK40</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A936BDD1-8F2E-4F78-9781-748D3B6620A9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{D1511172-ABAA-4E9C-9EAA-F8F9326885F2}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H41:BK41</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -7319,7 +7556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
@@ -7333,23 +7570,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="33" t="s">
-        <v>18</v>
+      <c r="A1" s="29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
-        <v>19</v>
+      <c r="A2" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>20</v>
+      <c r="A3" s="29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1C49D6B-5255-454C-ACE9-E1996586CBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -168,9 +167,6 @@
     <t xml:space="preserve">IHM à réaliser </t>
   </si>
   <si>
-    <t>Rédaction de la documentation</t>
-  </si>
-  <si>
     <t>SITE INTERNET ROBERT SCHUMAN</t>
   </si>
   <si>
@@ -249,13 +245,25 @@
     <t xml:space="preserve"> AMINE</t>
   </si>
   <si>
-    <t>BONUS : Envoi de mail automatique pour confirmation de compte</t>
+    <t>BONUS : Envoi de mail automatique après inscription</t>
+  </si>
+  <si>
+    <t>Création page "Annonces"</t>
+  </si>
+  <si>
+    <t>Rédaction de la documentation Développeur</t>
+  </si>
+  <si>
+    <t>Rédaction de la documentation Utilisateur</t>
+  </si>
+  <si>
+    <t>Création de la page "Contact"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1255,6 +1263,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1272,9 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1305,7 +1313,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1327,9 +1335,30 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1559,21 +1588,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="5"/>
+    <tableStyle name="ToDoList" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1715,8 +1744,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F41" totalsRowShown="0">
-  <autoFilter ref="B6:F41" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F44" totalsRowShown="0">
+  <autoFilter ref="B6:F44">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1724,11 +1753,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2001,14 +2030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D21" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2029,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -2042,17 +2071,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68">
+      <c r="D2" s="68"/>
+      <c r="E2" s="69">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -2065,12 +2094,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="35">
         <v>0</v>
       </c>
@@ -2085,10 +2114,10 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="36">
         <v>1</v>
       </c>
@@ -2962,7 +2991,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="23">
         <v>1</v>
@@ -3205,7 +3234,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="23">
         <v>1</v>
@@ -3448,7 +3477,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -3688,10 +3717,10 @@
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -3934,7 +3963,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="23">
         <v>1</v>
@@ -4174,7 +4203,7 @@
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="23"/>
@@ -4412,7 +4441,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
@@ -4655,7 +4684,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
@@ -4898,7 +4927,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
@@ -5141,16 +5170,16 @@
         <v>29</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="23">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="24">
         <v>44095</v>
       </c>
       <c r="F18" s="44">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="27" t="str">
@@ -5209,9 +5238,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W18" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E18,$F18=1),Marqueur_Jalon,"")),"")</f>
@@ -5384,7 +5413,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
@@ -5459,16 +5488,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E20" s="24">
         <v>44088</v>
       </c>
       <c r="F20" s="44">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="27"/>
@@ -5534,7 +5563,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
@@ -5609,10 +5638,10 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
@@ -5683,11 +5712,11 @@
     </row>
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="64" t="s">
-        <v>34</v>
+      <c r="B23" s="51" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="23">
         <v>0</v>
@@ -5757,17 +5786,19 @@
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="64" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="24">
+        <v>44116</v>
+      </c>
       <c r="F24" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="27"/>
@@ -5829,13 +5860,19 @@
     </row>
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
-      <c r="B25" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
       <c r="E25" s="24"/>
-      <c r="F25" s="44"/>
+      <c r="F25" s="44">
+        <v>0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -5896,20 +5933,18 @@
     </row>
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
-      <c r="B26" s="54" t="s">
-        <v>41</v>
+      <c r="B26" s="64" t="s">
+        <v>64</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D26" s="23">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24">
-        <v>44095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E26" s="24"/>
       <c r="F26" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="27"/>
@@ -5971,15 +6006,19 @@
     </row>
     <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="26"/>
+      <c r="B27" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="D27" s="23">
         <v>0</v>
       </c>
       <c r="E27" s="24"/>
-      <c r="F27" s="44"/>
+      <c r="F27" s="44">
+        <v>0</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -6040,13 +6079,11 @@
     </row>
     <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="23">
-        <v>0</v>
-      </c>
+      <c r="B28" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="24"/>
       <c r="F28" s="44"/>
       <c r="G28" s="19"/>
@@ -6109,13 +6146,21 @@
     </row>
     <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="44"/>
+      <c r="B29" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44095</v>
+      </c>
+      <c r="F29" s="44">
+        <v>1</v>
+      </c>
       <c r="G29" s="19"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -6176,8 +6221,8 @@
     </row>
     <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
-      <c r="B30" s="50" t="s">
-        <v>45</v>
+      <c r="B30" s="65" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="23">
@@ -6245,8 +6290,8 @@
     </row>
     <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
-      <c r="B31" s="50" t="s">
-        <v>46</v>
+      <c r="B31" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="23">
@@ -6314,13 +6359,11 @@
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
-      <c r="B32" s="51" t="s">
-        <v>48</v>
+      <c r="B32" s="57" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="23">
-        <v>0</v>
-      </c>
+      <c r="D32" s="23"/>
       <c r="E32" s="24"/>
       <c r="F32" s="44"/>
       <c r="G32" s="19"/>
@@ -6383,8 +6426,8 @@
     </row>
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
-      <c r="B33" s="64" t="s">
-        <v>50</v>
+      <c r="B33" s="50" t="s">
+        <v>44</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="23">
@@ -6452,8 +6495,8 @@
     </row>
     <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
-      <c r="B34" s="51" t="s">
-        <v>49</v>
+      <c r="B34" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="23">
@@ -6590,10 +6633,10 @@
     </row>
     <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
-      <c r="B36" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="50"/>
+      <c r="B36" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="26"/>
       <c r="D36" s="23">
         <v>0</v>
       </c>
@@ -6659,10 +6702,10 @@
     </row>
     <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
-      <c r="B37" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="50"/>
+      <c r="B37" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="26"/>
       <c r="D37" s="23">
         <v>0</v>
       </c>
@@ -6728,10 +6771,10 @@
     </row>
     <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
-      <c r="B38" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="50"/>
+      <c r="B38" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="26"/>
       <c r="D38" s="23">
         <v>0</v>
       </c>
@@ -6797,10 +6840,10 @@
     </row>
     <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
-      <c r="B39" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="58"/>
+      <c r="B39" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="50"/>
       <c r="D39" s="23">
         <v>0</v>
       </c>
@@ -6867,9 +6910,9 @@
     <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="C40" s="50"/>
       <c r="D40" s="23">
         <v>0</v>
       </c>
@@ -6877,483 +6920,516 @@
       <c r="F40" s="44"/>
       <c r="G40" s="19"/>
       <c r="H40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AJ40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AK40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK40" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E40,$F40=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
-      <c r="B41" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>56</v>
-      </c>
+      <c r="B41" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="50"/>
       <c r="D41" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="E41" s="24">
-        <v>44109</v>
-      </c>
-      <c r="F41" s="44">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="19"/>
       <c r="H41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="I41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="J41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="K41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="L41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="M41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="N41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="O41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="P41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Q41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="R41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="S41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="T41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="U41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="V41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="W41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="X41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Y41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="Z41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AA41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AB41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AC41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AD41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AE41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AF41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AG41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AH41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AI41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ41" s="27">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ41" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
       </c>
       <c r="AK41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AL41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AM41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AN41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AO41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AP41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AQ41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AR41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AS41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AT41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AU41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AV41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AW41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AX41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AY41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="AZ41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BA41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BB41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BC41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BD41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BE41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BF41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BG41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BH41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BI41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BJ41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
       <c r="BK41" s="27" t="str">
-        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E41,$F41=1),Marqueur_Jalon,"")),"")</f>
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="5"/>
-      <c r="F42" s="14"/>
+      <c r="B42" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="23">
+        <v>0</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="B43" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="23">
+        <v>0</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="E44" s="24">
+        <v>44109</v>
+      </c>
+      <c r="F44" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="5"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7362,7 +7438,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D40">
+  <conditionalFormatting sqref="D6:D43">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7377,21 +7453,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:BK40">
-    <cfRule type="expression" dxfId="4" priority="82">
+    <cfRule type="expression" dxfId="5" priority="82">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK40">
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="H7:BK22">
+    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
+  <conditionalFormatting sqref="D44">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7406,17 +7482,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:BK41">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:BK41">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(H$5&gt;=$E41+1,H$5&lt;=$E41+$F41-2)</formula>
+  <conditionalFormatting sqref="H23:BK23">
+    <cfRule type="expression" dxfId="1" priority="95" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E24+1,H$5&lt;=$E24+$F24-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:BK41">
+    <cfRule type="expression" dxfId="0" priority="103" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E27+1,H$5&lt;=$E27+$F27-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7475,7 +7556,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D40</xm:sqref>
+          <xm:sqref>D6:D43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A936BDD1-8F2E-4F78-9781-748D3B6620A9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
@@ -7516,21 +7612,6 @@
           <xm:sqref>H7:BK40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A936BDD1-8F2E-4F78-9781-748D3B6620A9}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{D1511172-ABAA-4E9C-9EAA-F8F9326885F2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -7556,7 +7637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C447FC-90AE-47B6-BB9F-257B43E9D3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="415"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,19 +18,10 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -263,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1313,7 +1305,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1335,9 +1327,300 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1588,21 +1871,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="totalRow" dxfId="27"/>
+      <tableStyleElement type="firstColumn" dxfId="26"/>
+      <tableStyleElement type="lastColumn" dxfId="25"/>
+      <tableStyleElement type="firstRowStripe" dxfId="24"/>
+      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="21"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1697,11 +1980,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>184150</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1744,8 +2027,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F44" totalsRowShown="0">
-  <autoFilter ref="B6:F44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F44" totalsRowShown="0">
+  <autoFilter ref="B6:F44" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1753,11 +2036,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2030,30 +2313,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D21" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="63" width="3.54296875" customWidth="1"/>
-    <col min="68" max="69" width="10.26953125"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="63" width="3.5703125" customWidth="1"/>
+    <col min="68" max="69" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2349,7 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2372,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2110,7 +2393,7 @@
       <c r="L3" s="43"/>
       <c r="M3" s="42"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2206,7 +2489,7 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2720,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2682,7 +2965,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -2748,7 +3031,7 @@
       <c r="BJ7" s="37"/>
       <c r="BK7" s="37"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -2985,7 +3268,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
@@ -3228,7 +3511,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="28" t="s">
         <v>22</v>
@@ -3471,7 +3754,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="62" t="s">
         <v>23</v>
@@ -3714,7 +3997,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="28" t="s">
         <v>38</v>
@@ -3957,7 +4240,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="62" t="s">
         <v>24</v>
@@ -4200,7 +4483,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="53" t="s">
         <v>37</v>
@@ -4435,7 +4718,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="62" t="s">
         <v>26</v>
@@ -4678,7 +4961,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="50" t="s">
         <v>27</v>
@@ -4921,7 +5204,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="50" t="s">
         <v>28</v>
@@ -5164,7 +5447,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="50" t="s">
         <v>29</v>
@@ -5407,7 +5690,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="50" t="s">
         <v>30</v>
@@ -5482,7 +5765,7 @@
       <c r="BJ19" s="27"/>
       <c r="BK19" s="27"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="63" t="s">
         <v>32</v>
@@ -5497,7 +5780,7 @@
         <v>44088</v>
       </c>
       <c r="F20" s="44">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="27"/>
@@ -5557,7 +5840,7 @@
       <c r="BJ20" s="27"/>
       <c r="BK20" s="27"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="51" t="s">
         <v>33</v>
@@ -5635,7 +5918,7 @@
       <c r="BJ21" s="27"/>
       <c r="BK21" s="27"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="51" t="s">
         <v>57</v>
@@ -5710,7 +5993,7 @@
       <c r="BJ22" s="27"/>
       <c r="BK22" s="27"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="51" t="s">
         <v>62</v>
@@ -5783,7 +6066,7 @@
       <c r="BJ23" s="27"/>
       <c r="BK23" s="27"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="64" t="s">
         <v>63</v>
@@ -5858,7 +6141,7 @@
       <c r="BJ24" s="27"/>
       <c r="BK24" s="27"/>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="64" t="s">
         <v>61</v>
@@ -5931,7 +6214,7 @@
       <c r="BJ25" s="27"/>
       <c r="BK25" s="27"/>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="64" t="s">
         <v>64</v>
@@ -6004,7 +6287,7 @@
       <c r="BJ26" s="27"/>
       <c r="BK26" s="27"/>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="64" t="s">
         <v>31</v>
@@ -6077,7 +6360,7 @@
       <c r="BJ27" s="27"/>
       <c r="BK27" s="27"/>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="56" t="s">
         <v>39</v>
@@ -6144,7 +6427,7 @@
       <c r="BJ28" s="27"/>
       <c r="BK28" s="27"/>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="54" t="s">
         <v>40</v>
@@ -6219,7 +6502,7 @@
       <c r="BJ29" s="27"/>
       <c r="BK29" s="27"/>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="65" t="s">
         <v>41</v>
@@ -6288,7 +6571,7 @@
       <c r="BJ30" s="27"/>
       <c r="BK30" s="27"/>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="51" t="s">
         <v>42</v>
@@ -6357,7 +6640,7 @@
       <c r="BJ31" s="27"/>
       <c r="BK31" s="27"/>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="57" t="s">
         <v>43</v>
@@ -6424,7 +6707,7 @@
       <c r="BJ32" s="27"/>
       <c r="BK32" s="27"/>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="50" t="s">
         <v>44</v>
@@ -6493,7 +6776,7 @@
       <c r="BJ33" s="27"/>
       <c r="BK33" s="27"/>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="50" t="s">
         <v>45</v>
@@ -6562,7 +6845,7 @@
       <c r="BJ34" s="27"/>
       <c r="BK34" s="27"/>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="51" t="s">
         <v>47</v>
@@ -6631,7 +6914,7 @@
       <c r="BJ35" s="27"/>
       <c r="BK35" s="27"/>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="64" t="s">
         <v>49</v>
@@ -6700,7 +6983,7 @@
       <c r="BJ36" s="27"/>
       <c r="BK36" s="27"/>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="51" t="s">
         <v>48</v>
@@ -6769,7 +7052,7 @@
       <c r="BJ37" s="27"/>
       <c r="BK37" s="27"/>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="51" t="s">
         <v>46</v>
@@ -6838,7 +7121,7 @@
       <c r="BJ38" s="27"/>
       <c r="BK38" s="27"/>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="50" t="s">
         <v>44</v>
@@ -6907,7 +7190,7 @@
       <c r="BJ39" s="27"/>
       <c r="BK39" s="27"/>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="58" t="s">
         <v>50</v>
@@ -7144,7 +7427,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="60" t="s">
         <v>51</v>
@@ -7381,7 +7664,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="59" t="s">
         <v>52</v>
       </c>
@@ -7393,7 +7676,7 @@
       <c r="F42" s="44"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>8</v>
       </c>
@@ -7407,7 +7690,7 @@
       <c r="E43" s="24"/>
       <c r="F43" s="44"/>
     </row>
-    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="66" t="s">
         <v>60</v>
       </c>
@@ -7424,11 +7707,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
     </row>
   </sheetData>
@@ -7439,7 +7722,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D43">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7452,23 +7735,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK40">
-    <cfRule type="expression" dxfId="5" priority="82">
+  <conditionalFormatting sqref="H23:BK40 H22:W22 Y22:BK22 H8:BK21">
+    <cfRule type="expression" dxfId="20" priority="83">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK22">
-    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="H22:W22 Z22 AB22:AD22 H21:AN21 AH22:AO22 AP21 AR20:BK21 AS22:BK22 AQ22 H7:BK19 H20:AQ20">
+    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7482,22 +7765,97 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:BK41">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:BK23">
-    <cfRule type="expression" dxfId="1" priority="95" stopIfTrue="1">
-      <formula>AND(H$5&gt;=$E24+1,H$5&lt;=$E24+$F24-2)</formula>
+  <conditionalFormatting sqref="H23:Y23 AA23 AD23:AK23 AM23 AO22 AP23 AR23:BK23">
+    <cfRule type="expression" dxfId="16" priority="96" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E23+1,H$5&lt;=$E23+$F23-2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:BK41">
-    <cfRule type="expression" dxfId="0" priority="103" stopIfTrue="1">
+  <conditionalFormatting sqref="H24:AC24 AE24:AG24 AI24:AJ24 AL24:AM24 H25:BK41 AO24:BK24">
+    <cfRule type="expression" dxfId="15" priority="104" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E27+1,H$5&lt;=$E27+$F27-2)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X22:Y22 Z23 AA22 AB23:AC23 AD24 AE22:AG22 AH24">
+    <cfRule type="expression" dxfId="14" priority="106">
+      <formula>W$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22:Y22 AA22 AE22:AG22">
+    <cfRule type="expression" dxfId="13" priority="108" stopIfTrue="1">
+      <formula>AND(W$5&gt;=$E20+1,W$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23 AB23:AC23">
+    <cfRule type="expression" dxfId="12" priority="113" stopIfTrue="1">
+      <formula>AND(Y$5&gt;=$E20+1,Y$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD24 AH24">
+    <cfRule type="expression" dxfId="11" priority="118" stopIfTrue="1">
+      <formula>AND(AC$5&gt;=$E20+1,AC$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24 AL23 AN24 AO21">
+    <cfRule type="expression" dxfId="10" priority="120">
+      <formula>AH$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24 AN24">
+    <cfRule type="expression" dxfId="9" priority="123" stopIfTrue="1">
+      <formula>AND(AH$5&gt;=$E20+1,AH$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23">
+    <cfRule type="expression" dxfId="8" priority="128" stopIfTrue="1">
+      <formula>AND(AI$5&gt;=$E20+1,AI$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN23">
+    <cfRule type="expression" dxfId="7" priority="130">
+      <formula>AJ$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN23">
+    <cfRule type="expression" dxfId="6" priority="133" stopIfTrue="1">
+      <formula>AND(AJ$5&gt;=$E20+1,AJ$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO21">
+    <cfRule type="expression" dxfId="5" priority="138" stopIfTrue="1">
+      <formula>AND(AL$5&gt;=$E20+1,AL$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23 AP22 AQ23 AR22">
+    <cfRule type="expression" dxfId="4" priority="140">
+      <formula>AM$5&lt;=Aujourd’hui</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23 AQ23">
+    <cfRule type="expression" dxfId="3" priority="144" stopIfTrue="1">
+      <formula>AND(AM$5&gt;=$E20+1,AM$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22 AQ23 AR22">
+    <cfRule type="expression" dxfId="2" priority="150" stopIfTrue="1">
+      <formula>AND(AN$5&gt;=$E20+1,AN$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22">
+    <cfRule type="expression" dxfId="1" priority="155" stopIfTrue="1">
+      <formula>AND(AN$5&gt;=$E21+1,AN$5&lt;=$E21+$F21-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ21">
+    <cfRule type="expression" dxfId="0" priority="161" stopIfTrue="1">
+      <formula>AND(AQ$5&gt;=$E20+1,AQ$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7521,11 +7879,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>184150</xdr:colOff>
+                    <xdr:colOff>180975</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -7574,7 +7932,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
+          <x14:cfRule type="iconSet" priority="7" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
             <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7593,7 +7951,7 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="91" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="92" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7612,7 +7970,7 @@
           <xm:sqref>H7:BK40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{D1511172-ABAA-4E9C-9EAA-F8F9326885F2}">
+          <x14:cfRule type="iconSet" priority="5" id="{D1511172-ABAA-4E9C-9EAA-F8F9326885F2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7637,35 +7995,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C447FC-90AE-47B6-BB9F-257B43E9D3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1305,7 +1304,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1327,7 +1326,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -1871,12 +1870,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="firstRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -1980,11 +1979,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2027,8 +2026,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F44" totalsRowShown="0">
-  <autoFilter ref="B6:F44" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F44" totalsRowShown="0">
+  <autoFilter ref="B6:F44">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2036,11 +2035,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2313,30 +2312,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="63" width="3.5703125" customWidth="1"/>
-    <col min="68" max="69" width="10.28515625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" ht="50.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2348,7 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2372,7 +2371,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2392,7 @@
       <c r="L3" s="43"/>
       <c r="M3" s="42"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2488,7 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -3031,7 +3030,7 @@
       <c r="BJ7" s="37"/>
       <c r="BK7" s="37"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
@@ -3511,7 +3510,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="28" t="s">
         <v>22</v>
@@ -3754,7 +3753,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="62" t="s">
         <v>23</v>
@@ -3997,7 +3996,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="28" t="s">
         <v>38</v>
@@ -4240,7 +4239,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="62" t="s">
         <v>24</v>
@@ -4483,7 +4482,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="53" t="s">
         <v>37</v>
@@ -4718,7 +4717,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="62" t="s">
         <v>26</v>
@@ -4961,7 +4960,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="50" t="s">
         <v>27</v>
@@ -5204,7 +5203,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="50" t="s">
         <v>28</v>
@@ -5447,7 +5446,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="50" t="s">
         <v>29</v>
@@ -5690,7 +5689,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="50" t="s">
         <v>30</v>
@@ -5765,7 +5764,7 @@
       <c r="BJ19" s="27"/>
       <c r="BK19" s="27"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="63" t="s">
         <v>32</v>
@@ -5840,7 +5839,7 @@
       <c r="BJ20" s="27"/>
       <c r="BK20" s="27"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="51" t="s">
         <v>33</v>
@@ -5918,7 +5917,7 @@
       <c r="BJ21" s="27"/>
       <c r="BK21" s="27"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="51" t="s">
         <v>57</v>
@@ -5993,7 +5992,7 @@
       <c r="BJ22" s="27"/>
       <c r="BK22" s="27"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="51" t="s">
         <v>62</v>
@@ -6066,7 +6065,7 @@
       <c r="BJ23" s="27"/>
       <c r="BK23" s="27"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="64" t="s">
         <v>63</v>
@@ -6141,7 +6140,7 @@
       <c r="BJ24" s="27"/>
       <c r="BK24" s="27"/>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="64" t="s">
         <v>61</v>
@@ -6214,7 +6213,7 @@
       <c r="BJ25" s="27"/>
       <c r="BK25" s="27"/>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="64" t="s">
         <v>64</v>
@@ -6287,7 +6286,7 @@
       <c r="BJ26" s="27"/>
       <c r="BK26" s="27"/>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="64" t="s">
         <v>31</v>
@@ -6360,7 +6359,7 @@
       <c r="BJ27" s="27"/>
       <c r="BK27" s="27"/>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="56" t="s">
         <v>39</v>
@@ -6427,7 +6426,7 @@
       <c r="BJ28" s="27"/>
       <c r="BK28" s="27"/>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="54" t="s">
         <v>40</v>
@@ -6502,7 +6501,7 @@
       <c r="BJ29" s="27"/>
       <c r="BK29" s="27"/>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="65" t="s">
         <v>41</v>
@@ -6571,7 +6570,7 @@
       <c r="BJ30" s="27"/>
       <c r="BK30" s="27"/>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="51" t="s">
         <v>42</v>
@@ -6640,7 +6639,7 @@
       <c r="BJ31" s="27"/>
       <c r="BK31" s="27"/>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="57" t="s">
         <v>43</v>
@@ -6707,7 +6706,7 @@
       <c r="BJ32" s="27"/>
       <c r="BK32" s="27"/>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="50" t="s">
         <v>44</v>
@@ -6776,7 +6775,7 @@
       <c r="BJ33" s="27"/>
       <c r="BK33" s="27"/>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="50" t="s">
         <v>45</v>
@@ -6845,7 +6844,7 @@
       <c r="BJ34" s="27"/>
       <c r="BK34" s="27"/>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="51" t="s">
         <v>47</v>
@@ -6914,7 +6913,7 @@
       <c r="BJ35" s="27"/>
       <c r="BK35" s="27"/>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="64" t="s">
         <v>49</v>
@@ -6983,7 +6982,7 @@
       <c r="BJ36" s="27"/>
       <c r="BK36" s="27"/>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="51" t="s">
         <v>48</v>
@@ -7052,7 +7051,7 @@
       <c r="BJ37" s="27"/>
       <c r="BK37" s="27"/>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="51" t="s">
         <v>46</v>
@@ -7121,7 +7120,7 @@
       <c r="BJ38" s="27"/>
       <c r="BK38" s="27"/>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="50" t="s">
         <v>44</v>
@@ -7190,7 +7189,7 @@
       <c r="BJ39" s="27"/>
       <c r="BK39" s="27"/>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="58" t="s">
         <v>50</v>
@@ -7427,7 +7426,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="60" t="s">
         <v>51</v>
@@ -7664,7 +7663,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="59" t="s">
         <v>52</v>
       </c>
@@ -7676,7 +7675,7 @@
       <c r="F42" s="44"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>8</v>
       </c>
@@ -7690,7 +7689,7 @@
       <c r="E43" s="24"/>
       <c r="F43" s="44"/>
     </row>
-    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="66" t="s">
         <v>60</v>
       </c>
@@ -7707,11 +7706,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="5"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="6"/>
     </row>
   </sheetData>
@@ -7855,7 +7854,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7879,11 +7878,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -7995,35 +7994,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -1328,7 +1328,28 @@
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1871,20 +1892,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
-      <tableStyleElement type="lastColumn" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="lastColumn" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2318,8 +2339,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="L22" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BF30" sqref="BF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6001,9 +6022,11 @@
         <v>56</v>
       </c>
       <c r="D23" s="23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="24">
+        <v>44131</v>
+      </c>
       <c r="F23" s="44">
         <v>0</v>
       </c>
@@ -6506,12 +6529,18 @@
       <c r="B30" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="D30" s="23">
-        <v>0</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="24">
+        <v>44131</v>
+      </c>
+      <c r="F30" s="44">
+        <v>1</v>
+      </c>
       <c r="G30" s="19"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -6563,7 +6592,10 @@
       <c r="BC30" s="27"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="27"/>
-      <c r="BF30" s="27"/>
+      <c r="BF30" s="27">
+        <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
+        <v>1</v>
+      </c>
       <c r="BG30" s="27"/>
       <c r="BH30" s="27"/>
       <c r="BI30" s="27"/>
@@ -7721,7 +7753,7 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D43">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7734,23 +7766,23 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:BK40 H22:W22 Y22:BK22 H8:BK21">
-    <cfRule type="expression" dxfId="20" priority="83">
+  <conditionalFormatting sqref="H22:W22 Y22:BK22 H8:BK21 H23:BK40">
+    <cfRule type="expression" dxfId="21" priority="84">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:W22 Z22 AB22:AD22 H21:AN21 AH22:AO22 AP21 AR20:BK21 AS22:BK22 AQ22 H7:BK19 H20:AQ20">
-    <cfRule type="expression" dxfId="19" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7764,93 +7796,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:BK41">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:Y23 AA23 AD23:AK23 AM23 AO22 AP23 AR23:BK23">
-    <cfRule type="expression" dxfId="16" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="97" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E23+1,H$5&lt;=$E23+$F23-2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:AC24 AE24:AG24 AI24:AJ24 AL24:AM24 H25:BK41 AO24:BK24">
-    <cfRule type="expression" dxfId="15" priority="104" stopIfTrue="1">
+  <conditionalFormatting sqref="H24:AC24 AE24:AG24 AI24:AJ24 AL24:AM24 AO24:BK24 H25:BK41">
+    <cfRule type="expression" dxfId="16" priority="105" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E27+1,H$5&lt;=$E27+$F27-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:Y22 Z23 AA22 AB23:AC23 AD24 AE22:AG22 AH24">
-    <cfRule type="expression" dxfId="14" priority="106">
+    <cfRule type="expression" dxfId="15" priority="107">
       <formula>W$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:Y22 AA22 AE22:AG22">
-    <cfRule type="expression" dxfId="13" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="109" stopIfTrue="1">
       <formula>AND(W$5&gt;=$E20+1,W$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23 AB23:AC23">
-    <cfRule type="expression" dxfId="12" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="114" stopIfTrue="1">
       <formula>AND(Y$5&gt;=$E20+1,Y$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24 AH24">
-    <cfRule type="expression" dxfId="11" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="119" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E20+1,AC$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24 AL23 AN24 AO21">
-    <cfRule type="expression" dxfId="10" priority="120">
+    <cfRule type="expression" dxfId="11" priority="121">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24 AN24">
-    <cfRule type="expression" dxfId="9" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="124" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E20+1,AH$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL23">
-    <cfRule type="expression" dxfId="8" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="129" stopIfTrue="1">
       <formula>AND(AI$5&gt;=$E20+1,AI$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN23">
-    <cfRule type="expression" dxfId="7" priority="130">
+    <cfRule type="expression" dxfId="8" priority="131">
       <formula>AJ$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN23">
-    <cfRule type="expression" dxfId="6" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="134" stopIfTrue="1">
       <formula>AND(AJ$5&gt;=$E20+1,AJ$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO21">
-    <cfRule type="expression" dxfId="5" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="139" stopIfTrue="1">
       <formula>AND(AL$5&gt;=$E20+1,AL$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23 AP22 AQ23 AR22">
-    <cfRule type="expression" dxfId="4" priority="140">
+    <cfRule type="expression" dxfId="5" priority="141">
       <formula>AM$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23 AQ23">
-    <cfRule type="expression" dxfId="3" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="145" stopIfTrue="1">
       <formula>AND(AM$5&gt;=$E20+1,AM$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22 AQ23 AR22">
-    <cfRule type="expression" dxfId="2" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="151" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E20+1,AN$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="1" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="156" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E21+1,AN$5&lt;=$E21+$F21-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ21">
-    <cfRule type="expression" dxfId="0" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="162" stopIfTrue="1">
       <formula>AND(AQ$5&gt;=$E20+1,AQ$5&lt;=$E20+$F20-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF30">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND(BF$5&gt;=$E30+1,BF$5&lt;=$E30+$F30-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -7931,7 +7968,7 @@
           <xm:sqref>D44</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
+          <x14:cfRule type="iconSet" priority="8" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
             <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7950,7 +7987,7 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="92" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="93" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7969,7 +8006,7 @@
           <xm:sqref>H7:BK40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{D1511172-ABAA-4E9C-9EAA-F8F9326885F2}">
+          <x14:cfRule type="iconSet" priority="6" id="{D1511172-ABAA-4E9C-9EAA-F8F9326885F2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1988,7 +1988,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="25"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2339,8 +2339,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="L22" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BF30" sqref="BF30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="43"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="H4" s="17" t="str">
         <f ca="1">TEXT(H5,"mmmm")</f>
-        <v>septembre</v>
+        <v>octobre</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2470,7 +2470,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v>octobre</v>
+        <v/>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -2480,7 +2480,7 @@
       <c r="AP4" s="17"/>
       <c r="AQ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AQ5,"mmmm")=AJ4,TEXT(AQ5,"mmmm")=AC4,TEXT(AQ5,"mmmm")=V4,TEXT(AQ5,"mmmm")=O4),"",TEXT(AQ5,"mmmm"))</f>
-        <v/>
+        <v>novembre</v>
       </c>
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
@@ -2517,227 +2517,227 @@
       <c r="G5" s="31"/>
       <c r="H5" s="45">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44081</v>
+        <v>44106</v>
       </c>
       <c r="I5" s="46">
         <f ca="1">H5+1</f>
-        <v>44082</v>
+        <v>44107</v>
       </c>
       <c r="J5" s="47">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44083</v>
+        <v>44108</v>
       </c>
       <c r="K5" s="47">
         <f ca="1">J5+1</f>
-        <v>44084</v>
+        <v>44109</v>
       </c>
       <c r="L5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44085</v>
+        <v>44110</v>
       </c>
       <c r="M5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44086</v>
+        <v>44111</v>
       </c>
       <c r="N5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44087</v>
+        <v>44112</v>
       </c>
       <c r="O5" s="47">
         <f ca="1">N5+1</f>
-        <v>44088</v>
+        <v>44113</v>
       </c>
       <c r="P5" s="47">
         <f ca="1">O5+1</f>
-        <v>44089</v>
+        <v>44114</v>
       </c>
       <c r="Q5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44090</v>
+        <v>44115</v>
       </c>
       <c r="R5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44091</v>
+        <v>44116</v>
       </c>
       <c r="S5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44092</v>
+        <v>44117</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44093</v>
+        <v>44118</v>
       </c>
       <c r="U5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44094</v>
+        <v>44119</v>
       </c>
       <c r="V5" s="47">
         <f ca="1">U5+1</f>
-        <v>44095</v>
+        <v>44120</v>
       </c>
       <c r="W5" s="47">
         <f ca="1">V5+1</f>
-        <v>44096</v>
+        <v>44121</v>
       </c>
       <c r="X5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44097</v>
+        <v>44122</v>
       </c>
       <c r="Y5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44098</v>
+        <v>44123</v>
       </c>
       <c r="Z5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44099</v>
+        <v>44124</v>
       </c>
       <c r="AA5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44100</v>
+        <v>44125</v>
       </c>
       <c r="AB5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44101</v>
+        <v>44126</v>
       </c>
       <c r="AC5" s="47">
         <f ca="1">AB5+1</f>
-        <v>44102</v>
+        <v>44127</v>
       </c>
       <c r="AD5" s="47">
         <f ca="1">AC5+1</f>
-        <v>44103</v>
+        <v>44128</v>
       </c>
       <c r="AE5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44104</v>
+        <v>44129</v>
       </c>
       <c r="AF5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44105</v>
+        <v>44130</v>
       </c>
       <c r="AG5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44106</v>
+        <v>44131</v>
       </c>
       <c r="AH5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44107</v>
+        <v>44132</v>
       </c>
       <c r="AI5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44108</v>
+        <v>44133</v>
       </c>
       <c r="AJ5" s="47">
         <f ca="1">AI5+1</f>
-        <v>44109</v>
+        <v>44134</v>
       </c>
       <c r="AK5" s="47">
         <f ca="1">AJ5+1</f>
-        <v>44110</v>
+        <v>44135</v>
       </c>
       <c r="AL5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44111</v>
+        <v>44136</v>
       </c>
       <c r="AM5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44112</v>
+        <v>44137</v>
       </c>
       <c r="AN5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44113</v>
+        <v>44138</v>
       </c>
       <c r="AO5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44114</v>
+        <v>44139</v>
       </c>
       <c r="AP5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44115</v>
+        <v>44140</v>
       </c>
       <c r="AQ5" s="47">
         <f ca="1">AP5+1</f>
-        <v>44116</v>
+        <v>44141</v>
       </c>
       <c r="AR5" s="47">
         <f ca="1">AQ5+1</f>
-        <v>44117</v>
+        <v>44142</v>
       </c>
       <c r="AS5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44118</v>
+        <v>44143</v>
       </c>
       <c r="AT5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44119</v>
+        <v>44144</v>
       </c>
       <c r="AU5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44120</v>
+        <v>44145</v>
       </c>
       <c r="AV5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44121</v>
+        <v>44146</v>
       </c>
       <c r="AW5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44122</v>
+        <v>44147</v>
       </c>
       <c r="AX5" s="47">
         <f ca="1">AW5+1</f>
-        <v>44123</v>
+        <v>44148</v>
       </c>
       <c r="AY5" s="47">
         <f ca="1">AX5+1</f>
-        <v>44124</v>
+        <v>44149</v>
       </c>
       <c r="AZ5" s="47">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44125</v>
+        <v>44150</v>
       </c>
       <c r="BA5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44126</v>
+        <v>44151</v>
       </c>
       <c r="BB5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44127</v>
+        <v>44152</v>
       </c>
       <c r="BC5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44128</v>
+        <v>44153</v>
       </c>
       <c r="BD5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44129</v>
+        <v>44154</v>
       </c>
       <c r="BE5" s="47">
         <f ca="1">BD5+1</f>
-        <v>44130</v>
+        <v>44155</v>
       </c>
       <c r="BF5" s="47">
         <f ca="1">BE5+1</f>
-        <v>44131</v>
+        <v>44156</v>
       </c>
       <c r="BG5" s="47">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44132</v>
+        <v>44157</v>
       </c>
       <c r="BH5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44133</v>
+        <v>44158</v>
       </c>
       <c r="BI5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44134</v>
+        <v>44159</v>
       </c>
       <c r="BJ5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44135</v>
+        <v>44160</v>
       </c>
       <c r="BK5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44136</v>
+        <v>44161</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2762,227 +2762,227 @@
       <c r="G6" s="20"/>
       <c r="H6" s="38" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="I6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="J6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="K6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="L6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="M6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="N6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="O6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="P6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="Q6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="R6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="S6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="T6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="U6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="V6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="W6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="X6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="Y6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="Z6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AA6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AB6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AC6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AD6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AE6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AF6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AG6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AH6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AI6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AJ6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AK6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AL6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AM6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AN6" s="40" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AO6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AP6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AQ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AR6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AS6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AT6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AU6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AV6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AW6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AX6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AY6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AZ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BA6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BB6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BC6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BD6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BE6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BF6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BG6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BH6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BI6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BJ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BK6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3549,9 +3549,9 @@
         <v>1</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="27">
+      <c r="H10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I10" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
@@ -3792,9 +3792,9 @@
         <v>1</v>
       </c>
       <c r="G11" s="19"/>
-      <c r="H11" s="27">
+      <c r="H11" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I11" s="49" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
@@ -5298,9 +5298,9 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W17" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E17,$F17=1),Marqueur_Jalon,"")),"")</f>
@@ -5476,13 +5476,13 @@
         <v>54</v>
       </c>
       <c r="D18" s="23">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E18" s="24">
-        <v>44095</v>
+        <v>44117</v>
       </c>
       <c r="F18" s="44">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="27" t="str">
@@ -6028,7 +6028,7 @@
         <v>44131</v>
       </c>
       <c r="F23" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="27"/>
@@ -6458,7 +6458,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E29" s="24">
         <v>44095</v>
@@ -6533,7 +6533,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="23">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E30" s="24">
         <v>44131</v>
@@ -6592,9 +6592,9 @@
       <c r="BC30" s="27"/>
       <c r="BD30" s="27"/>
       <c r="BE30" s="27"/>
-      <c r="BF30" s="27">
+      <c r="BF30" s="27" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E30,$F30=1),Marqueur_Jalon,"")),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="BG30" s="27"/>
       <c r="BH30" s="27"/>
@@ -7890,7 +7890,7 @@
       <formula>AND(BF$5&gt;=$E30+1,BF$5&lt;=$E30+$F30-2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -230,16 +230,10 @@
     <t>Connexion sécurisée</t>
   </si>
   <si>
-    <t>AMINE &amp; QUENTIN</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AMINE</t>
   </si>
   <si>
     <t>BONUS : Envoi de mail automatique après inscription</t>
-  </si>
-  <si>
-    <t>Création page "Annonces"</t>
   </si>
   <si>
     <t>Rédaction de la documentation Développeur</t>
@@ -249,6 +243,9 @@
   </si>
   <si>
     <t>Création de la page "Contact"</t>
+  </si>
+  <si>
+    <t>Création page "Offres d'emploi"</t>
   </si>
 </sst>
 </file>
@@ -2339,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5875,7 +5872,7 @@
         <v>44095</v>
       </c>
       <c r="F21" s="44">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="27"/>
@@ -6016,7 +6013,7 @@
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>56</v>
@@ -6091,19 +6088,19 @@
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="24">
         <v>44116</v>
       </c>
       <c r="F24" s="44">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="27"/>
@@ -6166,17 +6163,19 @@
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="23">
-        <v>0</v>
-      </c>
-      <c r="E25" s="24"/>
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="24">
+        <v>44131</v>
+      </c>
       <c r="F25" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>
@@ -6239,17 +6238,19 @@
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44131</v>
+      </c>
       <c r="F26" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="27"/>
@@ -6455,7 +6456,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="23">
         <v>0.8</v>
@@ -6530,7 +6531,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="23">
         <v>0.6</v>
@@ -7723,7 +7724,7 @@
     </row>
     <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>55</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1985,7 +1985,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="25"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="30"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2336,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="35">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="43"/>
@@ -2467,7 +2467,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v/>
+        <v>novembre</v>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -2477,7 +2477,7 @@
       <c r="AP4" s="17"/>
       <c r="AQ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AQ5,"mmmm")=AJ4,TEXT(AQ5,"mmmm")=AC4,TEXT(AQ5,"mmmm")=V4,TEXT(AQ5,"mmmm")=O4),"",TEXT(AQ5,"mmmm"))</f>
-        <v>novembre</v>
+        <v/>
       </c>
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
@@ -2514,227 +2514,227 @@
       <c r="G5" s="31"/>
       <c r="H5" s="45">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44106</v>
+        <v>44111</v>
       </c>
       <c r="I5" s="46">
         <f ca="1">H5+1</f>
-        <v>44107</v>
+        <v>44112</v>
       </c>
       <c r="J5" s="47">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44108</v>
+        <v>44113</v>
       </c>
       <c r="K5" s="47">
         <f ca="1">J5+1</f>
-        <v>44109</v>
+        <v>44114</v>
       </c>
       <c r="L5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44110</v>
+        <v>44115</v>
       </c>
       <c r="M5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44111</v>
+        <v>44116</v>
       </c>
       <c r="N5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="O5" s="47">
         <f ca="1">N5+1</f>
-        <v>44113</v>
+        <v>44118</v>
       </c>
       <c r="P5" s="47">
         <f ca="1">O5+1</f>
-        <v>44114</v>
+        <v>44119</v>
       </c>
       <c r="Q5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44115</v>
+        <v>44120</v>
       </c>
       <c r="R5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44116</v>
+        <v>44121</v>
       </c>
       <c r="S5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44117</v>
+        <v>44122</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44118</v>
+        <v>44123</v>
       </c>
       <c r="U5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44119</v>
+        <v>44124</v>
       </c>
       <c r="V5" s="47">
         <f ca="1">U5+1</f>
-        <v>44120</v>
+        <v>44125</v>
       </c>
       <c r="W5" s="47">
         <f ca="1">V5+1</f>
-        <v>44121</v>
+        <v>44126</v>
       </c>
       <c r="X5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44122</v>
+        <v>44127</v>
       </c>
       <c r="Y5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44123</v>
+        <v>44128</v>
       </c>
       <c r="Z5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44124</v>
+        <v>44129</v>
       </c>
       <c r="AA5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44125</v>
+        <v>44130</v>
       </c>
       <c r="AB5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44126</v>
+        <v>44131</v>
       </c>
       <c r="AC5" s="47">
         <f ca="1">AB5+1</f>
-        <v>44127</v>
+        <v>44132</v>
       </c>
       <c r="AD5" s="47">
         <f ca="1">AC5+1</f>
-        <v>44128</v>
+        <v>44133</v>
       </c>
       <c r="AE5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44129</v>
+        <v>44134</v>
       </c>
       <c r="AF5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44130</v>
+        <v>44135</v>
       </c>
       <c r="AG5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44131</v>
+        <v>44136</v>
       </c>
       <c r="AH5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44132</v>
+        <v>44137</v>
       </c>
       <c r="AI5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44133</v>
+        <v>44138</v>
       </c>
       <c r="AJ5" s="47">
         <f ca="1">AI5+1</f>
-        <v>44134</v>
+        <v>44139</v>
       </c>
       <c r="AK5" s="47">
         <f ca="1">AJ5+1</f>
-        <v>44135</v>
+        <v>44140</v>
       </c>
       <c r="AL5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44136</v>
+        <v>44141</v>
       </c>
       <c r="AM5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44137</v>
+        <v>44142</v>
       </c>
       <c r="AN5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44138</v>
+        <v>44143</v>
       </c>
       <c r="AO5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="AP5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44140</v>
+        <v>44145</v>
       </c>
       <c r="AQ5" s="47">
         <f ca="1">AP5+1</f>
-        <v>44141</v>
+        <v>44146</v>
       </c>
       <c r="AR5" s="47">
         <f ca="1">AQ5+1</f>
-        <v>44142</v>
+        <v>44147</v>
       </c>
       <c r="AS5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44143</v>
+        <v>44148</v>
       </c>
       <c r="AT5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44149</v>
       </c>
       <c r="AU5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44145</v>
+        <v>44150</v>
       </c>
       <c r="AV5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44146</v>
+        <v>44151</v>
       </c>
       <c r="AW5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44147</v>
+        <v>44152</v>
       </c>
       <c r="AX5" s="47">
         <f ca="1">AW5+1</f>
-        <v>44148</v>
+        <v>44153</v>
       </c>
       <c r="AY5" s="47">
         <f ca="1">AX5+1</f>
-        <v>44149</v>
+        <v>44154</v>
       </c>
       <c r="AZ5" s="47">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44150</v>
+        <v>44155</v>
       </c>
       <c r="BA5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44151</v>
+        <v>44156</v>
       </c>
       <c r="BB5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44152</v>
+        <v>44157</v>
       </c>
       <c r="BC5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44153</v>
+        <v>44158</v>
       </c>
       <c r="BD5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44154</v>
+        <v>44159</v>
       </c>
       <c r="BE5" s="47">
         <f ca="1">BD5+1</f>
-        <v>44155</v>
+        <v>44160</v>
       </c>
       <c r="BF5" s="47">
         <f ca="1">BE5+1</f>
-        <v>44156</v>
+        <v>44161</v>
       </c>
       <c r="BG5" s="47">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44157</v>
+        <v>44162</v>
       </c>
       <c r="BH5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44158</v>
+        <v>44163</v>
       </c>
       <c r="BI5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44159</v>
+        <v>44164</v>
       </c>
       <c r="BJ5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44160</v>
+        <v>44165</v>
       </c>
       <c r="BK5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44161</v>
+        <v>44166</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2759,227 +2759,227 @@
       <c r="G6" s="20"/>
       <c r="H6" s="38" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="I6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="J6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="K6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>s</v>
       </c>
       <c r="L6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="M6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="N6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="O6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="P6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="Q6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="R6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>s</v>
       </c>
       <c r="S6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="T6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="U6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="V6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="W6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="X6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="Y6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>s</v>
       </c>
       <c r="Z6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AA6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AB6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AC6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AD6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AE6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="AF6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>s</v>
       </c>
       <c r="AG6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AH6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AI6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AJ6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AK6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AL6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="AM6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>s</v>
       </c>
       <c r="AN6" s="40" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AO6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AP6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AQ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AR6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AS6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="AT6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>s</v>
       </c>
       <c r="AU6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AV6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AW6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AX6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AY6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AZ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="BA6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>s</v>
       </c>
       <c r="BB6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BC6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BD6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BE6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BF6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="BG6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>v</v>
       </c>
       <c r="BH6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>s</v>
       </c>
       <c r="BI6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BJ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BK6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>m</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5473,7 +5473,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E18" s="24">
         <v>44117</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2336,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7730,7 +7730,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E44" s="24">
         <v>44109</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2336,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6019,13 +6019,13 @@
         <v>56</v>
       </c>
       <c r="D23" s="23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E23" s="24">
         <v>44131</v>
       </c>
       <c r="F23" s="44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="27"/>
@@ -6459,7 +6459,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="23">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E29" s="24">
         <v>44095</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -185,9 +185,6 @@
     <t xml:space="preserve">Rédaction de la documentation </t>
   </si>
   <si>
-    <t>Création du panel administrateur</t>
-  </si>
-  <si>
     <t>Prototypage de la vue administrateur</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>Création page "Offres d'emploi"</t>
+  </si>
+  <si>
+    <t>Création du panel administrateur (Voir datatables en jQuery)</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +1985,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="30"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="27"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2336,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="35">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="43"/>
@@ -2514,227 +2514,227 @@
       <c r="G5" s="31"/>
       <c r="H5" s="45">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
-        <v>44111</v>
+        <v>44108</v>
       </c>
       <c r="I5" s="46">
         <f ca="1">H5+1</f>
-        <v>44112</v>
+        <v>44109</v>
       </c>
       <c r="J5" s="47">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
-        <v>44113</v>
+        <v>44110</v>
       </c>
       <c r="K5" s="47">
         <f ca="1">J5+1</f>
-        <v>44114</v>
+        <v>44111</v>
       </c>
       <c r="L5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44115</v>
+        <v>44112</v>
       </c>
       <c r="M5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44116</v>
+        <v>44113</v>
       </c>
       <c r="N5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44117</v>
+        <v>44114</v>
       </c>
       <c r="O5" s="47">
         <f ca="1">N5+1</f>
-        <v>44118</v>
+        <v>44115</v>
       </c>
       <c r="P5" s="47">
         <f ca="1">O5+1</f>
-        <v>44119</v>
+        <v>44116</v>
       </c>
       <c r="Q5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44120</v>
+        <v>44117</v>
       </c>
       <c r="R5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44121</v>
+        <v>44118</v>
       </c>
       <c r="S5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44122</v>
+        <v>44119</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44123</v>
+        <v>44120</v>
       </c>
       <c r="U5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44124</v>
+        <v>44121</v>
       </c>
       <c r="V5" s="47">
         <f ca="1">U5+1</f>
-        <v>44125</v>
+        <v>44122</v>
       </c>
       <c r="W5" s="47">
         <f ca="1">V5+1</f>
-        <v>44126</v>
+        <v>44123</v>
       </c>
       <c r="X5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44127</v>
+        <v>44124</v>
       </c>
       <c r="Y5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44128</v>
+        <v>44125</v>
       </c>
       <c r="Z5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44129</v>
+        <v>44126</v>
       </c>
       <c r="AA5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44130</v>
+        <v>44127</v>
       </c>
       <c r="AB5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44131</v>
+        <v>44128</v>
       </c>
       <c r="AC5" s="47">
         <f ca="1">AB5+1</f>
-        <v>44132</v>
+        <v>44129</v>
       </c>
       <c r="AD5" s="47">
         <f ca="1">AC5+1</f>
-        <v>44133</v>
+        <v>44130</v>
       </c>
       <c r="AE5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44134</v>
+        <v>44131</v>
       </c>
       <c r="AF5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44135</v>
+        <v>44132</v>
       </c>
       <c r="AG5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44136</v>
+        <v>44133</v>
       </c>
       <c r="AH5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44137</v>
+        <v>44134</v>
       </c>
       <c r="AI5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44138</v>
+        <v>44135</v>
       </c>
       <c r="AJ5" s="47">
         <f ca="1">AI5+1</f>
-        <v>44139</v>
+        <v>44136</v>
       </c>
       <c r="AK5" s="47">
         <f ca="1">AJ5+1</f>
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="AL5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="AM5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44142</v>
+        <v>44139</v>
       </c>
       <c r="AN5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44143</v>
+        <v>44140</v>
       </c>
       <c r="AO5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44144</v>
+        <v>44141</v>
       </c>
       <c r="AP5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44145</v>
+        <v>44142</v>
       </c>
       <c r="AQ5" s="47">
         <f ca="1">AP5+1</f>
-        <v>44146</v>
+        <v>44143</v>
       </c>
       <c r="AR5" s="47">
         <f ca="1">AQ5+1</f>
-        <v>44147</v>
+        <v>44144</v>
       </c>
       <c r="AS5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44148</v>
+        <v>44145</v>
       </c>
       <c r="AT5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44149</v>
+        <v>44146</v>
       </c>
       <c r="AU5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44150</v>
+        <v>44147</v>
       </c>
       <c r="AV5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="AW5" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>44152</v>
+        <v>44149</v>
       </c>
       <c r="AX5" s="47">
         <f ca="1">AW5+1</f>
-        <v>44153</v>
+        <v>44150</v>
       </c>
       <c r="AY5" s="47">
         <f ca="1">AX5+1</f>
-        <v>44154</v>
+        <v>44151</v>
       </c>
       <c r="AZ5" s="47">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
-        <v>44155</v>
+        <v>44152</v>
       </c>
       <c r="BA5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44156</v>
+        <v>44153</v>
       </c>
       <c r="BB5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="BC5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44158</v>
+        <v>44155</v>
       </c>
       <c r="BD5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44159</v>
+        <v>44156</v>
       </c>
       <c r="BE5" s="47">
         <f ca="1">BD5+1</f>
-        <v>44160</v>
+        <v>44157</v>
       </c>
       <c r="BF5" s="47">
         <f ca="1">BE5+1</f>
-        <v>44161</v>
+        <v>44158</v>
       </c>
       <c r="BG5" s="47">
         <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="BH5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44163</v>
+        <v>44160</v>
       </c>
       <c r="BI5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44164</v>
+        <v>44161</v>
       </c>
       <c r="BJ5" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44165</v>
+        <v>44162</v>
       </c>
       <c r="BK5" s="48">
         <f t="shared" ca="1" si="2"/>
-        <v>44166</v>
+        <v>44163</v>
       </c>
     </row>
     <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2759,227 +2759,227 @@
       <c r="G6" s="20"/>
       <c r="H6" s="38" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="I6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="J6" s="41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="K6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="L6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="M6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="N6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="O6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="P6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="Q6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="R6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="S6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="T6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="U6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="V6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="W6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="X6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="Y6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="Z6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AA6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AB6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AC6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AD6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AE6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AF6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AG6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AH6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AI6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AJ6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AK6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AL6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AM6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AN6" s="40" t="str">
         <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AO6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AP6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AQ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AR6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AS6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="AT6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="AU6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AV6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="AW6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="AX6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="AY6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="AZ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BA6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BB6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BC6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BD6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
       <c r="BE6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>d</v>
       </c>
       <c r="BF6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>j</v>
+        <v>l</v>
       </c>
       <c r="BG6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>v</v>
+        <v>m</v>
       </c>
       <c r="BH6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>s</v>
+        <v>m</v>
       </c>
       <c r="BI6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BJ6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="BK6" s="40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>m</v>
+        <v>s</v>
       </c>
     </row>
     <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3291,7 +3291,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="23">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="23">
         <v>1</v>
@@ -3777,7 +3777,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="23">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="23">
         <v>1</v>
@@ -4741,7 +4741,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="23">
         <v>1</v>
@@ -4984,7 +4984,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
@@ -5227,7 +5227,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="23">
         <v>1</v>
@@ -5470,7 +5470,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="23">
         <v>1</v>
@@ -5713,7 +5713,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="23">
         <v>1</v>
@@ -5788,7 +5788,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -5863,7 +5863,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
@@ -5938,10 +5938,10 @@
     <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
@@ -6013,19 +6013,19 @@
     <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E23" s="24">
         <v>44131</v>
       </c>
       <c r="F23" s="44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="27"/>
@@ -6088,10 +6088,10 @@
     <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="23">
         <v>0.6</v>
@@ -6163,10 +6163,10 @@
     <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="23">
         <v>0.8</v>
@@ -6238,10 +6238,10 @@
     <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="23">
         <v>1</v>
@@ -6316,7 +6316,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="23">
         <v>0</v>
@@ -6456,7 +6456,7 @@
         <v>40</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="23">
         <v>0.8</v>
@@ -6531,7 +6531,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="23">
         <v>0.6</v>
@@ -6675,7 +6675,7 @@
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
       <c r="B32" s="57" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="23"/>
@@ -6742,7 +6742,7 @@
     <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="23">
@@ -6811,7 +6811,7 @@
     <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="23">
@@ -6880,7 +6880,7 @@
     <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="23">
@@ -6949,7 +6949,7 @@
     <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="23">
@@ -7018,7 +7018,7 @@
     <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="23">
@@ -7087,7 +7087,7 @@
     <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="23">
@@ -7156,7 +7156,7 @@
     <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="23">
@@ -7225,7 +7225,7 @@
     <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="50"/>
       <c r="D40" s="23">
@@ -7462,7 +7462,7 @@
     <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="50"/>
       <c r="D41" s="23">
@@ -7698,7 +7698,7 @@
     </row>
     <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="58"/>
       <c r="D42" s="23">
@@ -7713,7 +7713,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="23">
@@ -7724,10 +7724,10 @@
     </row>
     <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="23">
         <v>1</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2336,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6534,7 +6534,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="23">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="24">
         <v>44131</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2336,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6534,7 +6534,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="23">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E30" s="24">
         <v>44131</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2336,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:BK46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6534,7 +6534,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="23">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E30" s="24">
         <v>44131</v>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="44"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Création page "Offres d'emploi"</t>
+  </si>
+  <si>
+    <t>AMINE &amp; QUENTIN</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1328,49 @@
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1889,20 +1934,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="firstColumn" dxfId="27"/>
-      <tableStyleElement type="lastColumn" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2044,8 +2089,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F44" totalsRowShown="0">
-  <autoFilter ref="B6:F44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F43" totalsRowShown="0">
+  <autoFilter ref="B6:F43">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2334,10 +2379,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6100,7 +6145,7 @@
         <v>44116</v>
       </c>
       <c r="F24" s="44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="27"/>
@@ -6175,7 +6220,7 @@
         <v>44131</v>
       </c>
       <c r="F25" s="44">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>
@@ -6319,11 +6364,13 @@
         <v>54</v>
       </c>
       <c r="D27" s="23">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="24">
+        <v>44144</v>
+      </c>
       <c r="F27" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="27"/>
@@ -6465,7 +6512,7 @@
         <v>44095</v>
       </c>
       <c r="F29" s="44">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="27"/>
@@ -6540,7 +6587,7 @@
         <v>44131</v>
       </c>
       <c r="F30" s="44">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="27"/>
@@ -6608,7 +6655,9 @@
       <c r="B31" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="D31" s="23">
         <v>0</v>
       </c>
@@ -6744,7 +6793,9 @@
       <c r="B33" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="D33" s="23">
         <v>0</v>
       </c>
@@ -6813,7 +6864,9 @@
       <c r="B34" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="D34" s="23">
         <v>0</v>
       </c>
@@ -6882,7 +6935,9 @@
       <c r="B35" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="D35" s="23">
         <v>0</v>
       </c>
@@ -6951,7 +7006,9 @@
       <c r="B36" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="D36" s="23">
         <v>0</v>
       </c>
@@ -7020,7 +7077,9 @@
       <c r="B37" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="D37" s="23">
         <v>0</v>
       </c>
@@ -7089,9 +7148,11 @@
       <c r="B38" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="D38" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="44"/>
@@ -7155,8 +7216,8 @@
     </row>
     <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
-      <c r="B39" s="50" t="s">
-        <v>44</v>
+      <c r="B39" s="58" t="s">
+        <v>50</v>
       </c>
       <c r="C39" s="50"/>
       <c r="D39" s="23">
@@ -7165,67 +7226,235 @@
       <c r="E39" s="24"/>
       <c r="F39" s="44"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="27"/>
-      <c r="AR39" s="27"/>
-      <c r="AS39" s="27"/>
-      <c r="AT39" s="27"/>
-      <c r="AU39" s="27"/>
-      <c r="AV39" s="27"/>
-      <c r="AW39" s="27"/>
-      <c r="AX39" s="27"/>
-      <c r="AY39" s="27"/>
-      <c r="AZ39" s="27"/>
-      <c r="BA39" s="27"/>
-      <c r="BB39" s="27"/>
-      <c r="BC39" s="27"/>
-      <c r="BD39" s="27"/>
-      <c r="BE39" s="27"/>
-      <c r="BF39" s="27"/>
-      <c r="BG39" s="27"/>
-      <c r="BH39" s="27"/>
-      <c r="BI39" s="27"/>
-      <c r="BJ39" s="27"/>
-      <c r="BK39" s="27"/>
+      <c r="H39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK39" s="27" t="str">
+        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
-      <c r="B40" s="58" t="s">
-        <v>50</v>
+      <c r="B40" s="60" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="50"/>
       <c r="D40" s="23">
@@ -7459,292 +7688,55 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
-      <c r="B41" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="50"/>
+    <row r="41" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="58"/>
       <c r="D41" s="23">
         <v>0</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="44"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Y$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Z$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AA$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AB$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AC$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AD$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AE$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AF$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AG$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AH$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AI$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AJ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AK$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AL$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AM$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AN$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AO$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AP$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AQ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AR$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AS$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AT$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AU$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AV$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AW$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AX$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AY$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(AZ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BA$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BB$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BC$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BD$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BE$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BF$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BG$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BH$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BI$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BJ$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK41" s="27" t="str">
-        <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(BK$5=$E44,$F44=1),Marqueur_Jalon,"")),"")</f>
-        <v/>
-      </c>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="58"/>
+      <c r="A42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="26"/>
       <c r="D42" s="23">
         <v>0</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="44"/>
-      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="26"/>
+      <c r="B43" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="D43" s="23">
-        <v>0</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="24">
+        <v>44109</v>
+      </c>
+      <c r="F43" s="44">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="23">
-        <v>1</v>
-      </c>
-      <c r="E44" s="24">
-        <v>44109</v>
-      </c>
-      <c r="F44" s="44">
-        <v>9</v>
-      </c>
+      <c r="C44" s="5"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="5"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="6"/>
+      <c r="C45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7753,7 +7745,7 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D43">
+  <conditionalFormatting sqref="D6:D42">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7767,22 +7759,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:W22 Y22:BK22 H8:BK21 H23:BK40">
-    <cfRule type="expression" dxfId="21" priority="84">
+  <conditionalFormatting sqref="H22:W22 Y22:BK22 H8:BK21 H23:BK39">
+    <cfRule type="expression" dxfId="23" priority="84">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:W22 Z22 AB22:AD22 H21:AN21 AH22:AO22 AP21 AR20:BK21 AS22:BK22 AQ22 H7:BK19 H20:AQ20">
-    <cfRule type="expression" dxfId="20" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
+  <conditionalFormatting sqref="D43">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7796,99 +7788,109 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:BK41">
-    <cfRule type="expression" dxfId="18" priority="5">
+  <conditionalFormatting sqref="H40:BK40">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:Y23 AA23 AD23:AK23 AM23 AO22 AP23 AR23:BK23">
-    <cfRule type="expression" dxfId="17" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="97" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E23+1,H$5&lt;=$E23+$F23-2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:AC24 AE24:AG24 AI24:AJ24 AL24:AM24 AO24:BK24 H25:BK41">
-    <cfRule type="expression" dxfId="16" priority="105" stopIfTrue="1">
+  <conditionalFormatting sqref="H24:AC24 AE24:AG24 AI24:AJ24 AL24:AM24 AO24:BK24 H25:BK35 H39:BK40">
+    <cfRule type="expression" dxfId="18" priority="105" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E27+1,H$5&lt;=$E27+$F27-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:Y22 Z23 AA22 AB23:AC23 AD24 AE22:AG22 AH24">
-    <cfRule type="expression" dxfId="15" priority="107">
+    <cfRule type="expression" dxfId="17" priority="107">
       <formula>W$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:Y22 AA22 AE22:AG22">
-    <cfRule type="expression" dxfId="14" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="109" stopIfTrue="1">
       <formula>AND(W$5&gt;=$E20+1,W$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23 AB23:AC23">
-    <cfRule type="expression" dxfId="13" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="114" stopIfTrue="1">
       <formula>AND(Y$5&gt;=$E20+1,Y$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24 AH24">
-    <cfRule type="expression" dxfId="12" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="119" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E20+1,AC$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24 AL23 AN24 AO21">
-    <cfRule type="expression" dxfId="11" priority="121">
+    <cfRule type="expression" dxfId="13" priority="121">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24 AN24">
-    <cfRule type="expression" dxfId="10" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="124" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E20+1,AH$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL23">
-    <cfRule type="expression" dxfId="9" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="129" stopIfTrue="1">
       <formula>AND(AI$5&gt;=$E20+1,AI$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN23">
-    <cfRule type="expression" dxfId="8" priority="131">
+    <cfRule type="expression" dxfId="10" priority="131">
       <formula>AJ$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN23">
-    <cfRule type="expression" dxfId="7" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="134" stopIfTrue="1">
       <formula>AND(AJ$5&gt;=$E20+1,AJ$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO21">
-    <cfRule type="expression" dxfId="6" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="139" stopIfTrue="1">
       <formula>AND(AL$5&gt;=$E20+1,AL$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23 AP22 AQ23 AR22">
-    <cfRule type="expression" dxfId="5" priority="141">
+    <cfRule type="expression" dxfId="7" priority="141">
       <formula>AM$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23 AQ23">
-    <cfRule type="expression" dxfId="4" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="145" stopIfTrue="1">
       <formula>AND(AM$5&gt;=$E20+1,AM$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22 AQ23 AR22">
-    <cfRule type="expression" dxfId="3" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="151" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E20+1,AN$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="2" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="156" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E21+1,AN$5&lt;=$E21+$F21-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ21">
-    <cfRule type="expression" dxfId="1" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="162" stopIfTrue="1">
       <formula>AND(AQ$5&gt;=$E20+1,AQ$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF30">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>AND(BF$5&gt;=$E30+1,BF$5&lt;=$E30+$F30-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:BK38">
+    <cfRule type="expression" dxfId="1" priority="169" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E39+1,H$5&lt;=$E39+$F39-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:BK36">
+    <cfRule type="expression" dxfId="0" priority="170" stopIfTrue="1">
+      <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7951,7 +7953,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D43</xm:sqref>
+          <xm:sqref>D6:D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A936BDD1-8F2E-4F78-9781-748D3B6620A9}">
@@ -7966,7 +7968,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
@@ -7988,25 +7990,6 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="93" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>H7:BK40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="6" id="{D1511172-ABAA-4E9C-9EAA-F8F9326885F2}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -8023,7 +8006,26 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H41:BK41</xm:sqref>
+          <xm:sqref>H40:BK40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="172" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H7:BK39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6506,13 +6506,13 @@
         <v>58</v>
       </c>
       <c r="D29" s="23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E29" s="24">
-        <v>44095</v>
+        <v>44131</v>
       </c>
       <c r="F29" s="44">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="27"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6506,7 +6506,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E29" s="24">
         <v>44131</v>
@@ -6581,7 +6581,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E30" s="24">
         <v>44131</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2382,7 +2382,7 @@
   <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6794,13 +6794,17 @@
         <v>44</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="23">
-        <v>0</v>
-      </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="44"/>
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="24">
+        <v>44151</v>
+      </c>
+      <c r="F33" s="44">
+        <v>1</v>
+      </c>
       <c r="G33" s="19"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
@@ -6936,7 +6940,7 @@
         <v>47</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="23">
         <v>0</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6220,7 +6220,7 @@
         <v>44131</v>
       </c>
       <c r="F25" s="44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>
@@ -6364,13 +6364,13 @@
         <v>54</v>
       </c>
       <c r="D27" s="23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E27" s="24">
         <v>44144</v>
       </c>
       <c r="F27" s="44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="27"/>
@@ -6512,7 +6512,7 @@
         <v>44131</v>
       </c>
       <c r="F29" s="44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="27"/>
@@ -6587,7 +6587,7 @@
         <v>44131</v>
       </c>
       <c r="F30" s="44">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="27"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6797,7 +6797,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="23">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E33" s="24">
         <v>44151</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6064,7 +6064,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="23">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E23" s="24">
         <v>44131</v>
@@ -6797,7 +6797,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="23">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E33" s="24">
         <v>44151</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7156,10 +7156,14 @@
         <v>64</v>
       </c>
       <c r="D38" s="23">
-        <v>0</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="44"/>
+        <v>0.18</v>
+      </c>
+      <c r="E38" s="24">
+        <v>44165</v>
+      </c>
+      <c r="F38" s="44">
+        <v>1</v>
+      </c>
       <c r="G38" s="19"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6070,7 +6070,7 @@
         <v>44131</v>
       </c>
       <c r="F23" s="44">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G23" s="19"/>
       <c r="H23" s="27"/>
@@ -6797,13 +6797,13 @@
         <v>56</v>
       </c>
       <c r="D33" s="23">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E33" s="24">
         <v>44151</v>
       </c>
       <c r="F33" s="44">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="27"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6220,7 +6220,7 @@
         <v>44131</v>
       </c>
       <c r="F25" s="44">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>
@@ -6295,7 +6295,7 @@
         <v>44131</v>
       </c>
       <c r="F26" s="44">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="27"/>
@@ -6364,13 +6364,13 @@
         <v>54</v>
       </c>
       <c r="D27" s="23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E27" s="24">
         <v>44144</v>
       </c>
       <c r="F27" s="44">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="27"/>
@@ -6803,7 +6803,7 @@
         <v>44151</v>
       </c>
       <c r="F33" s="44">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="27"/>
@@ -6872,10 +6872,14 @@
         <v>55</v>
       </c>
       <c r="D34" s="23">
-        <v>0</v>
-      </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="44"/>
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="24">
+        <v>44165</v>
+      </c>
+      <c r="F34" s="44">
+        <v>1</v>
+      </c>
       <c r="G34" s="19"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
@@ -7082,7 +7086,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37" s="23">
         <v>0</v>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -2381,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6214,13 +6214,13 @@
         <v>55</v>
       </c>
       <c r="D25" s="23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E25" s="24">
         <v>44131</v>
       </c>
       <c r="F25" s="44">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="27"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07F100F-0CED-4D81-9454-373BF0738DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -254,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1304,7 +1305,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1326,7 +1327,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -1933,12 +1934,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="35"/>
       <tableStyleElement type="headerRow" dxfId="34"/>
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="totalRow" dxfId="30"/>
@@ -2042,11 +2043,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>184150</xdr:colOff>
+          <xdr:colOff>180975</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2089,8 +2090,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F43" totalsRowShown="0">
-  <autoFilter ref="B6:F43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F43" totalsRowShown="0">
+  <autoFilter ref="B6:F43" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2098,11 +2099,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2375,30 +2376,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.7265625" customWidth="1"/>
-    <col min="8" max="63" width="3.54296875" customWidth="1"/>
-    <col min="68" max="69" width="10.26953125"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="63" width="3.5703125" customWidth="1"/>
+    <col min="68" max="69" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2412,7 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -2434,7 +2435,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="L3" s="43"/>
       <c r="M3" s="42"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
@@ -2551,7 +2552,7 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>m</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -3093,7 +3094,7 @@
       <c r="BJ7" s="37"/>
       <c r="BK7" s="37"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="62" t="s">
         <v>21</v>
@@ -3573,7 +3574,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="28" t="s">
         <v>22</v>
@@ -3816,7 +3817,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="62" t="s">
         <v>23</v>
@@ -4059,7 +4060,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="28" t="s">
         <v>38</v>
@@ -4302,7 +4303,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="62" t="s">
         <v>24</v>
@@ -4545,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="53" t="s">
         <v>37</v>
@@ -4780,7 +4781,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="62" t="s">
         <v>26</v>
@@ -5023,7 +5024,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="50" t="s">
         <v>27</v>
@@ -5266,7 +5267,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="50" t="s">
         <v>28</v>
@@ -5509,7 +5510,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="50" t="s">
         <v>29</v>
@@ -5752,7 +5753,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="50" t="s">
         <v>30</v>
@@ -5827,7 +5828,7 @@
       <c r="BJ19" s="27"/>
       <c r="BK19" s="27"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="63" t="s">
         <v>32</v>
@@ -5902,7 +5903,7 @@
       <c r="BJ20" s="27"/>
       <c r="BK20" s="27"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="51" t="s">
         <v>33</v>
@@ -5980,7 +5981,7 @@
       <c r="BJ21" s="27"/>
       <c r="BK21" s="27"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="51" t="s">
         <v>57</v>
@@ -6055,7 +6056,7 @@
       <c r="BJ22" s="27"/>
       <c r="BK22" s="27"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="51" t="s">
         <v>60</v>
@@ -6130,7 +6131,7 @@
       <c r="BJ23" s="27"/>
       <c r="BK23" s="27"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="64" t="s">
         <v>61</v>
@@ -6205,7 +6206,7 @@
       <c r="BJ24" s="27"/>
       <c r="BK24" s="27"/>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="64" t="s">
         <v>63</v>
@@ -6280,7 +6281,7 @@
       <c r="BJ25" s="27"/>
       <c r="BK25" s="27"/>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="64" t="s">
         <v>62</v>
@@ -6355,7 +6356,7 @@
       <c r="BJ26" s="27"/>
       <c r="BK26" s="27"/>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="64" t="s">
         <v>31</v>
@@ -6430,7 +6431,7 @@
       <c r="BJ27" s="27"/>
       <c r="BK27" s="27"/>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="56" t="s">
         <v>39</v>
@@ -6497,7 +6498,7 @@
       <c r="BJ28" s="27"/>
       <c r="BK28" s="27"/>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="54" t="s">
         <v>40</v>
@@ -6572,7 +6573,7 @@
       <c r="BJ29" s="27"/>
       <c r="BK29" s="27"/>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="65" t="s">
         <v>41</v>
@@ -6650,7 +6651,7 @@
       <c r="BJ30" s="27"/>
       <c r="BK30" s="27"/>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="51" t="s">
         <v>42</v>
@@ -6721,7 +6722,7 @@
       <c r="BJ31" s="27"/>
       <c r="BK31" s="27"/>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
       <c r="B32" s="57" t="s">
         <v>43</v>
@@ -6788,7 +6789,7 @@
       <c r="BJ32" s="27"/>
       <c r="BK32" s="27"/>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="50" t="s">
         <v>44</v>
@@ -6797,7 +6798,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="23">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E33" s="24">
         <v>44151</v>
@@ -6863,7 +6864,7 @@
       <c r="BJ33" s="27"/>
       <c r="BK33" s="27"/>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="50" t="s">
         <v>45</v>
@@ -6938,7 +6939,7 @@
       <c r="BJ34" s="27"/>
       <c r="BK34" s="27"/>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="51" t="s">
         <v>47</v>
@@ -7009,7 +7010,7 @@
       <c r="BJ35" s="27"/>
       <c r="BK35" s="27"/>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="64" t="s">
         <v>49</v>
@@ -7080,7 +7081,7 @@
       <c r="BJ36" s="27"/>
       <c r="BK36" s="27"/>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="51" t="s">
         <v>48</v>
@@ -7151,7 +7152,7 @@
       <c r="BJ37" s="27"/>
       <c r="BK37" s="27"/>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="51" t="s">
         <v>46</v>
@@ -7226,7 +7227,7 @@
       <c r="BJ38" s="27"/>
       <c r="BK38" s="27"/>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="58" t="s">
         <v>50</v>
@@ -7463,7 +7464,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="60" t="s">
         <v>51</v>
@@ -7700,7 +7701,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="59" t="s">
         <v>52</v>
       </c>
@@ -7712,7 +7713,7 @@
       <c r="F41" s="44"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>8</v>
       </c>
@@ -7726,7 +7727,7 @@
       <c r="E42" s="24"/>
       <c r="F42" s="44"/>
     </row>
-    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="66" t="s">
         <v>59</v>
       </c>
@@ -7743,11 +7744,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
     </row>
   </sheetData>
@@ -7906,7 +7907,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7930,11 +7931,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>184150</xdr:colOff>
+                    <xdr:colOff>180975</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -8046,35 +8047,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07F100F-0CED-4D81-9454-373BF0738DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Créez un diagramme de Gantt dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -234,9 +233,6 @@
     <t xml:space="preserve"> AMINE</t>
   </si>
   <si>
-    <t>BONUS : Envoi de mail automatique après inscription</t>
-  </si>
-  <si>
     <t>Rédaction de la documentation Développeur</t>
   </si>
   <si>
@@ -249,20 +245,26 @@
     <t>Création page "Offres d'emploi"</t>
   </si>
   <si>
-    <t>AMINE &amp; QUENTIN</t>
+    <t>QUENTIN &amp; QUENTIN</t>
+  </si>
+  <si>
+    <t>FIN DU PROJET 07/12/20</t>
+  </si>
+  <si>
+    <t>Envoi de mail automatique après inscription</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -532,8 +534,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,6 +750,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,9 +1171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1221,18 +1234,12 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1242,9 +1249,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,6 +1280,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20 % - Accent1" xfId="27" builtinId="30" customBuiltin="1"/>
@@ -1305,7 +1327,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Date" xfId="9"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1327,9 +1349,12 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1934,21 +1959,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
+    <tableStyle name="ToDoList" pivot="0" count="9">
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="totalRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="lastColumn" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2031,7 +2056,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="30"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$E$3" horiz="1" max="365" page="0" val="25"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2043,11 +2068,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>184150</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -2090,8 +2115,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F43" totalsRowShown="0">
-  <autoFilter ref="B6:F43" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F43" totalsRowShown="0">
+  <autoFilter ref="B6:F43">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2099,11 +2124,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
+    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" name="Affecté à"/>
+    <tableColumn id="4" name="Avancement"/>
+    <tableColumn id="5" name="Début"/>
+    <tableColumn id="6" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2376,30 +2401,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="63" width="3.5703125" customWidth="1"/>
-    <col min="68" max="69" width="10.28515625"/>
+    <col min="7" max="7" width="2.7265625" customWidth="1"/>
+    <col min="8" max="63" width="3.54296875" customWidth="1"/>
+    <col min="68" max="69" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:63" ht="50.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2412,62 +2437,65 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69">
+      <c r="D2" s="62"/>
+      <c r="E2" s="63">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="F2" s="64"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="35">
-        <v>30</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="42"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="34">
+        <v>25</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="36">
+      <c r="D4" s="66"/>
+      <c r="E4" s="35">
         <v>1</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <f>Marqueur_Jalon</f>
         <v>1</v>
       </c>
@@ -2513,7 +2541,7 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AJ5,"mmmm")=AC4,TEXT(AJ5,"mmmm")=V4,TEXT(AJ5,"mmmm")=O4,TEXT(AJ5,"mmmm")=H4),"",TEXT(AJ5,"mmmm"))</f>
-        <v>novembre</v>
+        <v/>
       </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="17"/>
@@ -2523,7 +2551,7 @@
       <c r="AP4" s="17"/>
       <c r="AQ4" s="17" t="str">
         <f ca="1">IF(OR(TEXT(AQ5,"mmmm")=AJ4,TEXT(AQ5,"mmmm")=AC4,TEXT(AQ5,"mmmm")=V4,TEXT(AQ5,"mmmm")=O4),"",TEXT(AQ5,"mmmm"))</f>
-        <v/>
+        <v>novembre</v>
       </c>
       <c r="AR4" s="17"/>
       <c r="AS4" s="17"/>
@@ -2552,238 +2580,238 @@
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="45">
+      <c r="B5" s="33"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="44">
         <f ca="1">IFERROR(Début_Projet+Incrément_Défilement,TODAY())</f>
+        <v>44106</v>
+      </c>
+      <c r="I5" s="45">
+        <f ca="1">H5+1</f>
+        <v>44107</v>
+      </c>
+      <c r="J5" s="46">
+        <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
+        <v>44108</v>
+      </c>
+      <c r="K5" s="46">
+        <f ca="1">J5+1</f>
+        <v>44109</v>
+      </c>
+      <c r="L5" s="46">
+        <f t="shared" ca="1" si="0"/>
+        <v>44110</v>
+      </c>
+      <c r="M5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44111</v>
       </c>
-      <c r="I5" s="46">
-        <f ca="1">H5+1</f>
+      <c r="N5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44112</v>
       </c>
-      <c r="J5" s="47">
-        <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
+      <c r="O5" s="46">
+        <f ca="1">N5+1</f>
         <v>44113</v>
       </c>
-      <c r="K5" s="47">
-        <f ca="1">J5+1</f>
+      <c r="P5" s="46">
+        <f ca="1">O5+1</f>
         <v>44114</v>
       </c>
-      <c r="L5" s="47">
+      <c r="Q5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44115</v>
       </c>
-      <c r="M5" s="47">
+      <c r="R5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44116</v>
       </c>
-      <c r="N5" s="47">
+      <c r="S5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44117</v>
       </c>
-      <c r="O5" s="47">
-        <f ca="1">N5+1</f>
+      <c r="T5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44118</v>
       </c>
-      <c r="P5" s="47">
-        <f ca="1">O5+1</f>
+      <c r="U5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44119</v>
       </c>
-      <c r="Q5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="V5" s="46">
+        <f ca="1">U5+1</f>
         <v>44120</v>
       </c>
-      <c r="R5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="W5" s="46">
+        <f ca="1">V5+1</f>
         <v>44121</v>
       </c>
-      <c r="S5" s="47">
+      <c r="X5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44122</v>
       </c>
-      <c r="T5" s="47">
+      <c r="Y5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44123</v>
       </c>
-      <c r="U5" s="47">
+      <c r="Z5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44124</v>
       </c>
-      <c r="V5" s="47">
-        <f ca="1">U5+1</f>
+      <c r="AA5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44125</v>
       </c>
-      <c r="W5" s="47">
-        <f ca="1">V5+1</f>
+      <c r="AB5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44126</v>
       </c>
-      <c r="X5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AC5" s="46">
+        <f ca="1">AB5+1</f>
         <v>44127</v>
       </c>
-      <c r="Y5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AD5" s="46">
+        <f ca="1">AC5+1</f>
         <v>44128</v>
       </c>
-      <c r="Z5" s="47">
+      <c r="AE5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44129</v>
       </c>
-      <c r="AA5" s="47">
+      <c r="AF5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44130</v>
       </c>
-      <c r="AB5" s="47">
+      <c r="AG5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44131</v>
       </c>
-      <c r="AC5" s="47">
-        <f ca="1">AB5+1</f>
+      <c r="AH5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44132</v>
       </c>
-      <c r="AD5" s="47">
-        <f ca="1">AC5+1</f>
+      <c r="AI5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44133</v>
       </c>
-      <c r="AE5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AJ5" s="46">
+        <f ca="1">AI5+1</f>
         <v>44134</v>
       </c>
-      <c r="AF5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AK5" s="46">
+        <f ca="1">AJ5+1</f>
         <v>44135</v>
       </c>
-      <c r="AG5" s="47">
+      <c r="AL5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44136</v>
       </c>
-      <c r="AH5" s="47">
+      <c r="AM5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44137</v>
       </c>
-      <c r="AI5" s="47">
+      <c r="AN5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44138</v>
       </c>
-      <c r="AJ5" s="47">
-        <f ca="1">AI5+1</f>
+      <c r="AO5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44139</v>
       </c>
-      <c r="AK5" s="47">
-        <f ca="1">AJ5+1</f>
+      <c r="AP5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44140</v>
       </c>
-      <c r="AL5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AQ5" s="46">
+        <f ca="1">AP5+1</f>
         <v>44141</v>
       </c>
-      <c r="AM5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AR5" s="46">
+        <f ca="1">AQ5+1</f>
         <v>44142</v>
       </c>
-      <c r="AN5" s="47">
+      <c r="AS5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44143</v>
       </c>
-      <c r="AO5" s="47">
+      <c r="AT5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44144</v>
       </c>
-      <c r="AP5" s="47">
+      <c r="AU5" s="46">
         <f t="shared" ca="1" si="0"/>
         <v>44145</v>
       </c>
-      <c r="AQ5" s="47">
-        <f ca="1">AP5+1</f>
+      <c r="AV5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44146</v>
       </c>
-      <c r="AR5" s="47">
-        <f ca="1">AQ5+1</f>
+      <c r="AW5" s="46">
+        <f t="shared" ca="1" si="0"/>
         <v>44147</v>
       </c>
-      <c r="AS5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AX5" s="46">
+        <f ca="1">AW5+1</f>
         <v>44148</v>
       </c>
-      <c r="AT5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AY5" s="46">
+        <f ca="1">AX5+1</f>
         <v>44149</v>
       </c>
-      <c r="AU5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AZ5" s="46">
+        <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
         <v>44150</v>
       </c>
-      <c r="AV5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BA5" s="46">
+        <f t="shared" ca="1" si="1"/>
         <v>44151</v>
       </c>
-      <c r="AW5" s="47">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BB5" s="46">
+        <f t="shared" ca="1" si="1"/>
         <v>44152</v>
       </c>
-      <c r="AX5" s="47">
-        <f ca="1">AW5+1</f>
+      <c r="BC5" s="46">
+        <f t="shared" ca="1" si="1"/>
         <v>44153</v>
       </c>
-      <c r="AY5" s="47">
-        <f ca="1">AX5+1</f>
+      <c r="BD5" s="46">
+        <f t="shared" ca="1" si="1"/>
         <v>44154</v>
       </c>
-      <c r="AZ5" s="47">
-        <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
+      <c r="BE5" s="46">
+        <f ca="1">BD5+1</f>
         <v>44155</v>
       </c>
-      <c r="BA5" s="47">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BF5" s="46">
+        <f ca="1">BE5+1</f>
         <v>44156</v>
       </c>
-      <c r="BB5" s="47">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BG5" s="46">
+        <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
         <v>44157</v>
       </c>
-      <c r="BC5" s="47">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BH5" s="46">
+        <f t="shared" ca="1" si="2"/>
         <v>44158</v>
       </c>
-      <c r="BD5" s="47">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BI5" s="46">
+        <f t="shared" ca="1" si="2"/>
         <v>44159</v>
       </c>
-      <c r="BE5" s="47">
-        <f ca="1">BD5+1</f>
+      <c r="BJ5" s="46">
+        <f t="shared" ca="1" si="2"/>
         <v>44160</v>
       </c>
-      <c r="BF5" s="47">
-        <f ca="1">BE5+1</f>
+      <c r="BK5" s="47">
+        <f t="shared" ca="1" si="2"/>
         <v>44161</v>
       </c>
-      <c r="BG5" s="47">
-        <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
-        <v>44162</v>
-      </c>
-      <c r="BH5" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44163</v>
-      </c>
-      <c r="BI5" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44164</v>
-      </c>
-      <c r="BJ5" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44165</v>
-      </c>
-      <c r="BK5" s="48">
-        <f t="shared" ca="1" si="2"/>
-        <v>44166</v>
-      </c>
     </row>
-    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
@@ -2803,308 +2831,308 @@
         <v>16</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="38" t="str">
+      <c r="H6" s="37" t="str">
         <f t="shared" ref="H6:AM6" ca="1" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
+        <v>v</v>
+      </c>
+      <c r="I6" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>s</v>
+      </c>
+      <c r="J6" s="40" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>d</v>
+      </c>
+      <c r="K6" s="39" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>l</v>
+      </c>
+      <c r="L6" s="39" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="I6" s="39" t="str">
+      <c r="M6" s="39" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>m</v>
+      </c>
+      <c r="N6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="J6" s="41" t="str">
+      <c r="O6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="K6" s="40" t="str">
+      <c r="P6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="L6" s="40" t="str">
+      <c r="Q6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="M6" s="40" t="str">
+      <c r="R6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="N6" s="40" t="str">
+      <c r="S6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="O6" s="40" t="str">
+      <c r="T6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="P6" s="40" t="str">
+      <c r="U6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="Q6" s="40" t="str">
+      <c r="V6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="R6" s="40" t="str">
+      <c r="W6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="S6" s="40" t="str">
+      <c r="X6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="T6" s="40" t="str">
+      <c r="Y6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="U6" s="40" t="str">
+      <c r="Z6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="V6" s="40" t="str">
+      <c r="AA6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="W6" s="40" t="str">
+      <c r="AB6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="X6" s="40" t="str">
+      <c r="AC6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="Y6" s="40" t="str">
+      <c r="AD6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="Z6" s="40" t="str">
+      <c r="AE6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="AA6" s="40" t="str">
+      <c r="AF6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="AB6" s="40" t="str">
+      <c r="AG6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AC6" s="40" t="str">
+      <c r="AH6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>m</v>
       </c>
-      <c r="AD6" s="40" t="str">
+      <c r="AI6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>j</v>
       </c>
-      <c r="AE6" s="40" t="str">
+      <c r="AJ6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>v</v>
       </c>
-      <c r="AF6" s="40" t="str">
+      <c r="AK6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>s</v>
       </c>
-      <c r="AG6" s="40" t="str">
+      <c r="AL6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>d</v>
       </c>
-      <c r="AH6" s="40" t="str">
+      <c r="AM6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>l</v>
       </c>
-      <c r="AI6" s="40" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN6" s="39" t="str">
+        <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
         <v>m</v>
       </c>
-      <c r="AJ6" s="40" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AO6" s="39" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AK6" s="40" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AP6" s="39" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AL6" s="40" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AQ6" s="39" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AM6" s="40" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AR6" s="39" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AN6" s="40" t="str">
-        <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
+      <c r="AS6" s="39" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AO6" s="40" t="str">
+      <c r="AT6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AP6" s="40" t="str">
+      <c r="AU6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AQ6" s="40" t="str">
+      <c r="AV6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AR6" s="40" t="str">
+      <c r="AW6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AS6" s="40" t="str">
+      <c r="AX6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="AT6" s="40" t="str">
+      <c r="AY6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="AU6" s="40" t="str">
+      <c r="AZ6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="AV6" s="40" t="str">
+      <c r="BA6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="AW6" s="40" t="str">
+      <c r="BB6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AX6" s="40" t="str">
+      <c r="BC6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="AY6" s="40" t="str">
+      <c r="BD6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="AZ6" s="40" t="str">
+      <c r="BE6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>v</v>
       </c>
-      <c r="BA6" s="40" t="str">
+      <c r="BF6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>s</v>
       </c>
-      <c r="BB6" s="40" t="str">
+      <c r="BG6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>d</v>
       </c>
-      <c r="BC6" s="40" t="str">
+      <c r="BH6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>l</v>
       </c>
-      <c r="BD6" s="40" t="str">
+      <c r="BI6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BE6" s="40" t="str">
+      <c r="BJ6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>m</v>
       </c>
-      <c r="BF6" s="40" t="str">
+      <c r="BK6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>j</v>
       </c>
-      <c r="BG6" s="40" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>v</v>
-      </c>
-      <c r="BH6" s="40" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>s</v>
-      </c>
-      <c r="BI6" s="40" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>d</v>
-      </c>
-      <c r="BJ6" s="40" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>l</v>
-      </c>
-      <c r="BK6" s="40" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>m</v>
-      </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37"/>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="37"/>
-      <c r="BH7" s="37"/>
-      <c r="BI7" s="37"/>
-      <c r="BJ7" s="37"/>
-      <c r="BK7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="23"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="19"/>
       <c r="H8" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E8,$F8=1),Marqueur_Jalon,"")),"")</f>
@@ -3331,9 +3359,9 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="68" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -3345,7 +3373,7 @@
       <c r="E9" s="24">
         <v>44081</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <v>9</v>
       </c>
       <c r="G9" s="19"/>
@@ -3365,55 +3393,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L9" s="49" t="str">
+      <c r="L9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M9" s="49" t="str">
+      <c r="M9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N9" s="49" t="str">
+      <c r="N9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O9" s="49" t="str">
+      <c r="O9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P9" s="49" t="str">
+      <c r="P9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q9" s="49" t="str">
+      <c r="Q9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R9" s="49" t="str">
+      <c r="R9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S9" s="49" t="str">
+      <c r="S9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T9" s="49" t="str">
+      <c r="T9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U9" s="49" t="str">
+      <c r="U9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V9" s="49" t="str">
+      <c r="V9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W9" s="49" t="str">
+      <c r="W9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X9" s="49" t="str">
+      <c r="X9" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E9,$F9=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -3574,9 +3602,9 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="68" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -3588,7 +3616,7 @@
       <c r="E10" s="24">
         <v>44081</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="43">
         <v>1</v>
       </c>
       <c r="G10" s="19"/>
@@ -3608,55 +3636,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L10" s="49" t="str">
+      <c r="L10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="49" t="str">
+      <c r="M10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N10" s="49" t="str">
+      <c r="N10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O10" s="49" t="str">
+      <c r="O10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P10" s="49" t="str">
+      <c r="P10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="49" t="str">
+      <c r="Q10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R10" s="49" t="str">
+      <c r="R10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S10" s="49" t="str">
+      <c r="S10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T10" s="49" t="str">
+      <c r="T10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U10" s="49" t="str">
+      <c r="U10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V10" s="49" t="str">
+      <c r="V10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W10" s="49" t="str">
+      <c r="W10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X10" s="49" t="str">
+      <c r="X10" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E10,$F10=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -3817,9 +3845,9 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="68" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -3831,7 +3859,7 @@
       <c r="E11" s="24">
         <v>44081</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <v>1</v>
       </c>
       <c r="G11" s="19"/>
@@ -3839,67 +3867,67 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="I11" s="49" t="str">
+      <c r="I11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(I$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="J11" s="49" t="str">
+      <c r="J11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(J$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="K11" s="49" t="str">
+      <c r="K11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L11" s="49" t="str">
+      <c r="L11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M11" s="49" t="str">
+      <c r="M11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N11" s="49" t="str">
+      <c r="N11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O11" s="49" t="str">
+      <c r="O11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P11" s="49" t="str">
+      <c r="P11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q11" s="49" t="str">
+      <c r="Q11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R11" s="49" t="str">
+      <c r="R11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S11" s="49" t="str">
+      <c r="S11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T11" s="49" t="str">
+      <c r="T11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U11" s="49" t="str">
+      <c r="U11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V11" s="49" t="str">
+      <c r="V11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W11" s="49" t="str">
+      <c r="W11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X11" s="49" t="str">
+      <c r="X11" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E11,$F11=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4060,9 +4088,9 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="68" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -4074,11 +4102,11 @@
       <c r="E12" s="24">
         <v>44081</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="43">
         <v>9</v>
       </c>
       <c r="G12" s="19"/>
-      <c r="H12" s="61" t="str">
+      <c r="H12" s="56" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4094,55 +4122,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L12" s="49" t="str">
+      <c r="L12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M12" s="49" t="str">
+      <c r="M12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N12" s="49" t="str">
+      <c r="N12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O12" s="49" t="str">
+      <c r="O12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P12" s="49" t="str">
+      <c r="P12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q12" s="49" t="str">
+      <c r="Q12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R12" s="49" t="str">
+      <c r="R12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S12" s="49" t="str">
+      <c r="S12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T12" s="49" t="str">
+      <c r="T12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U12" s="49" t="str">
+      <c r="U12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V12" s="49" t="str">
+      <c r="V12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W12" s="49" t="str">
+      <c r="W12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X12" s="49" t="str">
+      <c r="X12" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E12,$F12=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4303,9 +4331,9 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="68" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -4317,7 +4345,7 @@
       <c r="E13" s="24">
         <v>44081</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="43">
         <v>9</v>
       </c>
       <c r="G13" s="19"/>
@@ -4337,55 +4365,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="49" t="str">
+      <c r="L13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="49" t="str">
+      <c r="M13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N13" s="49" t="str">
+      <c r="N13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O13" s="49" t="str">
+      <c r="O13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P13" s="49" t="str">
+      <c r="P13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="49" t="str">
+      <c r="Q13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R13" s="49" t="str">
+      <c r="R13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S13" s="49" t="str">
+      <c r="S13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T13" s="49" t="str">
+      <c r="T13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U13" s="49" t="str">
+      <c r="U13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V13" s="49" t="str">
+      <c r="V13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W13" s="49" t="str">
+      <c r="W13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X13" s="49" t="str">
+      <c r="X13" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E13,$F13=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4546,15 +4574,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="70" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="44"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="19"/>
       <c r="H14" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
@@ -4572,55 +4600,55 @@
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L14" s="49" t="str">
+      <c r="L14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M14" s="49" t="str">
+      <c r="M14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N14" s="49" t="str">
+      <c r="N14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O14" s="49" t="str">
+      <c r="O14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P14" s="49" t="str">
+      <c r="P14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q14" s="49" t="str">
+      <c r="Q14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R14" s="49" t="str">
+      <c r="R14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S14" s="49" t="str">
+      <c r="S14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T14" s="49" t="str">
+      <c r="T14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U14" s="49" t="str">
+      <c r="U14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V14" s="49" t="str">
+      <c r="V14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W14" s="49" t="str">
+      <c r="W14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X14" s="49" t="str">
+      <c r="X14" s="48" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E14,$F14=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -4781,9 +4809,9 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="68" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -4795,7 +4823,7 @@
       <c r="E15" s="24">
         <v>44081</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="43">
         <v>9</v>
       </c>
       <c r="G15" s="19"/>
@@ -4815,55 +4843,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L15" s="49" t="str">
+      <c r="L15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M15" s="49" t="str">
+      <c r="M15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N15" s="49" t="str">
+      <c r="N15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O15" s="49" t="str">
+      <c r="O15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P15" s="49" t="str">
+      <c r="P15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q15" s="49" t="str">
+      <c r="Q15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R15" s="49" t="str">
+      <c r="R15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S15" s="49" t="str">
+      <c r="S15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T15" s="49" t="str">
+      <c r="T15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U15" s="49" t="str">
+      <c r="U15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V15" s="49" t="str">
+      <c r="V15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W15" s="49" t="str">
+      <c r="W15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X15" s="49" t="str">
+      <c r="X15" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E15,$F15=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -5024,9 +5052,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="58" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -5038,7 +5066,7 @@
       <c r="E16" s="24">
         <v>44088</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="43">
         <v>9</v>
       </c>
       <c r="G16" s="19"/>
@@ -5058,55 +5086,55 @@
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(K$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="L16" s="49" t="str">
+      <c r="L16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(L$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="M16" s="49" t="str">
+      <c r="M16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(M$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="N16" s="49" t="str">
+      <c r="N16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(N$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="O16" s="49" t="str">
+      <c r="O16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(O$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="P16" s="49" t="str">
+      <c r="P16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(P$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="Q16" s="49" t="str">
+      <c r="Q16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(Q$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="R16" s="49" t="str">
+      <c r="R16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(R$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="S16" s="49" t="str">
+      <c r="S16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(S$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="T16" s="49" t="str">
+      <c r="T16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(T$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="U16" s="49" t="str">
+      <c r="U16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(U$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="V16" s="49" t="str">
+      <c r="V16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(V$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="W16" s="49" t="str">
+      <c r="W16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(W$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
-      <c r="X16" s="49" t="str">
+      <c r="X16" s="48" t="str">
         <f ca="1">IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(X$5=$E16,$F16=1),Marqueur_Jalon,"")),"")</f>
         <v/>
       </c>
@@ -5267,9 +5295,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="58" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -5281,7 +5309,7 @@
       <c r="E17" s="24">
         <v>44095</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <v>1</v>
       </c>
       <c r="G17" s="19"/>
@@ -5510,9 +5538,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="58" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -5524,7 +5552,7 @@
       <c r="E18" s="24">
         <v>44117</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="43">
         <v>16</v>
       </c>
       <c r="G18" s="19"/>
@@ -5753,9 +5781,9 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -5767,7 +5795,7 @@
       <c r="E19" s="24">
         <v>44088</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="43">
         <v>9</v>
       </c>
       <c r="G19" s="19"/>
@@ -5828,9 +5856,9 @@
       <c r="BJ19" s="27"/>
       <c r="BK19" s="27"/>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="57" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -5842,7 +5870,7 @@
       <c r="E20" s="24">
         <v>44088</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="43">
         <v>9</v>
       </c>
       <c r="G20" s="19"/>
@@ -5903,9 +5931,9 @@
       <c r="BJ20" s="27"/>
       <c r="BK20" s="27"/>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -5917,7 +5945,7 @@
       <c r="E21" s="24">
         <v>44095</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="43">
         <v>7</v>
       </c>
       <c r="G21" s="19"/>
@@ -5981,9 +6009,9 @@
       <c r="BJ21" s="27"/>
       <c r="BK21" s="27"/>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -5995,7 +6023,7 @@
       <c r="E22" s="24">
         <v>44095</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="43">
         <v>1</v>
       </c>
       <c r="G22" s="19"/>
@@ -6056,10 +6084,10 @@
       <c r="BJ22" s="27"/>
       <c r="BK22" s="27"/>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
-      <c r="B23" s="51" t="s">
-        <v>60</v>
+      <c r="B23" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>56</v>
@@ -6070,7 +6098,7 @@
       <c r="E23" s="24">
         <v>44131</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="43">
         <v>32</v>
       </c>
       <c r="G23" s="19"/>
@@ -6131,10 +6159,10 @@
       <c r="BJ23" s="27"/>
       <c r="BK23" s="27"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
-      <c r="B24" s="64" t="s">
-        <v>61</v>
+      <c r="B24" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>55</v>
@@ -6145,7 +6173,7 @@
       <c r="E24" s="24">
         <v>44116</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="43">
         <v>1</v>
       </c>
       <c r="G24" s="19"/>
@@ -6206,21 +6234,21 @@
       <c r="BJ24" s="27"/>
       <c r="BK24" s="27"/>
     </row>
-    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
-      <c r="B25" s="64" t="s">
-        <v>63</v>
+      <c r="B25" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E25" s="24">
         <v>44131</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <v>36</v>
       </c>
       <c r="G25" s="19"/>
@@ -6281,10 +6309,10 @@
       <c r="BJ25" s="27"/>
       <c r="BK25" s="27"/>
     </row>
-    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
-      <c r="B26" s="64" t="s">
-        <v>62</v>
+      <c r="B26" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>55</v>
@@ -6295,7 +6323,7 @@
       <c r="E26" s="24">
         <v>44131</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="43">
         <v>35</v>
       </c>
       <c r="G26" s="19"/>
@@ -6356,9 +6384,9 @@
       <c r="BJ26" s="27"/>
       <c r="BK26" s="27"/>
     </row>
-    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="58" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -6370,8 +6398,8 @@
       <c r="E27" s="24">
         <v>44144</v>
       </c>
-      <c r="F27" s="44">
-        <v>22</v>
+      <c r="F27" s="43">
+        <v>29</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="27"/>
@@ -6431,15 +6459,15 @@
       <c r="BJ27" s="27"/>
       <c r="BK27" s="27"/>
     </row>
-    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="44"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="19"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -6498,9 +6526,9 @@
       <c r="BJ28" s="27"/>
       <c r="BK28" s="27"/>
     </row>
-    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="59" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="26" t="s">
@@ -6512,7 +6540,7 @@
       <c r="E29" s="24">
         <v>44131</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="43">
         <v>20</v>
       </c>
       <c r="G29" s="19"/>
@@ -6573,9 +6601,9 @@
       <c r="BJ29" s="27"/>
       <c r="BK29" s="27"/>
     </row>
-    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="59" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -6587,7 +6615,7 @@
       <c r="E30" s="24">
         <v>44131</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="43">
         <v>20</v>
       </c>
       <c r="G30" s="19"/>
@@ -6651,9 +6679,9 @@
       <c r="BJ30" s="27"/>
       <c r="BK30" s="27"/>
     </row>
-    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="50" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -6663,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="44"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="19"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -6722,15 +6750,15 @@
       <c r="BJ31" s="27"/>
       <c r="BK31" s="27"/>
     </row>
-    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="71" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="44"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="19"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
@@ -6789,22 +6817,22 @@
       <c r="BJ32" s="27"/>
       <c r="BK32" s="27"/>
     </row>
-    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E33" s="24">
         <v>44151</v>
       </c>
-      <c r="F33" s="44">
-        <v>15</v>
+      <c r="F33" s="43">
+        <v>22</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="27"/>
@@ -6864,22 +6892,22 @@
       <c r="BJ33" s="27"/>
       <c r="BK33" s="27"/>
     </row>
-    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D34" s="23">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E34" s="24">
         <v>44165</v>
       </c>
-      <c r="F34" s="44">
-        <v>1</v>
+      <c r="F34" s="43">
+        <v>7</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="27"/>
@@ -6939,9 +6967,9 @@
       <c r="BJ34" s="27"/>
       <c r="BK34" s="27"/>
     </row>
-    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="50" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -6951,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="24"/>
-      <c r="F35" s="44"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="19"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
@@ -7010,19 +7038,23 @@
       <c r="BJ35" s="27"/>
       <c r="BK35" s="27"/>
     </row>
-    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="58" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="23">
-        <v>0</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="44"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="24">
+        <v>44172</v>
+      </c>
+      <c r="F36" s="43">
+        <v>1</v>
+      </c>
       <c r="G36" s="19"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -7081,19 +7113,19 @@
       <c r="BJ36" s="27"/>
       <c r="BK36" s="27"/>
     </row>
-    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="50" t="s">
         <v>48</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="24"/>
-      <c r="F37" s="44"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="19"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
@@ -7152,23 +7184,17 @@
       <c r="BJ37" s="27"/>
       <c r="BK37" s="27"/>
     </row>
-    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>64</v>
-      </c>
+      <c r="C38" s="26"/>
       <c r="D38" s="23">
-        <v>0.18</v>
-      </c>
-      <c r="E38" s="24">
-        <v>44165</v>
-      </c>
-      <c r="F38" s="44">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="19"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -7227,17 +7253,15 @@
       <c r="BJ38" s="27"/>
       <c r="BK38" s="27"/>
     </row>
-    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="23">
-        <v>0</v>
-      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="24"/>
-      <c r="F39" s="44"/>
+      <c r="F39" s="43"/>
       <c r="G39" s="19"/>
       <c r="H39" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E42,$F42=1),Marqueur_Jalon,"")),"")</f>
@@ -7464,17 +7488,17 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="23">
         <v>0</v>
       </c>
       <c r="E40" s="24"/>
-      <c r="F40" s="44"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="19"/>
       <c r="H40" s="27" t="str">
         <f>IFERROR(IF(LEN(Jalons[[#This Row],[Nombre de jours]])=0,"",IF(AND(H$5=$E43,$F43=1),Marqueur_Jalon,"")),"")</f>
@@ -7701,23 +7725,23 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+    <row r="41" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="23">
         <v>0</v>
       </c>
       <c r="E41" s="24"/>
-      <c r="F41" s="44"/>
+      <c r="F41" s="43"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="72" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="26"/>
@@ -7725,11 +7749,11 @@
         <v>0</v>
       </c>
       <c r="E42" s="24"/>
-      <c r="F42" s="44"/>
+      <c r="F42" s="43"/>
     </row>
-    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="66" t="s">
-        <v>59</v>
+    <row r="43" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="60" t="s">
+        <v>65</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>55</v>
@@ -7740,15 +7764,15 @@
       <c r="E43" s="24">
         <v>44109</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="43">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="5"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="6"/>
     </row>
   </sheetData>
@@ -7773,17 +7797,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:W22 Y22:BK22 H8:BK21 H23:BK39">
-    <cfRule type="expression" dxfId="23" priority="84">
+    <cfRule type="expression" dxfId="24" priority="84">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:W22 Z22 AB22:AD22 H21:AN21 AH22:AO22 AP21 AR20:BK21 AS22:BK22 AQ22 H7:BK19 H20:AQ20">
-    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7802,112 +7826,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:BK40">
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>H$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:Y23 AA23 AD23:AK23 AM23 AO22 AP23 AR23:BK23">
-    <cfRule type="expression" dxfId="19" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="97" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E23+1,H$5&lt;=$E23+$F23-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:AC24 AE24:AG24 AI24:AJ24 AL24:AM24 AO24:BK24 H25:BK35 H39:BK40">
-    <cfRule type="expression" dxfId="18" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="105" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E27+1,H$5&lt;=$E27+$F27-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:Y22 Z23 AA22 AB23:AC23 AD24 AE22:AG22 AH24">
-    <cfRule type="expression" dxfId="17" priority="107">
+    <cfRule type="expression" dxfId="18" priority="107">
       <formula>W$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22:Y22 AA22 AE22:AG22">
-    <cfRule type="expression" dxfId="16" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="109" stopIfTrue="1">
       <formula>AND(W$5&gt;=$E20+1,W$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23 AB23:AC23">
-    <cfRule type="expression" dxfId="15" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="114" stopIfTrue="1">
       <formula>AND(Y$5&gt;=$E20+1,Y$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24 AH24">
-    <cfRule type="expression" dxfId="14" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="119" stopIfTrue="1">
       <formula>AND(AC$5&gt;=$E20+1,AC$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24 AL23 AN24 AO21">
-    <cfRule type="expression" dxfId="13" priority="121">
+    <cfRule type="expression" dxfId="14" priority="121">
       <formula>AH$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24 AN24">
-    <cfRule type="expression" dxfId="12" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="124" stopIfTrue="1">
       <formula>AND(AH$5&gt;=$E20+1,AH$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL23">
-    <cfRule type="expression" dxfId="11" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="129" stopIfTrue="1">
       <formula>AND(AI$5&gt;=$E20+1,AI$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN23">
-    <cfRule type="expression" dxfId="10" priority="131">
+    <cfRule type="expression" dxfId="11" priority="131">
       <formula>AJ$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN23">
-    <cfRule type="expression" dxfId="9" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="134" stopIfTrue="1">
       <formula>AND(AJ$5&gt;=$E20+1,AJ$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO21">
-    <cfRule type="expression" dxfId="8" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="139" stopIfTrue="1">
       <formula>AND(AL$5&gt;=$E20+1,AL$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23 AP22 AQ23 AR22">
-    <cfRule type="expression" dxfId="7" priority="141">
+    <cfRule type="expression" dxfId="8" priority="141">
       <formula>AM$5&lt;=Aujourd’hui</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23 AQ23">
-    <cfRule type="expression" dxfId="6" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="145" stopIfTrue="1">
       <formula>AND(AM$5&gt;=$E20+1,AM$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22 AQ23 AR22">
-    <cfRule type="expression" dxfId="5" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="151" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E20+1,AN$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="4" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="156" stopIfTrue="1">
       <formula>AND(AN$5&gt;=$E21+1,AN$5&lt;=$E21+$F21-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ21">
-    <cfRule type="expression" dxfId="3" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="162" stopIfTrue="1">
       <formula>AND(AQ$5&gt;=$E20+1,AQ$5&lt;=$E20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF30">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND(BF$5&gt;=$E30+1,BF$5&lt;=$E30+$F30-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:BK38">
-    <cfRule type="expression" dxfId="1" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="169" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E39+1,H$5&lt;=$E39+$F39-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:BK36">
-    <cfRule type="expression" dxfId="0" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="170" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7931,11 +7955,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>180975</xdr:colOff>
+                    <xdr:colOff>184150</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>342900</xdr:rowOff>
                   </to>
@@ -8047,35 +8071,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="87.1796875" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:1" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1262,6 +1262,24 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1279,24 +1297,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2408,7 +2408,7 @@
   <dimension ref="A1:BK45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2444,15 +2444,15 @@
       <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63">
+      <c r="D2" s="68"/>
+      <c r="E2" s="69">
         <f ca="1">IFERROR(IF(MIN(Jalons[Début])=0,TODAY(),MIN(Jalons[Début])),TODAY())</f>
         <v>44081</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="70"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
@@ -2467,10 +2467,10 @@
       <c r="B3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="34">
         <v>25</v>
       </c>
@@ -2485,13 +2485,13 @@
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="35">
         <v>1</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
@@ -3126,7 +3126,7 @@
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="63" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="26"/>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -3604,7 +3604,7 @@
     </row>
     <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="62" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -3847,7 +3847,7 @@
     </row>
     <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="62" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -4090,7 +4090,7 @@
     </row>
     <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="62" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -4333,7 +4333,7 @@
     </row>
     <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="62" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -4576,7 +4576,7 @@
     </row>
     <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="64" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="26"/>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -6752,7 +6752,7 @@
     </row>
     <row r="32" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="65" t="s">
         <v>43</v>
       </c>
       <c r="C32" s="26"/>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="39" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="65" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="49"/>
@@ -7741,7 +7741,7 @@
       <c r="A42" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="66" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="26"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535D8BD6-D7FA-420E-B5C2-03AB9BD0D92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,10 +18,19 @@
     <definedName name="Incrément_Défilement">Gantt!$E$3</definedName>
     <definedName name="Marqueur_Jalon">Gantt!$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -257,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1327,7 +1337,7 @@
     <cellStyle name="Avertissement" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Entrée" xfId="18" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="16" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -1349,7 +1359,7 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="37">
     <dxf>
@@ -1959,12 +1969,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="firstRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -2115,8 +2125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Jalons" displayName="Jalons" ref="B6:F43" totalsRowShown="0">
-  <autoFilter ref="B6:F43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Jalons" displayName="Jalons" ref="B6:F43" totalsRowShown="0">
+  <autoFilter ref="B6:F43" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2124,11 +2134,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Description du jalon" dataDxfId="0"/>
-    <tableColumn id="3" name="Affecté à"/>
-    <tableColumn id="4" name="Avancement"/>
-    <tableColumn id="5" name="Début"/>
-    <tableColumn id="6" name="Nombre de jours"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Description du jalon" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Affecté à"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avancement"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Début"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nombre de jours"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -2401,14 +2411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BK45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6093,7 +6103,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="23">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E23" s="24">
         <v>44131</v>
@@ -6168,7 +6178,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E24" s="24">
         <v>44116</v>
@@ -6688,7 +6698,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="43"/>
@@ -7931,7 +7941,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Incrément de défilement" prompt="La modification de ce nombre entraînera la défilement du diagramme de Gantt." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -8071,7 +8081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
